--- a/result calculation sheet.xlsx
+++ b/result calculation sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdous\Documents\GitHub\result_calculation_excel_sheet\result_calculation_excel_sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdous\Documents\GitHub\result_calculation_excel_sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DCD370-FC01-4328-B337-50FBD1526767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF7D3A7-8734-467C-9211-155FB7CC31BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{86089DA0-2BA1-4133-B16D-0F30CFEF8E2B}"/>
   </bookViews>
@@ -830,8 +830,8 @@
   </sheetPr>
   <dimension ref="A1:AH63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.21875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>

--- a/result calculation sheet.xlsx
+++ b/result calculation sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdous\Documents\GitHub\result_calculation_excel_sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF7D3A7-8734-467C-9211-155FB7CC31BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A0BD2D-4C89-43D2-8436-3858970C0BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{86089DA0-2BA1-4133-B16D-0F30CFEF8E2B}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>সুমাইয়া খাতুন</t>
   </si>
@@ -417,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
@@ -436,10 +436,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,12 +452,32 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -480,11 +496,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -492,6 +517,76 @@
       <fill>
         <patternFill>
           <fgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -828,172 +923,203 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH63"/>
+  <dimension ref="A1:AO63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.21875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="11" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="4.77734375" style="18" customWidth="1"/>
     <col min="4" max="4" width="4.77734375" style="8" customWidth="1"/>
-    <col min="5" max="6" width="4.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" style="32" customWidth="1"/>
     <col min="7" max="8" width="4.77734375" style="8" customWidth="1"/>
-    <col min="9" max="10" width="4.77734375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" style="32" customWidth="1"/>
     <col min="11" max="11" width="4.77734375" style="8" customWidth="1"/>
-    <col min="12" max="12" width="4.77734375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="4.77734375" style="32" customWidth="1"/>
     <col min="13" max="13" width="4.77734375" style="8" customWidth="1"/>
-    <col min="14" max="14" width="4.77734375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="4.77734375" style="32" customWidth="1"/>
     <col min="15" max="15" width="4.77734375" style="8" customWidth="1"/>
-    <col min="16" max="16" width="4.77734375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="4.77734375" style="2" customWidth="1"/>
     <col min="17" max="17" width="4.77734375" style="8" customWidth="1"/>
-    <col min="18" max="18" width="4.77734375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="4.77734375" style="32" customWidth="1"/>
     <col min="19" max="19" width="4.77734375" style="8" customWidth="1"/>
-    <col min="20" max="20" width="4.77734375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="4.77734375" style="32" customWidth="1"/>
     <col min="21" max="21" width="4.77734375" style="8" customWidth="1"/>
-    <col min="22" max="23" width="4.77734375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="4.77734375" style="9" customWidth="1"/>
-    <col min="25" max="26" width="4.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.77734375" style="32" customWidth="1"/>
+    <col min="23" max="24" width="4.77734375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="4.77734375" style="32" customWidth="1"/>
+    <col min="26" max="26" width="4.77734375" style="2" customWidth="1"/>
     <col min="27" max="27" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="34" width="21.21875" style="20"/>
-    <col min="35" max="16384" width="21.21875" style="4"/>
+    <col min="28" max="28" width="13.33203125" style="22" customWidth="1"/>
+    <col min="29" max="34" width="13.33203125" style="21" customWidth="1"/>
+    <col min="35" max="41" width="21.21875" style="24"/>
+    <col min="42" max="16384" width="21.21875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:41" ht="23.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-    </row>
-    <row r="2" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+    </row>
+    <row r="2" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-    </row>
-    <row r="3" spans="1:34" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="23" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+    </row>
+    <row r="3" spans="1:41" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-    </row>
-    <row r="4" spans="1:34" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="25" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+    </row>
+    <row r="4" spans="1:41" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-    </row>
-    <row r="5" spans="1:34" s="5" customFormat="1" ht="67.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+    </row>
+    <row r="5" spans="1:41" s="5" customFormat="1" ht="67.8" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1002,7 +1128,7 @@
       <c r="E5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="31" t="s">
         <v>43</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -1014,19 +1140,19 @@
       <c r="I5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="31" t="s">
         <v>47</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="31" t="s">
         <v>49</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="31" t="s">
         <v>51</v>
       </c>
       <c r="O5" s="5" t="s">
@@ -1038,19 +1164,19 @@
       <c r="Q5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="31" t="s">
         <v>55</v>
       </c>
       <c r="S5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="31" t="s">
         <v>64</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="31" t="s">
         <v>58</v>
       </c>
       <c r="W5" s="1" t="s">
@@ -1059,7 +1185,7 @@
       <c r="X5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Y5" s="31" t="s">
         <v>60</v>
       </c>
       <c r="Z5" s="1" t="s">
@@ -1068,20 +1194,27 @@
       <c r="AA5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AB5" s="20"/>
+      <c r="AB5" s="23"/>
       <c r="AC5" s="20"/>
       <c r="AD5" s="20"/>
       <c r="AE5" s="20"/>
       <c r="AF5" s="20"/>
       <c r="AG5" s="20"/>
       <c r="AH5" s="20"/>
-    </row>
-    <row r="6" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="24"/>
+    </row>
+    <row r="6" spans="1:41" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="15">
+      <c r="B6" s="26"/>
+      <c r="C6" s="13">
         <v>100</v>
       </c>
       <c r="D6" s="6">
@@ -1091,7 +1224,7 @@
         <f>D6+C6</f>
         <v>150</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="30">
         <f>IF(E6&lt;50,0,IF(E6&lt;60,1,IF(E6&lt;75,2,IF(E6&lt;90,3,IF(E6&lt;105,3.5,IF(E6&lt;120,4,5))))))</f>
         <v>5</v>
       </c>
@@ -1105,1857 +1238,2323 @@
         <f>G6+H6</f>
         <v>150</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="30">
         <f>IF(I6&lt;50,0,IF(I6&lt;60,1,IF(I6&lt;75,2,IF(I6&lt;90,3,IF(I6&lt;105,3.5,IF(I6&lt;120,4,5))))))</f>
         <v>5</v>
       </c>
       <c r="K6" s="6">
         <v>100</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="30">
         <f>IF(K6&lt;33,0,IF(K6&lt;40,1,IF(K6&lt;50,2,IF(K6&lt;60,3,IF(K6&lt;70,3.5,IF(K6&lt;80,4,5))))))</f>
         <v>5</v>
       </c>
       <c r="M6" s="6">
         <v>100</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="30">
         <f>IF(M6&lt;33,0,IF(M6&lt;40,1,IF(M6&lt;50,2,IF(M6&lt;60,3,IF(M6&lt;70,3.5,IF(M6&lt;80,4,5))))))</f>
         <v>5</v>
       </c>
       <c r="O6" s="6">
         <v>50</v>
       </c>
-      <c r="P6" s="6">
-        <f>IF(O6&lt;33,0,IF(O6&lt;20,0.5,IF(O6&lt;25,1,IF(O6&lt;30,1.5,IF(O6&lt;35,1.75,IF(O6&lt;40,2,2.5))))))</f>
+      <c r="P6" s="30">
+        <f>IF(O6&gt;=40, 2.5, IF(O6&gt;=35, 2, IF(O6&gt;=34, 1.75, IF(O6&gt;=30, 1.5, IF(O6&gt;=25, 1, IF(O6&gt;=20, 0.5, 0))))))</f>
         <v>2.5</v>
       </c>
       <c r="Q6" s="6">
         <v>100</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="30">
         <f>IF(Q6&lt;33,0,IF(Q6&lt;40,1,IF(Q6&lt;50,2,IF(Q6&lt;60,3,IF(Q6&lt;70,3.5,IF(Q6&lt;80,4,5))))))</f>
         <v>5</v>
       </c>
       <c r="S6" s="6">
         <v>100</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="30">
         <f>IF(S6&lt;33,0,IF(S6&lt;40,1,IF(S6&lt;50,2,IF(S6&lt;60,3,IF(S6&lt;70,3.5,IF(S6&lt;80,4,5))))))</f>
         <v>5</v>
       </c>
       <c r="U6" s="6">
-        <v>100</v>
-      </c>
-      <c r="V6" s="2">
-        <f>IF(U6&lt;50,0,IF(U6&lt;60,1,IF(U6&lt;70,1.5,IF(U6&lt;80,2,3))))</f>
-        <v>3</v>
+        <v>50</v>
+      </c>
+      <c r="V6" s="32">
+        <f>_xlfn.LET(
+  _xlpm.m, U6,
+  _xlpm.g, IF(_xlpm.m&gt;=39.5,2.5,IF(_xlpm.m&gt;=34.5,2,IF(_xlpm.m&gt;=29.5,1.75,IF(_xlpm.m&gt;=24.5,1.5,IF(_xlpm.m&gt;=19.5,1,IF(_xlpm.m&gt;=16.5,0.5,0)))))),
+  IF(_xlpm.g&lt;=1, 0, _xlpm.g-1)
+)</f>
+        <v>1.5</v>
       </c>
       <c r="W6" s="6">
         <f>SUM(E6,I6,K6,M6,O6,Q6,S6,U6)</f>
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="X6" s="6">
         <f>SUM(F6,J6,L6,N6,P6,R6,T6,V6)</f>
-        <v>35.5</v>
-      </c>
-      <c r="Y6" s="6">
-        <f>X6/7.5</f>
-        <v>4.7333333333333334</v>
+        <v>34</v>
+      </c>
+      <c r="Y6" s="30">
+        <f>IF(MIN(F6,J6,L6,N6,P6,R6,T6)&lt;1, 0, MAX(0, MIN(5, X6/6.5)))</f>
+        <v>5</v>
       </c>
       <c r="Z6" s="6"/>
-      <c r="AA6" s="6" t="str">
-        <f>IF((F6=0)+(J6=0)+(L6=0)+(N6=0)+(P6=0)+(R6=0)+(T6=0)+(V6=0)&gt;0, "অকৃতকার্য বিষয়: " &amp; SUM((F6=0), (J6=0), (L6=0), (N6=0), (P6=0), (R6=0), (T6=0), (V6=0)), "")</f>
-        <v/>
-      </c>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="20"/>
-      <c r="AH6" s="20"/>
-    </row>
-    <row r="7" spans="1:34" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="22">
+        <f>IF(MIN(F6,J6,L6,N6,P6,R6,T6)&lt;1, 0, MAX(0, X6/6.5))</f>
+        <v>5.2307692307692308</v>
+      </c>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="24"/>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="24"/>
+    </row>
+    <row r="7" spans="1:41" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>0</v>
+      <c r="B7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18">
+        <v>70</v>
+      </c>
+      <c r="D7" s="8">
+        <v>38</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" ref="E7:E61" si="0">D7+C7</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
+        <v>108</v>
+      </c>
+      <c r="F7" s="30">
         <f t="shared" ref="F7:F61" si="1">IF(E7&lt;50,0,IF(E7&lt;60,1,IF(E7&lt;75,2,IF(E7&lt;90,3,IF(E7&lt;105,3.5,IF(E7&lt;120,4,5))))))</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="10">
-        <v>41</v>
+        <v>4</v>
+      </c>
+      <c r="G7" s="19">
+        <v>60</v>
+      </c>
+      <c r="H7" s="8">
+        <v>13</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" ref="I7:I61" si="2">G7+H7</f>
-        <v>41</v>
-      </c>
-      <c r="J7" s="6">
+        <v>73</v>
+      </c>
+      <c r="J7" s="30">
         <f t="shared" ref="J7:J61" si="3">IF(I7&lt;50,0,IF(I7&lt;60,1,IF(I7&lt;75,2,IF(I7&lt;90,3,IF(I7&lt;105,3.5,IF(I7&lt;120,4,5))))))</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
+        <v>2</v>
+      </c>
+      <c r="L7" s="30">
         <f t="shared" ref="L7:L61" si="4">IF(K7&lt;33,0,IF(K7&lt;40,1,IF(K7&lt;50,2,IF(K7&lt;60,3,IF(K7&lt;70,3.5,IF(K7&lt;80,4,5))))))</f>
         <v>0</v>
       </c>
-      <c r="N7" s="6">
+      <c r="M7" s="8">
+        <v>60</v>
+      </c>
+      <c r="N7" s="30">
         <f t="shared" ref="N7:N61" si="5">IF(M7&lt;33,0,IF(M7&lt;40,1,IF(M7&lt;50,2,IF(M7&lt;60,3,IF(M7&lt;70,3.5,IF(M7&lt;80,4,5))))))</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="O7" s="8">
         <v>46</v>
       </c>
-      <c r="P7" s="6">
-        <f t="shared" ref="P7:P61" si="6">IF(O7&lt;33,0,IF(O7&lt;20,0.5,IF(O7&lt;25,1,IF(O7&lt;30,1.5,IF(O7&lt;35,1.75,IF(O7&lt;40,2,2.5))))))</f>
+      <c r="P7" s="30">
+        <f t="shared" ref="P7:P61" si="6">IF(O7&gt;=40, 2.5, IF(O7&gt;=35, 2, IF(O7&gt;=34, 1.75, IF(O7&gt;=30, 1.5, IF(O7&gt;=25, 1, IF(O7&gt;=20, 0.5, 0))))))</f>
         <v>2.5</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="8">
         <v>66</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="30">
         <f t="shared" ref="R7:R61" si="7">IF(Q7&lt;33,0,IF(Q7&lt;40,1,IF(Q7&lt;50,2,IF(Q7&lt;60,3,IF(Q7&lt;70,3.5,IF(Q7&lt;80,4,5))))))</f>
         <v>3.5</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="30">
         <f t="shared" ref="T7:T61" si="8">IF(S7&lt;33,0,IF(S7&lt;40,1,IF(S7&lt;50,2,IF(S7&lt;60,3,IF(S7&lt;70,3.5,IF(S7&lt;80,4,5))))))</f>
         <v>0</v>
       </c>
-      <c r="V7" s="2">
-        <f t="shared" ref="V7:V61" si="9">IF(U7&lt;50,0,IF(U7&lt;60,1,IF(U7&lt;70,1.5,IF(U7&lt;80,2,3))))</f>
-        <v>0</v>
+      <c r="U7" s="8">
+        <v>36</v>
+      </c>
+      <c r="V7" s="32">
+        <f t="shared" ref="V7:V61" si="9">_xlfn.LET(
+  _xlpm.m, U7,
+  _xlpm.g, IF(_xlpm.m&gt;=39.5,2.5,IF(_xlpm.m&gt;=34.5,2,IF(_xlpm.m&gt;=29.5,1.75,IF(_xlpm.m&gt;=24.5,1.5,IF(_xlpm.m&gt;=19.5,1,IF(_xlpm.m&gt;=16.5,0.5,0)))))),
+  IF(_xlpm.g&lt;=1, 0, _xlpm.g-1)
+)</f>
+        <v>1</v>
       </c>
       <c r="W7" s="6">
         <f t="shared" ref="W7:W61" si="10">SUM(E7,I7,K7,M7,O7,Q7,S7,U7)</f>
-        <v>153</v>
+        <v>389</v>
       </c>
       <c r="X7" s="6">
         <f t="shared" ref="X7:X61" si="11">SUM(F7,J7,L7,N7,P7,R7,T7,V7)</f>
-        <v>6</v>
-      </c>
-      <c r="Y7" s="6">
-        <f t="shared" ref="Y7:Y61" si="12">X7/7.5</f>
-        <v>0.8</v>
-      </c>
-      <c r="Z7" s="6"/>
+        <v>16.5</v>
+      </c>
+      <c r="Y7" s="30">
+        <f t="shared" ref="Y7:Y61" si="12">IF(MIN(F7,J7,L7,N7,P7,R7,T7)&lt;1, 0, MAX(0, MIN(5, X7/6.5)))</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="6">
+        <f>RANK(AB7,$AB$7:$AB$61,0)</f>
+        <v>1</v>
+      </c>
       <c r="AA7" s="6" t="str">
-        <f t="shared" ref="AA7:AA61" si="13">IF((F7=0)+(J7=0)+(L7=0)+(N7=0)+(P7=0)+(R7=0)+(T7=0)+(V7=0)&gt;0, "অকৃতকার্য বিষয়: " &amp; SUM((F7=0), (J7=0), (L7=0), (N7=0), (P7=0), (R7=0), (T7=0), (V7=0)), "")</f>
-        <v>অকৃতকার্য বিষয়: 6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
+        <f>IF(SUM((F7=0)+(J7=0)+(L7=0)+(N7=0)+(P7=0)+(R7=0)+(T7=0))=0, "", "অকৃতকার্য বিষয়: " &amp; SUM((F7=0)+(J7=0)+(L7=0)+(N7=0)+(P7=0)+(R7=0)+(T7=0)))</f>
+        <v>অকৃতকার্য বিষয়: 2</v>
+      </c>
+      <c r="AB7" s="22">
+        <f t="shared" ref="AB7:AB61" si="13">IF(MIN(F7,J7,L7,N7,P7,R7,T7)&lt;1, 0, MAX(0, X7/6.5))</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+    </row>
+    <row r="8" spans="1:41" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
         <f t="shared" ref="A8:A61" si="14">ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>1</v>
+      <c r="B8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18">
+        <v>62</v>
+      </c>
+      <c r="D8" s="8">
+        <v>33</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
+        <v>95</v>
+      </c>
+      <c r="F8" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="10">
-        <v>24</v>
+        <v>3.5</v>
+      </c>
+      <c r="G8" s="8">
+        <v>43</v>
+      </c>
+      <c r="H8" s="8">
+        <v>11</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="J8" s="6">
+        <v>54</v>
+      </c>
+      <c r="J8" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N8" s="6">
+      <c r="M8" s="8">
+        <v>42</v>
+      </c>
+      <c r="N8" s="30">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="10">
+        <v>2</v>
+      </c>
+      <c r="O8" s="8">
         <v>41</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="30">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="8">
         <v>70</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="30">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V8" s="2">
+      <c r="U8" s="8">
+        <v>24</v>
+      </c>
+      <c r="V8" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W8" s="6">
         <f t="shared" si="10"/>
-        <v>135</v>
+        <v>326</v>
       </c>
       <c r="X8" s="6">
         <f t="shared" si="11"/>
-        <v>6.5</v>
-      </c>
-      <c r="Y8" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="30">
         <f t="shared" si="12"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="Z8" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="6">
+        <f t="shared" ref="Z8:Z61" si="15">RANK(AB8,$AB$7:$AB$61,0)</f>
+        <v>1</v>
+      </c>
       <c r="AA8" s="6" t="str">
+        <f t="shared" ref="AA8:AA61" si="16">IF(SUM((F8=0)+(J8=0)+(L8=0)+(N8=0)+(P8=0)+(R8=0)+(T8=0))=0, "", "অকৃতকার্য বিষয়: " &amp; SUM((F8=0)+(J8=0)+(L8=0)+(N8=0)+(P8=0)+(R8=0)+(T8=0)))</f>
+        <v>অকৃতকার্য বিষয়: 2</v>
+      </c>
+      <c r="AB8" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+    </row>
+    <row r="9" spans="1:41" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>2</v>
+      </c>
+      <c r="C9" s="18">
+        <v>49</v>
+      </c>
+      <c r="D9" s="8">
+        <v>29</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+        <v>78</v>
+      </c>
+      <c r="F9" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="10">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="G9" s="8">
+        <v>55</v>
+      </c>
+      <c r="H9" s="8">
+        <v>5</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="J9" s="6">
+        <v>60</v>
+      </c>
+      <c r="J9" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
+        <v>2</v>
+      </c>
+      <c r="L9" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N9" s="6">
+      <c r="M9" s="8">
+        <v>24</v>
+      </c>
+      <c r="N9" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="8">
         <v>40</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="30">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="8">
         <v>50</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="30">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V9" s="2">
+      <c r="U9" s="8">
+        <v>26</v>
+      </c>
+      <c r="V9" s="32">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W9" s="6">
         <f t="shared" si="10"/>
-        <v>112</v>
+        <v>278</v>
       </c>
       <c r="X9" s="6">
         <f t="shared" si="11"/>
-        <v>5.5</v>
-      </c>
-      <c r="Y9" s="6">
+        <v>11</v>
+      </c>
+      <c r="Y9" s="30">
         <f t="shared" si="12"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="Z9" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA9" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 3</v>
+      </c>
+      <c r="AB9" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+    </row>
+    <row r="10" spans="1:41" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>3</v>
+      </c>
+      <c r="C10" s="18">
+        <v>60</v>
+      </c>
+      <c r="D10" s="8">
+        <v>36</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
+        <v>96</v>
+      </c>
+      <c r="F10" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="10">
-        <v>17</v>
+        <v>3.5</v>
+      </c>
+      <c r="G10" s="8">
+        <v>52</v>
+      </c>
+      <c r="H10" s="8">
+        <v>34</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="J10" s="6">
+        <v>86</v>
+      </c>
+      <c r="J10" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
+        <v>3</v>
+      </c>
+      <c r="L10" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N10" s="6">
+      <c r="M10" s="8">
+        <v>43</v>
+      </c>
+      <c r="N10" s="30">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="10">
+        <v>2</v>
+      </c>
+      <c r="O10" s="8">
         <v>45</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="30">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="8">
         <v>56</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="30">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V10" s="2">
+      <c r="U10" s="8">
+        <v>33</v>
+      </c>
+      <c r="V10" s="32">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="W10" s="6">
         <f t="shared" si="10"/>
-        <v>118</v>
+        <v>359</v>
       </c>
       <c r="X10" s="6">
         <f t="shared" si="11"/>
-        <v>5.5</v>
-      </c>
-      <c r="Y10" s="6">
+        <v>14.75</v>
+      </c>
+      <c r="Y10" s="30">
         <f t="shared" si="12"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="Z10" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA10" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 2</v>
+      </c>
+      <c r="AB10" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+    </row>
+    <row r="11" spans="1:41" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="14" t="s">
         <v>4</v>
+      </c>
+      <c r="C11" s="18">
+        <v>55</v>
+      </c>
+      <c r="D11" s="8">
+        <v>24</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
+        <v>79</v>
+      </c>
+      <c r="F11" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="10">
-        <v>41</v>
+        <v>3</v>
+      </c>
+      <c r="G11" s="8">
+        <v>54</v>
+      </c>
+      <c r="H11" s="8">
+        <v>17</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="J11" s="30">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L11" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>45</v>
+      </c>
+      <c r="N11" s="30">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O11" s="8">
         <v>41</v>
       </c>
-      <c r="J11" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="10">
-        <v>41</v>
-      </c>
-      <c r="P11" s="6">
+      <c r="P11" s="30">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="8">
         <v>50</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="30">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V11" s="2">
+      <c r="U11" s="8">
+        <v>27</v>
+      </c>
+      <c r="V11" s="32">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W11" s="6">
         <f t="shared" si="10"/>
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="X11" s="6">
         <f t="shared" si="11"/>
-        <v>5.5</v>
-      </c>
-      <c r="Y11" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y11" s="30">
         <f t="shared" si="12"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="Z11" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA11" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 2</v>
+      </c>
+      <c r="AB11" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+    </row>
+    <row r="12" spans="1:41" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>5</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H12" s="10">
-        <v>28</v>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L12" s="6">
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N12" s="6">
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O12" s="10">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="R12" s="6">
+      <c r="Q12" s="8">
+        <v>0</v>
+      </c>
+      <c r="R12" s="30">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="T12" s="6">
+        <v>0</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0</v>
+      </c>
+      <c r="T12" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V12" s="2">
+      <c r="U12" s="8">
+        <v>0</v>
+      </c>
+      <c r="V12" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W12" s="6">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="X12" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="Y12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="30">
         <f t="shared" si="12"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Z12" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA12" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB12" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+    </row>
+    <row r="13" spans="1:41" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="14" t="s">
         <v>6</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="10">
-        <v>7</v>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L13" s="6">
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+      <c r="L13" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N13" s="6">
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O13" s="10">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
+      <c r="P13" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="R13" s="6">
+      <c r="Q13" s="8">
+        <v>0</v>
+      </c>
+      <c r="R13" s="30">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="T13" s="6">
+        <v>0</v>
+      </c>
+      <c r="S13" s="8">
+        <v>0</v>
+      </c>
+      <c r="T13" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V13" s="2">
+      <c r="U13" s="8">
+        <v>0</v>
+      </c>
+      <c r="V13" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W13" s="6">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X13" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="Y13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="30">
         <f t="shared" si="12"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Z13" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA13" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB13" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+    </row>
+    <row r="14" spans="1:41" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>7</v>
+      </c>
+      <c r="C14" s="18">
+        <v>49</v>
+      </c>
+      <c r="D14" s="8">
+        <v>22</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
+        <v>71</v>
+      </c>
+      <c r="F14" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="10">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G14" s="8">
+        <v>46</v>
+      </c>
+      <c r="H14" s="8">
+        <v>17</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J14" s="6">
+        <v>63</v>
+      </c>
+      <c r="J14" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="6">
+        <v>2</v>
+      </c>
+      <c r="L14" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N14" s="6">
+      <c r="M14" s="8">
+        <v>58</v>
+      </c>
+      <c r="N14" s="30">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="10">
+        <v>3</v>
+      </c>
+      <c r="O14" s="8">
         <v>50</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="30">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="8">
         <v>70</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="30">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V14" s="2">
+      <c r="U14" s="8">
+        <v>21</v>
+      </c>
+      <c r="V14" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W14" s="6">
         <f t="shared" si="10"/>
-        <v>124</v>
+        <v>333</v>
       </c>
       <c r="X14" s="6">
         <f t="shared" si="11"/>
-        <v>6.5</v>
-      </c>
-      <c r="Y14" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="Y14" s="30">
         <f t="shared" si="12"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="Z14" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA14" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 2</v>
+      </c>
+      <c r="AB14" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+    </row>
+    <row r="15" spans="1:41" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="14" t="s">
         <v>8</v>
+      </c>
+      <c r="C15" s="18">
+        <v>47</v>
+      </c>
+      <c r="D15" s="8">
+        <v>30</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
+        <v>77</v>
+      </c>
+      <c r="F15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="10">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="G15" s="8">
+        <v>53</v>
+      </c>
+      <c r="H15" s="8">
+        <v>12</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="J15" s="6">
+        <v>65</v>
+      </c>
+      <c r="J15" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="6">
+        <v>2</v>
+      </c>
+      <c r="L15" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N15" s="6">
+      <c r="M15" s="8">
+        <v>37</v>
+      </c>
+      <c r="N15" s="30">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="10">
+        <v>1</v>
+      </c>
+      <c r="O15" s="8">
         <v>42</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="30">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="8">
         <v>50</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="30">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V15" s="2">
+      <c r="U15" s="8">
+        <v>33</v>
+      </c>
+      <c r="V15" s="32">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="W15" s="6">
         <f t="shared" si="10"/>
-        <v>101</v>
+        <v>304</v>
       </c>
       <c r="X15" s="6">
         <f t="shared" si="11"/>
-        <v>5.5</v>
-      </c>
-      <c r="Y15" s="6">
+        <v>12.25</v>
+      </c>
+      <c r="Y15" s="30">
         <f t="shared" si="12"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="Z15" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA15" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 2</v>
+      </c>
+      <c r="AB15" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+    </row>
+    <row r="16" spans="1:41" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>9</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="10">
-        <v>11</v>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L16" s="6">
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+      <c r="L16" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N16" s="6">
+      <c r="M16" s="8">
+        <v>0</v>
+      </c>
+      <c r="N16" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O16" s="10">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6">
+      <c r="O16" s="8">
+        <v>0</v>
+      </c>
+      <c r="P16" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="R16" s="6">
+      <c r="Q16" s="8">
+        <v>0</v>
+      </c>
+      <c r="R16" s="30">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="T16" s="6">
+        <v>0</v>
+      </c>
+      <c r="S16" s="8">
+        <v>0</v>
+      </c>
+      <c r="T16" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V16" s="2">
+      <c r="U16" s="8">
+        <v>0</v>
+      </c>
+      <c r="V16" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W16" s="6">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="Y16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="30">
         <f t="shared" si="12"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Z16" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA16" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB16" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+    </row>
+    <row r="17" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="14" t="s">
         <v>10</v>
+      </c>
+      <c r="C17" s="18">
+        <v>35</v>
+      </c>
+      <c r="D17" s="8">
+        <v>27</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
+        <v>62</v>
+      </c>
+      <c r="F17" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="10">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="G17" s="8">
+        <v>47</v>
+      </c>
+      <c r="H17" s="8">
+        <v>8</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="J17" s="6">
+        <v>55</v>
+      </c>
+      <c r="J17" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="6">
+        <v>1</v>
+      </c>
+      <c r="K17" s="8">
+        <v>41</v>
+      </c>
+      <c r="L17" s="30">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="6">
+        <v>2</v>
+      </c>
+      <c r="N17" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="8">
         <v>41</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="30">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="8">
         <v>44</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="30">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V17" s="2">
+      <c r="V17" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" si="10"/>
-        <v>90</v>
+        <v>243</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" si="11"/>
-        <v>4.5</v>
-      </c>
-      <c r="Y17" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="Y17" s="30">
         <f t="shared" si="12"/>
-        <v>0.6</v>
-      </c>
-      <c r="Z17" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA17" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 2</v>
+      </c>
+      <c r="AB17" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+    </row>
+    <row r="18" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="14" t="s">
         <v>11</v>
+      </c>
+      <c r="C18" s="18">
+        <v>47</v>
+      </c>
+      <c r="D18" s="8">
+        <v>30</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
+        <v>77</v>
+      </c>
+      <c r="F18" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="10">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="G18" s="8">
+        <v>48</v>
+      </c>
+      <c r="H18" s="8">
+        <v>11</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="J18" s="6">
+        <v>59</v>
+      </c>
+      <c r="J18" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="6">
+        <v>1</v>
+      </c>
+      <c r="L18" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N18" s="6">
+      <c r="M18" s="8">
+        <v>50</v>
+      </c>
+      <c r="N18" s="30">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="10">
-        <v>0</v>
-      </c>
-      <c r="P18" s="6">
+        <v>3</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0</v>
+      </c>
+      <c r="P18" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="Q18" s="8">
         <v>33</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="30">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V18" s="2">
+      <c r="U18" s="8">
+        <v>0</v>
+      </c>
+      <c r="V18" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W18" s="6">
         <f t="shared" si="10"/>
-        <v>62</v>
+        <v>219</v>
       </c>
       <c r="X18" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="Y18" s="6">
+        <v>8</v>
+      </c>
+      <c r="Y18" s="30">
         <f t="shared" si="12"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="Z18" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA18" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 3</v>
+      </c>
+      <c r="AB18" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+    </row>
+    <row r="19" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
         <f t="shared" si="14"/>
         <v>13</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H19" s="10">
-        <v>7</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="8">
         <v>33</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="30">
         <f t="shared" si="6"/>
-        <v>1.75</v>
-      </c>
-      <c r="Q19" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="Q19" s="8">
         <v>36</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="30">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V19" s="2">
+      <c r="V19" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W19" s="6">
         <f t="shared" si="10"/>
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="X19" s="6">
         <f t="shared" si="11"/>
-        <v>2.75</v>
-      </c>
-      <c r="Y19" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="Y19" s="30">
         <f t="shared" si="12"/>
-        <v>0.36666666666666664</v>
-      </c>
-      <c r="Z19" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA19" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 5</v>
+      </c>
+      <c r="AB19" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+    </row>
+    <row r="20" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
         <f t="shared" si="14"/>
         <v>14</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H20" s="10">
-        <v>4</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O20" s="10">
+      <c r="O20" s="8">
         <v>37</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="30">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="Q20" s="8">
         <v>40</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20" s="30">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="T20" s="6">
+      <c r="T20" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V20" s="2">
+      <c r="V20" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W20" s="6">
         <f t="shared" si="10"/>
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="X20" s="6">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="Y20" s="6">
+      <c r="Y20" s="30">
         <f t="shared" si="12"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="Z20" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA20" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 5</v>
+      </c>
+      <c r="AB20" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+    </row>
+    <row r="21" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H21" s="10">
-        <v>10</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="8">
         <v>40</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="30">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="Q21" s="8">
         <v>33</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="30">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V21" s="2">
+      <c r="V21" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W21" s="6">
         <f t="shared" si="10"/>
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X21" s="6">
         <f t="shared" si="11"/>
         <v>3.5</v>
       </c>
-      <c r="Y21" s="6">
+      <c r="Y21" s="30">
         <f t="shared" si="12"/>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="Z21" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA21" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 5</v>
+      </c>
+      <c r="AB21" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+    </row>
+    <row r="22" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H22" s="10">
-        <v>4</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22" s="8">
         <v>40</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="30">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="Q22" s="8">
         <v>26</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T22" s="6">
+      <c r="T22" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V22" s="2">
+      <c r="V22" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W22" s="6">
         <f t="shared" si="10"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="X22" s="6">
         <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
-      <c r="Y22" s="6">
+      <c r="Y22" s="30">
         <f t="shared" si="12"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Z22" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA22" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 6</v>
+      </c>
+      <c r="AB22" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+    </row>
+    <row r="23" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
         <f t="shared" si="14"/>
         <v>17</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H23" s="10">
-        <v>7</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="8">
         <v>30</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="30">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="Q23" s="8">
         <v>18</v>
       </c>
-      <c r="R23" s="6">
+      <c r="R23" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T23" s="6">
+      <c r="T23" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V23" s="2">
+      <c r="V23" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W23" s="6">
         <f t="shared" si="10"/>
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X23" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="Y23" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="6"/>
+      <c r="Z23" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA23" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 6</v>
+      </c>
+      <c r="AB23" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+    </row>
+    <row r="24" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
         <f t="shared" si="14"/>
         <v>18</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H24" s="10">
-        <v>2</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O24" s="10">
+      <c r="O24" s="8">
         <v>38</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="30">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="Q24" s="8">
         <v>40</v>
       </c>
-      <c r="R24" s="6">
+      <c r="R24" s="30">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="T24" s="6">
+      <c r="T24" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V24" s="2">
+      <c r="V24" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W24" s="6">
         <f t="shared" si="10"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="X24" s="6">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="Y24" s="6">
+      <c r="Y24" s="30">
         <f t="shared" si="12"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="Z24" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA24" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 5</v>
+      </c>
+      <c r="AB24" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+    </row>
+    <row r="25" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
         <f t="shared" si="14"/>
         <v>19</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H25" s="10">
-        <v>5</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="J25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O25" s="10">
+      <c r="O25" s="8">
         <v>31</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="30">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="Q25" s="8">
         <v>10</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R25" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T25" s="6">
+      <c r="T25" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V25" s="2">
+      <c r="V25" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W25" s="6">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="X25" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="Y25" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z25" s="6"/>
+      <c r="Z25" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA25" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 6</v>
+      </c>
+      <c r="AB25" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+    </row>
+    <row r="26" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
         <f t="shared" si="14"/>
         <v>20</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H26" s="10">
-        <v>22</v>
       </c>
       <c r="I26" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O26" s="10">
+      <c r="O26" s="8">
         <v>30</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="30">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="Q26" s="8">
         <v>21</v>
       </c>
-      <c r="R26" s="6">
+      <c r="R26" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T26" s="6">
+      <c r="T26" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V26" s="2">
+      <c r="V26" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W26" s="6">
         <f t="shared" si="10"/>
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="X26" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="Y26" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z26" s="6"/>
+      <c r="Z26" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA26" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 6</v>
+      </c>
+      <c r="AB26" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+    </row>
+    <row r="27" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10">
         <f t="shared" si="14"/>
         <v>21</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="14" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H27" s="10">
-        <v>5</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="J27" s="6">
+        <v>0</v>
+      </c>
+      <c r="J27" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N27" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O27" s="10">
+      <c r="O27" s="8">
         <v>30</v>
       </c>
-      <c r="P27" s="6">
+      <c r="P27" s="30">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="Q27" s="8">
         <v>33</v>
       </c>
-      <c r="R27" s="6">
+      <c r="R27" s="30">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="T27" s="6">
+      <c r="T27" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V27" s="2">
+      <c r="V27" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W27" s="6">
         <f t="shared" si="10"/>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="X27" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="Y27" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="Y27" s="30">
         <f t="shared" si="12"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="Z27" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA27" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 5</v>
+      </c>
+      <c r="AB27" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+    </row>
+    <row r="28" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10">
         <f t="shared" si="14"/>
         <v>22</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H28" s="10">
-        <v>3</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N28" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O28" s="10">
+      <c r="O28" s="8">
         <v>28</v>
       </c>
-      <c r="P28" s="6">
+      <c r="P28" s="30">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="8">
         <v>21</v>
       </c>
-      <c r="R28" s="6">
+      <c r="R28" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T28" s="6">
+      <c r="T28" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V28" s="2">
+      <c r="V28" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W28" s="6">
         <f t="shared" si="10"/>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X28" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="6"/>
+      <c r="Z28" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA28" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 6</v>
+      </c>
+      <c r="AB28" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+    </row>
+    <row r="29" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10">
         <f t="shared" si="14"/>
         <v>23</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H29" s="10">
-        <v>4</v>
       </c>
       <c r="I29" s="6">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J29" s="6">
+        <v>0</v>
+      </c>
+      <c r="J29" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O29" s="10">
+      <c r="O29" s="8">
         <v>24</v>
       </c>
-      <c r="P29" s="6">
+      <c r="P29" s="30">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="Q29" s="8">
         <v>26</v>
       </c>
-      <c r="R29" s="6">
+      <c r="R29" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T29" s="6">
+      <c r="T29" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V29" s="2">
+      <c r="V29" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W29" s="6">
         <f t="shared" si="10"/>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X29" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y29" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="6"/>
+      <c r="Z29" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA29" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 6</v>
+      </c>
+      <c r="AB29" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+    </row>
+    <row r="30" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="10">
         <f t="shared" si="14"/>
         <v>24</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="10">
         <v>0</v>
       </c>
       <c r="I30" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N30" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O30" s="10">
+      <c r="O30" s="8">
         <v>35</v>
       </c>
-      <c r="P30" s="6">
+      <c r="P30" s="30">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q30" s="8">
         <v>38</v>
       </c>
-      <c r="R30" s="6">
+      <c r="R30" s="30">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="T30" s="6">
+      <c r="T30" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V30" s="2">
+      <c r="V30" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -2967,293 +3566,335 @@
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="Y30" s="6">
+      <c r="Y30" s="30">
         <f t="shared" si="12"/>
-        <v>0.4</v>
-      </c>
-      <c r="Z30" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA30" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 5</v>
+      </c>
+      <c r="AB30" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+    </row>
+    <row r="31" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="10">
         <f t="shared" si="14"/>
         <v>25</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="14" t="s">
         <v>23</v>
       </c>
       <c r="E31" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H31" s="10">
-        <v>2</v>
       </c>
       <c r="I31" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J31" s="6">
+        <v>0</v>
+      </c>
+      <c r="J31" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O31" s="10">
+      <c r="O31" s="8">
         <v>34</v>
       </c>
-      <c r="P31" s="6">
+      <c r="P31" s="30">
         <f t="shared" si="6"/>
         <v>1.75</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="Q31" s="8">
         <v>14</v>
       </c>
-      <c r="R31" s="6">
+      <c r="R31" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T31" s="6">
+      <c r="T31" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V31" s="2">
+      <c r="V31" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W31" s="6">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="X31" s="6">
         <f t="shared" si="11"/>
         <v>1.75</v>
       </c>
-      <c r="Y31" s="6">
+      <c r="Y31" s="30">
         <f t="shared" si="12"/>
-        <v>0.23333333333333334</v>
-      </c>
-      <c r="Z31" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA31" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 6</v>
+      </c>
+      <c r="AB31" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+    </row>
+    <row r="32" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="10">
         <f t="shared" si="14"/>
         <v>26</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="14" t="s">
         <v>24</v>
       </c>
       <c r="E32" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H32" s="10">
-        <v>12</v>
       </c>
       <c r="I32" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="J32" s="6">
+        <v>0</v>
+      </c>
+      <c r="J32" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O32" s="10">
+      <c r="O32" s="8">
         <v>5</v>
       </c>
-      <c r="P32" s="6">
+      <c r="P32" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="Q32" s="8">
         <v>14</v>
       </c>
-      <c r="R32" s="6">
+      <c r="R32" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T32" s="6">
+      <c r="T32" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V32" s="2">
+      <c r="V32" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W32" s="6">
         <f t="shared" si="10"/>
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="X32" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="6">
+      <c r="Y32" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z32" s="6"/>
+      <c r="Z32" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA32" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB32" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+    </row>
+    <row r="33" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="10">
         <f t="shared" si="14"/>
         <v>27</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E33" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H33" s="10">
-        <v>6</v>
       </c>
       <c r="I33" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O33" s="10">
+      <c r="O33" s="8">
         <v>5</v>
       </c>
-      <c r="P33" s="6">
+      <c r="P33" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="Q33" s="8">
         <v>13</v>
       </c>
-      <c r="R33" s="6">
+      <c r="R33" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T33" s="6">
+      <c r="T33" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V33" s="2">
+      <c r="V33" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W33" s="6">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="X33" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="6">
+      <c r="Y33" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z33" s="6"/>
+      <c r="Z33" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA33" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB33" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+    </row>
+    <row r="34" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="10">
         <f t="shared" si="14"/>
         <v>28</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E34" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H34" s="10"/>
       <c r="I34" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N34" s="6">
+      <c r="N34" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O34" s="10">
+      <c r="O34" s="8">
         <v>34</v>
       </c>
-      <c r="P34" s="6">
+      <c r="P34" s="30">
         <f t="shared" si="6"/>
         <v>1.75</v>
       </c>
-      <c r="Q34" s="10">
+      <c r="Q34" s="8">
         <v>37</v>
       </c>
-      <c r="R34" s="6">
+      <c r="R34" s="30">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="T34" s="6">
+      <c r="T34" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V34" s="2">
+      <c r="V34" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -3265,68 +3906,80 @@
         <f t="shared" si="11"/>
         <v>2.75</v>
       </c>
-      <c r="Y34" s="6">
+      <c r="Y34" s="30">
         <f t="shared" si="12"/>
-        <v>0.36666666666666664</v>
-      </c>
-      <c r="Z34" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA34" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 5</v>
+      </c>
+      <c r="AB34" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+    </row>
+    <row r="35" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="10">
         <f t="shared" si="14"/>
         <v>29</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H35" s="10"/>
       <c r="I35" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L35" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N35" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O35" s="10">
+      <c r="O35" s="8">
         <v>28</v>
       </c>
-      <c r="P35" s="6">
+      <c r="P35" s="30">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="8">
         <v>18</v>
       </c>
-      <c r="R35" s="6">
+      <c r="R35" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T35" s="6">
+      <c r="T35" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V35" s="2">
+      <c r="V35" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -3336,745 +3989,847 @@
       </c>
       <c r="X35" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z35" s="6"/>
+      <c r="Z35" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA35" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 6</v>
+      </c>
+      <c r="AB35" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+    </row>
+    <row r="36" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="10">
         <f t="shared" si="14"/>
         <v>30</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E36" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H36" s="10">
-        <v>2</v>
       </c>
       <c r="I36" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J36" s="6">
+        <v>0</v>
+      </c>
+      <c r="J36" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L36" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N36" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O36" s="10">
+      <c r="O36" s="8">
         <v>32</v>
       </c>
-      <c r="P36" s="6">
+      <c r="P36" s="30">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="Q36" s="8">
         <v>28</v>
       </c>
-      <c r="R36" s="6">
+      <c r="R36" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T36" s="6">
+      <c r="T36" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V36" s="2">
+      <c r="V36" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W36" s="6">
         <f t="shared" si="10"/>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="X36" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="Y36" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z36" s="6"/>
+      <c r="Z36" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA36" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 6</v>
+      </c>
+      <c r="AB36" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="7"/>
+    </row>
+    <row r="37" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="10">
         <f t="shared" si="14"/>
         <v>31</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E37" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H37" s="10">
-        <v>8</v>
       </c>
       <c r="I37" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="J37" s="6">
+        <v>0</v>
+      </c>
+      <c r="J37" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L37" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N37" s="6">
+      <c r="N37" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O37" s="10">
+      <c r="O37" s="8">
         <v>4</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P37" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="10">
+      <c r="Q37" s="8">
         <v>12</v>
       </c>
-      <c r="R37" s="6">
+      <c r="R37" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T37" s="6">
+      <c r="T37" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V37" s="2">
+      <c r="V37" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W37" s="6">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="X37" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y37" s="6">
+      <c r="Y37" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z37" s="6"/>
+      <c r="Z37" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA37" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB37" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
+    </row>
+    <row r="38" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="10">
         <f t="shared" si="14"/>
         <v>32</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E38" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H38" s="10">
-        <v>2</v>
       </c>
       <c r="I38" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J38" s="6">
+        <v>0</v>
+      </c>
+      <c r="J38" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L38" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N38" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O38" s="10">
+      <c r="O38" s="8">
         <v>30</v>
       </c>
-      <c r="P38" s="6">
+      <c r="P38" s="30">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="Q38" s="8">
         <v>15</v>
       </c>
-      <c r="R38" s="6">
+      <c r="R38" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T38" s="6">
+      <c r="T38" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V38" s="2">
+      <c r="V38" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W38" s="6">
         <f t="shared" si="10"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X38" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y38" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="Y38" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z38" s="6"/>
+      <c r="Z38" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA38" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 6</v>
+      </c>
+      <c r="AB38" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="7"/>
+    </row>
+    <row r="39" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="10">
         <f t="shared" si="14"/>
         <v>33</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E39" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H39" s="10">
-        <v>7</v>
       </c>
       <c r="I39" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="J39" s="6">
+        <v>0</v>
+      </c>
+      <c r="J39" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L39" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N39" s="6">
+      <c r="N39" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O39" s="10">
+      <c r="O39" s="8">
         <v>21</v>
       </c>
-      <c r="P39" s="6">
+      <c r="P39" s="30">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="Q39" s="8">
         <v>5</v>
       </c>
-      <c r="R39" s="6">
+      <c r="R39" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T39" s="6">
+      <c r="T39" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V39" s="2">
+      <c r="V39" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W39" s="6">
         <f t="shared" si="10"/>
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="X39" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y39" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y39" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z39" s="6"/>
+      <c r="Z39" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA39" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 6</v>
+      </c>
+      <c r="AB39" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+    </row>
+    <row r="40" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="10">
         <f t="shared" si="14"/>
         <v>34</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E40" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H40" s="10">
-        <v>17</v>
       </c>
       <c r="I40" s="6">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="J40" s="6">
+        <v>0</v>
+      </c>
+      <c r="J40" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L40" s="6">
+      <c r="L40" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N40" s="6">
+      <c r="N40" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O40" s="10">
+      <c r="O40" s="8">
         <v>4</v>
       </c>
-      <c r="P40" s="6">
+      <c r="P40" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="10">
+      <c r="Q40" s="8">
         <v>7</v>
       </c>
-      <c r="R40" s="6">
+      <c r="R40" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T40" s="6">
+      <c r="T40" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V40" s="2">
+      <c r="V40" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W40" s="6">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="X40" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="6">
+      <c r="Y40" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z40" s="6"/>
+      <c r="Z40" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA40" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB40" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="7"/>
+    </row>
+    <row r="41" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="10">
         <f t="shared" si="14"/>
         <v>35</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="14" t="s">
         <v>33</v>
       </c>
       <c r="E41" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H41" s="10">
-        <v>8</v>
       </c>
       <c r="I41" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="J41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N41" s="6">
+      <c r="N41" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O41" s="10">
+      <c r="O41" s="8">
         <v>21</v>
       </c>
-      <c r="P41" s="6">
+      <c r="P41" s="30">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="Q41" s="8">
         <v>9</v>
       </c>
-      <c r="R41" s="6">
+      <c r="R41" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T41" s="6">
+      <c r="T41" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V41" s="2">
+      <c r="V41" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W41" s="6">
         <f t="shared" si="10"/>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="X41" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y41" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z41" s="6"/>
+      <c r="Z41" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA41" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 6</v>
+      </c>
+      <c r="AB41" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+    </row>
+    <row r="42" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="10">
         <f t="shared" si="14"/>
         <v>36</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E42" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H42" s="10">
-        <v>2</v>
       </c>
       <c r="I42" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J42" s="6">
+        <v>0</v>
+      </c>
+      <c r="J42" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N42" s="6">
+      <c r="N42" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O42" s="10">
-        <v>0</v>
-      </c>
-      <c r="P42" s="6">
+      <c r="O42" s="8">
+        <v>0</v>
+      </c>
+      <c r="P42" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="10">
+      <c r="Q42" s="8">
         <v>9</v>
       </c>
-      <c r="R42" s="6">
+      <c r="R42" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T42" s="6">
+      <c r="T42" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V42" s="2">
+      <c r="V42" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W42" s="6">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X42" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y42" s="6">
+      <c r="Y42" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z42" s="6"/>
+      <c r="Z42" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA42" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB42" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="7"/>
+    </row>
+    <row r="43" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="10">
         <f t="shared" si="14"/>
         <v>37</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E43" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H43" s="10">
-        <v>5</v>
       </c>
       <c r="I43" s="6">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="8">
+        <v>24</v>
+      </c>
+      <c r="P43" s="30">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q43" s="8">
         <v>5</v>
       </c>
-      <c r="J43" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="10">
-        <v>24</v>
-      </c>
-      <c r="P43" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="10">
-        <v>5</v>
-      </c>
-      <c r="R43" s="6">
+      <c r="R43" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T43" s="6">
+      <c r="T43" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V43" s="2">
+      <c r="V43" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W43" s="6">
         <f t="shared" si="10"/>
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X43" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y43" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Y43" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z43" s="6"/>
+      <c r="Z43" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA43" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 6</v>
+      </c>
+      <c r="AB43" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="7"/>
+      <c r="AH43" s="7"/>
+    </row>
+    <row r="44" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="10">
         <f t="shared" si="14"/>
         <v>38</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E44" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H44" s="10">
-        <v>7</v>
       </c>
       <c r="I44" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="J44" s="6">
+        <v>0</v>
+      </c>
+      <c r="J44" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L44" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N44" s="6">
+      <c r="N44" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O44" s="10">
-        <v>0</v>
-      </c>
-      <c r="P44" s="6">
+      <c r="O44" s="8">
+        <v>0</v>
+      </c>
+      <c r="P44" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="10" t="s">
+      <c r="Q44" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="R44" s="6">
+      <c r="R44" s="30">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="T44" s="6">
+      <c r="T44" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V44" s="2">
+      <c r="V44" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W44" s="6">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X44" s="6">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="Y44" s="6">
+      <c r="Y44" s="30">
         <f t="shared" si="12"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Z44" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA44" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 6</v>
+      </c>
+      <c r="AB44" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="7"/>
+      <c r="AG44" s="7"/>
+      <c r="AH44" s="7"/>
+    </row>
+    <row r="45" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="10">
         <f t="shared" si="14"/>
         <v>39</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E45" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H45" s="10"/>
       <c r="I45" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L45" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N45" s="6">
+      <c r="N45" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O45" s="10">
-        <v>0</v>
-      </c>
-      <c r="P45" s="6">
+      <c r="O45" s="8">
+        <v>0</v>
+      </c>
+      <c r="P45" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="10">
+      <c r="Q45" s="8">
         <v>37</v>
       </c>
-      <c r="R45" s="6">
+      <c r="R45" s="30">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="T45" s="6">
+      <c r="T45" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V45" s="2">
+      <c r="V45" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -4086,143 +4841,165 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Y45" s="6">
+      <c r="Y45" s="30">
         <f t="shared" si="12"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="Z45" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA45" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 6</v>
+      </c>
+      <c r="AB45" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="7"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="7"/>
+    </row>
+    <row r="46" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="10">
         <f t="shared" si="14"/>
         <v>40</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E46" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H46" s="10">
-        <v>6</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J46" s="6">
+        <v>0</v>
+      </c>
+      <c r="J46" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N46" s="6">
+      <c r="N46" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O46" s="10">
+      <c r="O46" s="8">
         <v>43</v>
       </c>
-      <c r="P46" s="6">
+      <c r="P46" s="30">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
-      <c r="Q46" s="10">
+      <c r="Q46" s="8">
         <v>57</v>
       </c>
-      <c r="R46" s="6">
+      <c r="R46" s="30">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="T46" s="6">
+      <c r="T46" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V46" s="2">
+      <c r="V46" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W46" s="6">
         <f t="shared" si="10"/>
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="X46" s="6">
         <f t="shared" si="11"/>
         <v>5.5</v>
       </c>
-      <c r="Y46" s="6">
+      <c r="Y46" s="30">
         <f t="shared" si="12"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="Z46" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA46" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 5</v>
+      </c>
+      <c r="AB46" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="7"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="7"/>
+    </row>
+    <row r="47" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="10">
         <f t="shared" si="14"/>
         <v>41</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="15" t="s">
         <v>39</v>
       </c>
       <c r="E47" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H47" s="10"/>
       <c r="I47" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L47" s="6">
+      <c r="L47" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N47" s="6">
+      <c r="N47" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O47" s="10">
+      <c r="O47" s="8">
         <v>25</v>
       </c>
-      <c r="P47" s="6">
+      <c r="P47" s="30">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="8">
         <v>15</v>
       </c>
-      <c r="R47" s="6">
+      <c r="R47" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T47" s="6">
+      <c r="T47" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V47" s="2">
+      <c r="V47" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -4232,20 +5009,33 @@
       </c>
       <c r="X47" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y47" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z47" s="6"/>
+      <c r="Z47" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA47" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 6</v>
+      </c>
+      <c r="AB47" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+    </row>
+    <row r="48" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="10">
         <f t="shared" si="14"/>
         <v>42</v>
       </c>
@@ -4253,65 +5043,75 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H48" s="10">
-        <v>4</v>
       </c>
       <c r="I48" s="6">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J48" s="6">
+        <v>0</v>
+      </c>
+      <c r="J48" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L48" s="6">
+      <c r="L48" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N48" s="6">
+      <c r="N48" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P48" s="6">
+      <c r="P48" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R48" s="6">
+      <c r="R48" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T48" s="6">
+      <c r="T48" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V48" s="2">
+      <c r="V48" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W48" s="6">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X48" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y48" s="6">
+      <c r="Y48" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z48" s="6"/>
+      <c r="Z48" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA48" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB48" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="7"/>
+      <c r="AH48" s="7"/>
+    </row>
+    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="10">
         <f t="shared" si="14"/>
         <v>43</v>
       </c>
@@ -4319,65 +5119,75 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H49" s="10">
-        <v>5</v>
       </c>
       <c r="I49" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="J49" s="6">
+        <v>0</v>
+      </c>
+      <c r="J49" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L49" s="6">
+      <c r="L49" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N49" s="6">
+      <c r="N49" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P49" s="6">
+      <c r="P49" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R49" s="6">
+      <c r="R49" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T49" s="6">
+      <c r="T49" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V49" s="2">
+      <c r="V49" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W49" s="6">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X49" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y49" s="6">
+      <c r="Y49" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z49" s="6"/>
+      <c r="Z49" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA49" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB49" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="7"/>
+    </row>
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="10">
         <f t="shared" si="14"/>
         <v>44</v>
       </c>
@@ -4385,65 +5195,75 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H50" s="10">
-        <v>1</v>
       </c>
       <c r="I50" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L50" s="6">
+      <c r="L50" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N50" s="6">
+      <c r="N50" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P50" s="6">
+      <c r="P50" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R50" s="6">
+      <c r="R50" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T50" s="6">
+      <c r="T50" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V50" s="2">
+      <c r="V50" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W50" s="6">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X50" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y50" s="6">
+      <c r="Y50" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z50" s="6"/>
+      <c r="Z50" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA50" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB50" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="7"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="7"/>
+    </row>
+    <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="10">
         <f t="shared" si="14"/>
         <v>45</v>
       </c>
@@ -4451,65 +5271,75 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H51" s="10">
-        <v>1</v>
       </c>
       <c r="I51" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J51" s="6">
+        <v>0</v>
+      </c>
+      <c r="J51" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L51" s="6">
+      <c r="L51" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N51" s="6">
+      <c r="N51" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P51" s="6">
+      <c r="P51" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R51" s="6">
+      <c r="R51" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T51" s="6">
+      <c r="T51" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V51" s="2">
+      <c r="V51" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W51" s="6">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X51" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y51" s="6">
+      <c r="Y51" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z51" s="6"/>
+      <c r="Z51" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA51" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB51" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="7"/>
+      <c r="AG51" s="7"/>
+      <c r="AH51" s="7"/>
+    </row>
+    <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="10">
         <f t="shared" si="14"/>
         <v>46</v>
       </c>
@@ -4517,40 +5347,39 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H52" s="10"/>
       <c r="I52" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L52" s="6">
+      <c r="L52" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N52" s="6">
+      <c r="N52" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P52" s="6">
+      <c r="P52" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R52" s="6">
+      <c r="R52" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T52" s="6">
+      <c r="T52" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V52" s="2">
+      <c r="V52" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -4562,18 +5391,31 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y52" s="6">
+      <c r="Y52" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z52" s="6"/>
+      <c r="Z52" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA52" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB52" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="7"/>
+      <c r="AH52" s="7"/>
+    </row>
+    <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="10">
         <f t="shared" si="14"/>
         <v>47</v>
       </c>
@@ -4581,65 +5423,75 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H53" s="10">
-        <v>8</v>
       </c>
       <c r="I53" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="J53" s="6">
+        <v>0</v>
+      </c>
+      <c r="J53" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L53" s="6">
+      <c r="L53" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N53" s="6">
+      <c r="N53" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P53" s="6">
+      <c r="P53" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R53" s="6">
+      <c r="R53" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T53" s="6">
+      <c r="T53" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V53" s="2">
+      <c r="V53" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W53" s="6">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X53" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y53" s="6">
+      <c r="Y53" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z53" s="6"/>
+      <c r="Z53" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA53" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB53" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="7"/>
+      <c r="AE53" s="7"/>
+      <c r="AF53" s="7"/>
+      <c r="AG53" s="7"/>
+      <c r="AH53" s="7"/>
+    </row>
+    <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="10">
         <f t="shared" si="14"/>
         <v>48</v>
       </c>
@@ -4647,65 +5499,75 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H54" s="10">
-        <v>6</v>
       </c>
       <c r="I54" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J54" s="6">
+        <v>0</v>
+      </c>
+      <c r="J54" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L54" s="6">
+      <c r="L54" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N54" s="6">
+      <c r="N54" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P54" s="6">
+      <c r="P54" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R54" s="6">
+      <c r="R54" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T54" s="6">
+      <c r="T54" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V54" s="2">
+      <c r="V54" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W54" s="6">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X54" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y54" s="6">
+      <c r="Y54" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z54" s="6"/>
+      <c r="Z54" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA54" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB54" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="7"/>
+      <c r="AF54" s="7"/>
+      <c r="AG54" s="7"/>
+      <c r="AH54" s="7"/>
+    </row>
+    <row r="55" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="10">
         <f t="shared" si="14"/>
         <v>49</v>
       </c>
@@ -4713,40 +5575,39 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H55" s="10"/>
       <c r="I55" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L55" s="6">
+      <c r="L55" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N55" s="6">
+      <c r="N55" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P55" s="6">
+      <c r="P55" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R55" s="6">
+      <c r="R55" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T55" s="6">
+      <c r="T55" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V55" s="2">
+      <c r="V55" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -4758,18 +5619,31 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y55" s="6">
+      <c r="Y55" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z55" s="6"/>
+      <c r="Z55" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA55" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB55" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="7"/>
+      <c r="AD55" s="7"/>
+      <c r="AE55" s="7"/>
+      <c r="AF55" s="7"/>
+      <c r="AG55" s="7"/>
+      <c r="AH55" s="7"/>
+    </row>
+    <row r="56" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="10">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
@@ -4777,42 +5651,39 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="10">
         <v>0</v>
       </c>
       <c r="I56" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L56" s="6">
+      <c r="L56" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N56" s="6">
+      <c r="N56" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P56" s="6">
+      <c r="P56" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R56" s="6">
+      <c r="R56" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T56" s="6">
+      <c r="T56" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V56" s="2">
+      <c r="V56" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -4824,18 +5695,31 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y56" s="6">
+      <c r="Y56" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z56" s="6"/>
+      <c r="Z56" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA56" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB56" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="7"/>
+      <c r="AG56" s="7"/>
+      <c r="AH56" s="7"/>
+    </row>
+    <row r="57" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="10">
         <f t="shared" si="14"/>
         <v>51</v>
       </c>
@@ -4843,65 +5727,75 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H57" s="10">
-        <v>7</v>
       </c>
       <c r="I57" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="J57" s="6">
+        <v>0</v>
+      </c>
+      <c r="J57" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L57" s="6">
+      <c r="L57" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N57" s="6">
+      <c r="N57" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P57" s="6">
+      <c r="P57" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R57" s="6">
+      <c r="R57" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T57" s="6">
+      <c r="T57" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V57" s="2">
+      <c r="V57" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W57" s="6">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X57" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y57" s="6">
+      <c r="Y57" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z57" s="6"/>
+      <c r="Z57" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA57" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB57" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A58" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="7"/>
+      <c r="AG57" s="7"/>
+      <c r="AH57" s="7"/>
+    </row>
+    <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="10">
         <f t="shared" si="14"/>
         <v>52</v>
       </c>
@@ -4909,40 +5803,39 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H58" s="10"/>
       <c r="I58" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J58" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L58" s="6">
+      <c r="L58" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N58" s="6">
+      <c r="N58" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P58" s="6">
+      <c r="P58" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R58" s="6">
+      <c r="R58" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T58" s="6">
+      <c r="T58" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V58" s="2">
+      <c r="V58" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -4954,18 +5847,31 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y58" s="6">
+      <c r="Y58" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z58" s="6"/>
+      <c r="Z58" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA58" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB58" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A59" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="7"/>
+      <c r="AD58" s="7"/>
+      <c r="AE58" s="7"/>
+      <c r="AF58" s="7"/>
+      <c r="AG58" s="7"/>
+      <c r="AH58" s="7"/>
+    </row>
+    <row r="59" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="10">
         <f t="shared" si="14"/>
         <v>53</v>
       </c>
@@ -4973,42 +5879,39 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="10">
         <v>0</v>
       </c>
       <c r="I59" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L59" s="6">
+      <c r="L59" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N59" s="6">
+      <c r="N59" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P59" s="6">
+      <c r="P59" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R59" s="6">
+      <c r="R59" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T59" s="6">
+      <c r="T59" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V59" s="2">
+      <c r="V59" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -5020,18 +5923,31 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y59" s="6">
+      <c r="Y59" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z59" s="6"/>
+      <c r="Z59" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA59" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB59" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A60" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="7"/>
+      <c r="AD59" s="7"/>
+      <c r="AE59" s="7"/>
+      <c r="AF59" s="7"/>
+      <c r="AG59" s="7"/>
+      <c r="AH59" s="7"/>
+    </row>
+    <row r="60" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="10">
         <f t="shared" si="14"/>
         <v>54</v>
       </c>
@@ -5039,42 +5955,39 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="10">
         <v>0</v>
       </c>
       <c r="I60" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J60" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L60" s="6">
+      <c r="L60" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N60" s="6">
+      <c r="N60" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P60" s="6">
+      <c r="P60" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R60" s="6">
+      <c r="R60" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T60" s="6">
+      <c r="T60" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V60" s="2">
+      <c r="V60" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -5086,18 +5999,31 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y60" s="6">
+      <c r="Y60" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z60" s="6"/>
+      <c r="Z60" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA60" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB60" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A61" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="7"/>
+      <c r="AG60" s="7"/>
+      <c r="AH60" s="7"/>
+    </row>
+    <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="10">
         <f t="shared" si="14"/>
         <v>55</v>
       </c>
@@ -5105,67 +6031,77 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H61" s="10">
-        <v>3</v>
       </c>
       <c r="I61" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J61" s="6">
+        <v>0</v>
+      </c>
+      <c r="J61" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L61" s="6">
+      <c r="L61" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N61" s="6">
+      <c r="N61" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P61" s="6">
+      <c r="P61" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R61" s="6">
+      <c r="R61" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T61" s="6">
+      <c r="T61" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V61" s="2">
+      <c r="V61" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W61" s="6">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X61" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y61" s="6">
+      <c r="Y61" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z61" s="6"/>
+      <c r="Z61" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="AA61" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB61" s="22">
         <f t="shared" si="13"/>
-        <v>অকৃতকার্য বিষয়: 8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="7"/>
+      <c r="AG61" s="7"/>
+      <c r="AH61" s="7"/>
+    </row>
+    <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Z62" s="6"/>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Z63" s="6"/>
     </row>
   </sheetData>
@@ -5177,7 +6113,7 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="6">
-    <mergeCell ref="AB1:AH1048576"/>
+    <mergeCell ref="AI1:AO1048576"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:AA2"/>
     <mergeCell ref="A1:AA1"/>
@@ -5185,8 +6121,43 @@
     <mergeCell ref="A3:AA3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AA1:AA1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1048576">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA1:AH1 AA2:AA1048576 AC2:AH1048576">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/result calculation sheet.xlsx
+++ b/result calculation sheet.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdous\Documents\GitHub\result_calculation_excel_sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A0BD2D-4C89-43D2-8436-3858970C0BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB96A833-3521-44A8-A495-468271F1D950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{86089DA0-2BA1-4133-B16D-0F30CFEF8E2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{86089DA0-2BA1-4133-B16D-0F30CFEF8E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Progress_report" sheetId="2" r:id="rId3"/>
+    <sheet name="Top_sheet" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Datasheet!$A:$AA</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Datasheet!$A$1:$AA$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Progress_report!$A:$J</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A:$AC</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Datasheet!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -41,8 +47,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
   <si>
     <t>সুমাইয়া খাতুন</t>
   </si>
@@ -152,9 +180,6 @@
     <t>মারিয়া আক্তার</t>
   </si>
   <si>
-    <t>মারিয়া আক্তার পরি</t>
-  </si>
-  <si>
     <t>মাইশা জাহান</t>
   </si>
   <si>
@@ -260,7 +285,85 @@
     <t>পূর্ণ নম্বর ও জি.পি.এ:</t>
   </si>
   <si>
-    <t/>
+    <t>রোল:</t>
+  </si>
+  <si>
+    <t>নাম:</t>
+  </si>
+  <si>
+    <t>বিষয়</t>
+  </si>
+  <si>
+    <t>প্রাপ্ত নম্বর</t>
+  </si>
+  <si>
+    <t>গ্রেড পয়েন্ট</t>
+  </si>
+  <si>
+    <t>একাডেমিক ট্রান্সক্রিপ্ট</t>
+  </si>
+  <si>
+    <t>বিষয় কোড</t>
+  </si>
+  <si>
+    <t>গ্রেড</t>
+  </si>
+  <si>
+    <t>শ্রেণিতে ক্রম</t>
+  </si>
+  <si>
+    <t>মন্তব্য</t>
+  </si>
+  <si>
+    <t>মোট GPA</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>পূর্ণ নম্বর</t>
+  </si>
+  <si>
+    <t>কৃষিশিক্ষা (৪র্থ)</t>
+  </si>
+  <si>
+    <t>মোট:</t>
+  </si>
+  <si>
+    <t>প্রধান শিক্ষক</t>
+  </si>
+  <si>
+    <t>প্রতিস্বাক্ষর</t>
+  </si>
+  <si>
+    <t>শ্রেণি শিক্ষক (৬ষ্ঠ শ্রেণি)</t>
+  </si>
+  <si>
+    <t>শ্রেণি শিক্ষকের মতামত:</t>
+  </si>
+  <si>
+    <t>বাংলা ১ম‌ পত্র</t>
+  </si>
+  <si>
+    <t>ইসলাম ও নৈতিক</t>
+  </si>
+  <si>
+    <t>বাংলা ও বিশ্ব.</t>
+  </si>
+  <si>
+    <t>একনজরে ফলাফল</t>
+  </si>
+  <si>
+    <t>এক বিষয়ে অকৃতকার্য</t>
+  </si>
+  <si>
+    <t>দুই বিষয়ে অকৃতকার্য</t>
+  </si>
+  <si>
+    <t>দুই এর বেশি বিষয়ে অকৃতকার্য</t>
+  </si>
+  <si>
+    <t>সকল বিষয়ে কৃতকার্য</t>
   </si>
 </sst>
 </file>
@@ -270,7 +373,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-5000445]0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +419,16 @@
       <color theme="1"/>
       <name val="NikoshBAN"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="NikoshBAN"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="NikoshBAN"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -331,7 +444,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -413,11 +526,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
@@ -478,6 +626,94 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -496,20 +732,71 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="37">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -517,6 +804,296 @@
       <fill>
         <patternFill>
           <fgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -918,17 +1495,65 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="3">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{DC651552-194A-4E93-95C3-BFD91BAF8BD6}">
+  <we:reference id="wa200005502" version="1.0.0.12" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200005502" version="1.0.0.12" store="wa200005502" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="docId" value="&quot;t03O0jvUkLRX08MsgjGB3&quot;"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_GPT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_LIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_HLIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_CLASSIFY</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TRANSLATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_EXTRACT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TAG</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_CONVERT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_FORMAT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_SUMMARIZE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TABLE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_FILL</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_SPLIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_HSPLIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_EDIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_MATCH</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_VISION</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_WEB</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38848B6A-EACB-4E37-BDD7-A785D5399880}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AO63"/>
+  <dimension ref="A1:AP63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB46" sqref="AB46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.21875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -938,282 +1563,288 @@
     <col min="3" max="3" width="4.77734375" style="18" customWidth="1"/>
     <col min="4" max="4" width="4.77734375" style="8" customWidth="1"/>
     <col min="5" max="5" width="4.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.77734375" style="32" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" style="26" customWidth="1"/>
     <col min="7" max="8" width="4.77734375" style="8" customWidth="1"/>
     <col min="9" max="9" width="4.77734375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.77734375" style="32" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" style="26" customWidth="1"/>
     <col min="11" max="11" width="4.77734375" style="8" customWidth="1"/>
-    <col min="12" max="12" width="4.77734375" style="32" customWidth="1"/>
+    <col min="12" max="12" width="4.77734375" style="26" customWidth="1"/>
     <col min="13" max="13" width="4.77734375" style="8" customWidth="1"/>
-    <col min="14" max="14" width="4.77734375" style="32" customWidth="1"/>
+    <col min="14" max="14" width="4.77734375" style="26" customWidth="1"/>
     <col min="15" max="15" width="4.77734375" style="8" customWidth="1"/>
     <col min="16" max="16" width="4.77734375" style="2" customWidth="1"/>
     <col min="17" max="17" width="4.77734375" style="8" customWidth="1"/>
-    <col min="18" max="18" width="4.77734375" style="32" customWidth="1"/>
+    <col min="18" max="18" width="4.77734375" style="26" customWidth="1"/>
     <col min="19" max="19" width="4.77734375" style="8" customWidth="1"/>
-    <col min="20" max="20" width="4.77734375" style="32" customWidth="1"/>
+    <col min="20" max="20" width="4.77734375" style="26" customWidth="1"/>
     <col min="21" max="21" width="4.77734375" style="8" customWidth="1"/>
-    <col min="22" max="22" width="4.77734375" style="32" customWidth="1"/>
+    <col min="22" max="22" width="4.77734375" style="26" customWidth="1"/>
     <col min="23" max="24" width="4.77734375" style="2" customWidth="1"/>
-    <col min="25" max="25" width="4.77734375" style="32" customWidth="1"/>
+    <col min="25" max="25" width="4.77734375" style="26" customWidth="1"/>
     <col min="26" max="26" width="4.77734375" style="2" customWidth="1"/>
     <col min="27" max="27" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.33203125" style="22" customWidth="1"/>
-    <col min="29" max="34" width="13.33203125" style="21" customWidth="1"/>
-    <col min="35" max="41" width="21.21875" style="24"/>
-    <col min="42" max="16384" width="21.21875" style="4"/>
+    <col min="28" max="28" width="13.33203125" style="4" customWidth="1"/>
+    <col min="29" max="29" width="13.33203125" style="22" customWidth="1"/>
+    <col min="30" max="35" width="13.33203125" style="21" customWidth="1"/>
+    <col min="36" max="42" width="21.21875" style="56"/>
+    <col min="43" max="16384" width="21.21875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="23.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AC1" s="17"/>
+    <row r="1" spans="1:42" ht="23.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="17"/>
       <c r="AD1" s="17"/>
       <c r="AE1" s="17"/>
       <c r="AF1" s="17"/>
       <c r="AG1" s="17"/>
       <c r="AH1" s="17"/>
-    </row>
-    <row r="2" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AC2" s="16"/>
+      <c r="AI1" s="17"/>
+    </row>
+    <row r="2" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="16"/>
       <c r="AD2" s="16"/>
       <c r="AE2" s="16"/>
       <c r="AF2" s="16"/>
       <c r="AG2" s="16"/>
       <c r="AH2" s="16"/>
-    </row>
-    <row r="3" spans="1:41" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AC3" s="16"/>
+      <c r="AI2" s="16"/>
+    </row>
+    <row r="3" spans="1:42" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="16"/>
       <c r="AF3" s="16"/>
       <c r="AG3" s="16"/>
       <c r="AH3" s="16"/>
-    </row>
-    <row r="4" spans="1:41" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29"/>
-      <c r="AC4" s="16"/>
+      <c r="AI3" s="16"/>
+    </row>
+    <row r="4" spans="1:42" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="16"/>
       <c r="AD4" s="16"/>
       <c r="AE4" s="16"/>
       <c r="AF4" s="16"/>
       <c r="AG4" s="16"/>
       <c r="AH4" s="16"/>
-    </row>
-    <row r="5" spans="1:41" s="5" customFormat="1" ht="67.8" x14ac:dyDescent="0.35">
+      <c r="AI4" s="16"/>
+    </row>
+    <row r="5" spans="1:42" s="5" customFormat="1" ht="67.8" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="G5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="K5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="M5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="O5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="R5" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="31" t="s">
+      <c r="S5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="T5" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="U5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="T5" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="U5" s="5" t="s">
+      <c r="V5" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="V5" s="31" t="s">
+      <c r="W5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y5" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y5" s="31" t="s">
+      <c r="Z5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="20"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="23"/>
       <c r="AD5" s="20"/>
       <c r="AE5" s="20"/>
       <c r="AF5" s="20"/>
       <c r="AG5" s="20"/>
       <c r="AH5" s="20"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="24"/>
-      <c r="AL5" s="24"/>
-      <c r="AM5" s="24"/>
-      <c r="AN5" s="24"/>
-      <c r="AO5" s="24"/>
-    </row>
-    <row r="6" spans="1:41" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="26"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="56"/>
+    </row>
+    <row r="6" spans="1:42" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="58"/>
       <c r="C6" s="13">
         <v>100</v>
       </c>
@@ -1224,7 +1855,7 @@
         <f>D6+C6</f>
         <v>150</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="24">
         <f>IF(E6&lt;50,0,IF(E6&lt;60,1,IF(E6&lt;75,2,IF(E6&lt;90,3,IF(E6&lt;105,3.5,IF(E6&lt;120,4,5))))))</f>
         <v>5</v>
       </c>
@@ -1238,54 +1869,62 @@
         <f>G6+H6</f>
         <v>150</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="24">
         <f>IF(I6&lt;50,0,IF(I6&lt;60,1,IF(I6&lt;75,2,IF(I6&lt;90,3,IF(I6&lt;105,3.5,IF(I6&lt;120,4,5))))))</f>
         <v>5</v>
       </c>
       <c r="K6" s="6">
         <v>100</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="24">
         <f>IF(K6&lt;33,0,IF(K6&lt;40,1,IF(K6&lt;50,2,IF(K6&lt;60,3,IF(K6&lt;70,3.5,IF(K6&lt;80,4,5))))))</f>
         <v>5</v>
       </c>
       <c r="M6" s="6">
         <v>100</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="24">
         <f>IF(M6&lt;33,0,IF(M6&lt;40,1,IF(M6&lt;50,2,IF(M6&lt;60,3,IF(M6&lt;70,3.5,IF(M6&lt;80,4,5))))))</f>
         <v>5</v>
       </c>
       <c r="O6" s="6">
         <v>50</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="24">
         <f>IF(O6&gt;=40, 2.5, IF(O6&gt;=35, 2, IF(O6&gt;=34, 1.75, IF(O6&gt;=30, 1.5, IF(O6&gt;=25, 1, IF(O6&gt;=20, 0.5, 0))))))</f>
         <v>2.5</v>
       </c>
       <c r="Q6" s="6">
         <v>100</v>
       </c>
-      <c r="R6" s="30">
+      <c r="R6" s="24">
         <f>IF(Q6&lt;33,0,IF(Q6&lt;40,1,IF(Q6&lt;50,2,IF(Q6&lt;60,3,IF(Q6&lt;70,3.5,IF(Q6&lt;80,4,5))))))</f>
         <v>5</v>
       </c>
       <c r="S6" s="6">
         <v>100</v>
       </c>
-      <c r="T6" s="30">
+      <c r="T6" s="24">
         <f>IF(S6&lt;33,0,IF(S6&lt;40,1,IF(S6&lt;50,2,IF(S6&lt;60,3,IF(S6&lt;70,3.5,IF(S6&lt;80,4,5))))))</f>
         <v>5</v>
       </c>
       <c r="U6" s="6">
         <v>50</v>
       </c>
-      <c r="V6" s="32">
-        <f>_xlfn.LET(
-  _xlpm.m, U6,
-  _xlpm.g, IF(_xlpm.m&gt;=39.5,2.5,IF(_xlpm.m&gt;=34.5,2,IF(_xlpm.m&gt;=29.5,1.75,IF(_xlpm.m&gt;=24.5,1.5,IF(_xlpm.m&gt;=19.5,1,IF(_xlpm.m&gt;=16.5,0.5,0)))))),
-  IF(_xlpm.g&lt;=1, 0, _xlpm.g-1)
-)</f>
+      <c r="V6" s="26">
+        <f>IF(OR(U6="", NOT(ISNUMBER(U6))), "",
+ _xlfn.LET(
+   _xlpm.x, U6*2,
+   _xlpm.g, IF(_xlpm.x&lt;33, 0,
+       IF(_xlpm.x&lt;40, 1,
+       IF(_xlpm.x&lt;50, 2,
+       IF(_xlpm.x&lt;60, 3,
+       IF(_xlpm.x&lt;70, 3.5,
+       IF(_xlpm.x&lt;80, 4,
+       IF(_xlpm.x&lt;=100, 5, 5))))))),
+   _xlpm.adjusted, _xlpm.g - 2,
+   IF(_xlpm.adjusted&lt;=0, 0, _xlpm.adjusted/2)
+ ))</f>
         <v>1.5</v>
       </c>
       <c r="W6" s="6">
@@ -1296,25 +1935,26 @@
         <f>SUM(F6,J6,L6,N6,P6,R6,T6,V6)</f>
         <v>34</v>
       </c>
-      <c r="Y6" s="30">
+      <c r="Y6" s="24">
         <f>IF(MIN(F6,J6,L6,N6,P6,R6,T6)&lt;1, 0, MAX(0, MIN(5, X6/6.5)))</f>
         <v>5</v>
       </c>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
-      <c r="AB6" s="22">
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22">
         <f>IF(MIN(F6,J6,L6,N6,P6,R6,T6)&lt;1, 0, MAX(0, X6/6.5))</f>
         <v>5.2307692307692308</v>
       </c>
-      <c r="AI6" s="24"/>
-      <c r="AJ6" s="24"/>
-      <c r="AK6" s="24"/>
-      <c r="AL6" s="24"/>
-      <c r="AM6" s="24"/>
-      <c r="AN6" s="24"/>
-      <c r="AO6" s="24"/>
-    </row>
-    <row r="7" spans="1:41" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AJ6" s="56"/>
+      <c r="AK6" s="56"/>
+      <c r="AL6" s="56"/>
+      <c r="AM6" s="56"/>
+      <c r="AN6" s="56"/>
+      <c r="AO6" s="56"/>
+      <c r="AP6" s="56"/>
+    </row>
+    <row r="7" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <f>ROW()-6</f>
         <v>1</v>
@@ -1332,7 +1972,7 @@
         <f t="shared" ref="E7:E61" si="0">D7+C7</f>
         <v>108</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="24">
         <f t="shared" ref="F7:F61" si="1">IF(E7&lt;50,0,IF(E7&lt;60,1,IF(E7&lt;75,2,IF(E7&lt;90,3,IF(E7&lt;105,3.5,IF(E7&lt;120,4,5))))))</f>
         <v>4</v>
       </c>
@@ -1346,84 +1986,99 @@
         <f t="shared" ref="I7:I61" si="2">G7+H7</f>
         <v>73</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="24">
         <f t="shared" ref="J7:J61" si="3">IF(I7&lt;50,0,IF(I7&lt;60,1,IF(I7&lt;75,2,IF(I7&lt;90,3,IF(I7&lt;105,3.5,IF(I7&lt;120,4,5))))))</f>
         <v>2</v>
       </c>
-      <c r="L7" s="30">
+      <c r="K7" s="8">
+        <v>57</v>
+      </c>
+      <c r="L7" s="24">
         <f t="shared" ref="L7:L61" si="4">IF(K7&lt;33,0,IF(K7&lt;40,1,IF(K7&lt;50,2,IF(K7&lt;60,3,IF(K7&lt;70,3.5,IF(K7&lt;80,4,5))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M7" s="8">
         <v>60</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="24">
         <f t="shared" ref="N7:N61" si="5">IF(M7&lt;33,0,IF(M7&lt;40,1,IF(M7&lt;50,2,IF(M7&lt;60,3,IF(M7&lt;70,3.5,IF(M7&lt;80,4,5))))))</f>
         <v>3.5</v>
       </c>
       <c r="O7" s="8">
         <v>46</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="24">
         <f t="shared" ref="P7:P61" si="6">IF(O7&gt;=40, 2.5, IF(O7&gt;=35, 2, IF(O7&gt;=34, 1.75, IF(O7&gt;=30, 1.5, IF(O7&gt;=25, 1, IF(O7&gt;=20, 0.5, 0))))))</f>
         <v>2.5</v>
       </c>
       <c r="Q7" s="8">
         <v>66</v>
       </c>
-      <c r="R7" s="30">
+      <c r="R7" s="24">
         <f t="shared" ref="R7:R61" si="7">IF(Q7&lt;33,0,IF(Q7&lt;40,1,IF(Q7&lt;50,2,IF(Q7&lt;60,3,IF(Q7&lt;70,3.5,IF(Q7&lt;80,4,5))))))</f>
         <v>3.5</v>
       </c>
-      <c r="T7" s="30">
+      <c r="S7" s="8">
+        <v>66</v>
+      </c>
+      <c r="T7" s="24">
         <f t="shared" ref="T7:T61" si="8">IF(S7&lt;33,0,IF(S7&lt;40,1,IF(S7&lt;50,2,IF(S7&lt;60,3,IF(S7&lt;70,3.5,IF(S7&lt;80,4,5))))))</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="U7" s="8">
         <v>36</v>
       </c>
-      <c r="V7" s="32">
-        <f t="shared" ref="V7:V61" si="9">_xlfn.LET(
-  _xlpm.m, U7,
-  _xlpm.g, IF(_xlpm.m&gt;=39.5,2.5,IF(_xlpm.m&gt;=34.5,2,IF(_xlpm.m&gt;=29.5,1.75,IF(_xlpm.m&gt;=24.5,1.5,IF(_xlpm.m&gt;=19.5,1,IF(_xlpm.m&gt;=16.5,0.5,0)))))),
-  IF(_xlpm.g&lt;=1, 0, _xlpm.g-1)
-)</f>
+      <c r="V7" s="26">
+        <f t="shared" ref="V7:V61" si="9">IF(OR(U7="", NOT(ISNUMBER(U7))), "",
+ _xlfn.LET(
+   _xlpm.x, U7*2,
+   _xlpm.g, IF(_xlpm.x&lt;33, 0,
+       IF(_xlpm.x&lt;40, 1,
+       IF(_xlpm.x&lt;50, 2,
+       IF(_xlpm.x&lt;60, 3,
+       IF(_xlpm.x&lt;70, 3.5,
+       IF(_xlpm.x&lt;80, 4,
+       IF(_xlpm.x&lt;=100, 5, 5))))))),
+   _xlpm.adjusted, _xlpm.g - 2,
+   IF(_xlpm.adjusted&lt;=0, 0, _xlpm.adjusted/2)
+ ))</f>
         <v>1</v>
       </c>
       <c r="W7" s="6">
         <f t="shared" ref="W7:W61" si="10">SUM(E7,I7,K7,M7,O7,Q7,S7,U7)</f>
-        <v>389</v>
+        <v>512</v>
       </c>
       <c r="X7" s="6">
         <f t="shared" ref="X7:X61" si="11">SUM(F7,J7,L7,N7,P7,R7,T7,V7)</f>
-        <v>16.5</v>
-      </c>
-      <c r="Y7" s="30">
+        <v>23</v>
+      </c>
+      <c r="Y7" s="24">
         <f t="shared" ref="Y7:Y61" si="12">IF(MIN(F7,J7,L7,N7,P7,R7,T7)&lt;1, 0, MAX(0, MIN(5, X7/6.5)))</f>
-        <v>0</v>
+        <v>3.5384615384615383</v>
       </c>
       <c r="Z7" s="6">
-        <f>RANK(AB7,$AB$7:$AB$61,0)</f>
-        <v>1</v>
+        <f t="shared" ref="Z7:Z43" si="13">IF(AA7&lt;&gt;"", "", RANK(AC7, $AC$7:$AC$61, 0))</f>
+        <v>2</v>
       </c>
       <c r="AA7" s="6" t="str">
         <f>IF(SUM((F7=0)+(J7=0)+(L7=0)+(N7=0)+(P7=0)+(R7=0)+(T7=0))=0, "", "অকৃতকার্য বিষয়: " &amp; SUM((F7=0)+(J7=0)+(L7=0)+(N7=0)+(P7=0)+(R7=0)+(T7=0)))</f>
-        <v>অকৃতকার্য বিষয়: 2</v>
-      </c>
-      <c r="AB7" s="22">
-        <f t="shared" ref="AB7:AB61" si="13">IF(MIN(F7,J7,L7,N7,P7,R7,T7)&lt;1, 0, MAX(0, X7/6.5))</f>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="7"/>
+        <v/>
+      </c>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22">
+        <f t="shared" ref="AC7:AC61" si="14">IF(MIN(F7,J7,L7,N7,P7,R7,T7)&lt;1, 0, MAX(0, X7/6.5))</f>
+        <v>3.5384615384615383</v>
+      </c>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="7"/>
-    </row>
-    <row r="8" spans="1:41" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI7" s="7"/>
+    </row>
+    <row r="8" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
-        <f t="shared" ref="A8:A61" si="14">ROW()-6</f>
+        <f t="shared" ref="A8:A61" si="15">ROW()-6</f>
         <v>2</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -1439,7 +2094,7 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="24">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
@@ -1453,80 +2108,87 @@
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="24">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L8" s="30">
+      <c r="K8" s="8">
+        <v>26</v>
+      </c>
+      <c r="L8" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M8" s="8">
         <v>42</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="24">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O8" s="8">
         <v>41</v>
       </c>
-      <c r="P8" s="30">
+      <c r="P8" s="24">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="Q8" s="8">
         <v>70</v>
       </c>
-      <c r="R8" s="30">
+      <c r="R8" s="24">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="T8" s="30">
+      <c r="S8" s="8">
+        <v>50</v>
+      </c>
+      <c r="T8" s="24">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U8" s="8">
         <v>24</v>
       </c>
-      <c r="V8" s="32">
+      <c r="V8" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W8" s="6">
         <f t="shared" si="10"/>
-        <v>326</v>
+        <v>402</v>
       </c>
       <c r="X8" s="6">
         <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-      <c r="Y8" s="30">
+        <v>16</v>
+      </c>
+      <c r="Y8" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="6">
-        <f t="shared" ref="Z8:Z61" si="15">RANK(AB8,$AB$7:$AB$61,0)</f>
-        <v>1</v>
+      <c r="Z8" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA8" s="6" t="str">
-        <f t="shared" ref="AA8:AA61" si="16">IF(SUM((F8=0)+(J8=0)+(L8=0)+(N8=0)+(P8=0)+(R8=0)+(T8=0))=0, "", "অকৃতকার্য বিষয়: " &amp; SUM((F8=0)+(J8=0)+(L8=0)+(N8=0)+(P8=0)+(R8=0)+(T8=0)))</f>
-        <v>অকৃতকার্য বিষয়: 2</v>
-      </c>
-      <c r="AB8" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="7"/>
+        <f>IF(SUM((F8=0)+(J8=0)+(L8=0)+(N8=0)+(P8=0)+(R8=0)+(T8=0))=0, "", "অকৃতকার্য বিষয়: " &amp; SUM((F8=0)+(J8=0)+(L8=0)+(N8=0)+(P8=0)+(R8=0)+(T8=0)))</f>
+        <v>অকৃতকার্য বিষয়: 1</v>
+      </c>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
-    </row>
-    <row r="9" spans="1:41" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI8" s="7"/>
+    </row>
+    <row r="9" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -1542,7 +2204,7 @@
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -1556,80 +2218,87 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="24">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L9" s="30">
+      <c r="K9" s="8">
+        <v>43</v>
+      </c>
+      <c r="L9" s="24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" s="8">
         <v>24</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O9" s="8">
         <v>40</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P9" s="24">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="Q9" s="8">
         <v>50</v>
       </c>
-      <c r="R9" s="30">
+      <c r="R9" s="24">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="T9" s="30">
+      <c r="S9" s="8">
+        <v>46</v>
+      </c>
+      <c r="T9" s="24">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U9" s="8">
         <v>26</v>
       </c>
-      <c r="V9" s="32">
+      <c r="V9" s="26">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="W9" s="6">
         <f t="shared" si="10"/>
-        <v>278</v>
+        <v>367</v>
       </c>
       <c r="X9" s="6">
         <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="Y9" s="30">
+        <v>15</v>
+      </c>
+      <c r="Y9" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z9" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA9" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v>অকৃতকার্য বিষয়: 3</v>
-      </c>
-      <c r="AB9" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="7"/>
+        <f t="shared" ref="AA9:AA61" si="16">IF(SUM((F9=0)+(J9=0)+(L9=0)+(N9=0)+(P9=0)+(R9=0)+(T9=0))=0, "", "অকৃতকার্য বিষয়: " &amp; SUM((F9=0)+(J9=0)+(L9=0)+(N9=0)+(P9=0)+(R9=0)+(T9=0)))</f>
+        <v>অকৃতকার্য বিষয়: 1</v>
+      </c>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
-    </row>
-    <row r="10" spans="1:41" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI9" s="7"/>
+    </row>
+    <row r="10" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -1645,7 +2314,7 @@
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="24">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
@@ -1659,80 +2328,87 @@
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="24">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L10" s="30">
+      <c r="K10" s="8">
+        <v>34</v>
+      </c>
+      <c r="L10" s="24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="8">
         <v>43</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="24">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O10" s="8">
         <v>45</v>
       </c>
-      <c r="P10" s="30">
+      <c r="P10" s="24">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="Q10" s="8">
         <v>56</v>
       </c>
-      <c r="R10" s="30">
+      <c r="R10" s="24">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="T10" s="30">
+      <c r="S10" s="8">
+        <v>53</v>
+      </c>
+      <c r="T10" s="24">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U10" s="8">
         <v>33</v>
       </c>
-      <c r="V10" s="32">
+      <c r="V10" s="26">
         <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
       <c r="W10" s="6">
         <f t="shared" si="10"/>
-        <v>359</v>
+        <v>446</v>
       </c>
       <c r="X10" s="6">
         <f t="shared" si="11"/>
-        <v>14.75</v>
-      </c>
-      <c r="Y10" s="30">
+        <v>18.75</v>
+      </c>
+      <c r="Y10" s="24">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.8846153846153846</v>
       </c>
       <c r="Z10" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="AA10" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>অকৃতকার্য বিষয়: 2</v>
-      </c>
-      <c r="AB10" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="7"/>
+        <v/>
+      </c>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22">
+        <f t="shared" si="14"/>
+        <v>2.8846153846153846</v>
+      </c>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
       <c r="AH10" s="7"/>
-    </row>
-    <row r="11" spans="1:41" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI10" s="7"/>
+    </row>
+    <row r="11" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -1748,7 +2424,7 @@
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -1762,80 +2438,87 @@
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="24">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L11" s="30">
+      <c r="K11" s="8">
+        <v>35</v>
+      </c>
+      <c r="L11" s="24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="8">
         <v>45</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="24">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O11" s="8">
         <v>41</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="24">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="Q11" s="8">
         <v>50</v>
       </c>
-      <c r="R11" s="30">
+      <c r="R11" s="24">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="T11" s="30">
+      <c r="S11" s="8">
+        <v>53</v>
+      </c>
+      <c r="T11" s="24">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U11" s="8">
         <v>27</v>
       </c>
-      <c r="V11" s="32">
+      <c r="V11" s="26">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="W11" s="6">
         <f t="shared" si="10"/>
-        <v>313</v>
+        <v>401</v>
       </c>
       <c r="X11" s="6">
         <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-      <c r="Y11" s="30">
+        <v>17</v>
+      </c>
+      <c r="Y11" s="24">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.6153846153846154</v>
       </c>
       <c r="Z11" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>5</v>
       </c>
       <c r="AA11" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>অকৃতকার্য বিষয়: 2</v>
-      </c>
-      <c r="AB11" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="7"/>
+        <v/>
+      </c>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22">
+        <f t="shared" si="14"/>
+        <v>2.6153846153846154</v>
+      </c>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
-    </row>
-    <row r="12" spans="1:41" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI11" s="7"/>
+    </row>
+    <row r="12" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -1851,7 +2534,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1865,49 +2548,49 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K12" s="8">
         <v>0</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M12" s="8">
         <v>0</v>
       </c>
-      <c r="N12" s="30">
+      <c r="N12" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O12" s="8">
         <v>0</v>
       </c>
-      <c r="P12" s="30">
+      <c r="P12" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q12" s="8">
         <v>0</v>
       </c>
-      <c r="R12" s="30">
+      <c r="R12" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S12" s="8">
         <v>0</v>
       </c>
-      <c r="T12" s="30">
+      <c r="T12" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U12" s="8">
         <v>0</v>
       </c>
-      <c r="V12" s="32">
+      <c r="V12" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -1919,32 +2602,33 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="30">
+      <c r="Y12" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z12" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA12" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 7</v>
       </c>
-      <c r="AB12" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="7"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
       <c r="AH12" s="7"/>
-    </row>
-    <row r="13" spans="1:41" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI12" s="7"/>
+    </row>
+    <row r="13" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -1960,7 +2644,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1974,49 +2658,49 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13" s="8">
         <v>0</v>
       </c>
-      <c r="L13" s="30">
+      <c r="L13" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M13" s="8">
         <v>0</v>
       </c>
-      <c r="N13" s="30">
+      <c r="N13" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O13" s="8">
         <v>0</v>
       </c>
-      <c r="P13" s="30">
+      <c r="P13" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q13" s="8">
         <v>0</v>
       </c>
-      <c r="R13" s="30">
+      <c r="R13" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S13" s="8">
         <v>0</v>
       </c>
-      <c r="T13" s="30">
+      <c r="T13" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U13" s="8">
         <v>0</v>
       </c>
-      <c r="V13" s="32">
+      <c r="V13" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -2028,32 +2712,33 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="30">
+      <c r="Y13" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z13" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA13" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 7</v>
       </c>
-      <c r="AB13" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="7"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
-    </row>
-    <row r="14" spans="1:41" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI13" s="7"/>
+    </row>
+    <row r="14" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -2069,7 +2754,7 @@
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2083,80 +2768,87 @@
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="24">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L14" s="30">
+      <c r="K14" s="8">
+        <v>43</v>
+      </c>
+      <c r="L14" s="24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14" s="8">
         <v>58</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="24">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="O14" s="8">
         <v>50</v>
       </c>
-      <c r="P14" s="30">
+      <c r="P14" s="24">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="Q14" s="8">
         <v>70</v>
       </c>
-      <c r="R14" s="30">
+      <c r="R14" s="24">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="T14" s="30">
+      <c r="S14" s="8">
+        <v>56</v>
+      </c>
+      <c r="T14" s="24">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U14" s="8">
         <v>21</v>
       </c>
-      <c r="V14" s="32">
+      <c r="V14" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W14" s="6">
         <f t="shared" si="10"/>
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="X14" s="6">
         <f t="shared" si="11"/>
-        <v>13.5</v>
-      </c>
-      <c r="Y14" s="30">
+        <v>18.5</v>
+      </c>
+      <c r="Y14" s="24">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.8461538461538463</v>
       </c>
       <c r="Z14" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>4</v>
       </c>
       <c r="AA14" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>অকৃতকার্য বিষয়: 2</v>
-      </c>
-      <c r="AB14" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="7"/>
+        <v/>
+      </c>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22">
+        <f t="shared" si="14"/>
+        <v>2.8461538461538463</v>
+      </c>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
-    </row>
-    <row r="15" spans="1:41" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI14" s="7"/>
+    </row>
+    <row r="15" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -2172,7 +2864,7 @@
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -2186,80 +2878,87 @@
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="24">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L15" s="30">
+      <c r="K15" s="8">
+        <v>38</v>
+      </c>
+      <c r="L15" s="24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="8">
         <v>37</v>
       </c>
-      <c r="N15" s="30">
+      <c r="N15" s="24">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O15" s="8">
         <v>42</v>
       </c>
-      <c r="P15" s="30">
+      <c r="P15" s="24">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="Q15" s="8">
         <v>50</v>
       </c>
-      <c r="R15" s="30">
+      <c r="R15" s="24">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="T15" s="30">
+      <c r="S15" s="8">
+        <v>51</v>
+      </c>
+      <c r="T15" s="24">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U15" s="8">
         <v>33</v>
       </c>
-      <c r="V15" s="32">
+      <c r="V15" s="26">
         <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
       <c r="W15" s="6">
         <f t="shared" si="10"/>
-        <v>304</v>
+        <v>393</v>
       </c>
       <c r="X15" s="6">
         <f t="shared" si="11"/>
-        <v>12.25</v>
-      </c>
-      <c r="Y15" s="30">
+        <v>16.25</v>
+      </c>
+      <c r="Y15" s="24">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z15" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>6</v>
       </c>
       <c r="AA15" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>অকৃতকার্য বিষয়: 2</v>
-      </c>
-      <c r="AB15" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="7"/>
+        <v/>
+      </c>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22">
+        <f t="shared" si="14"/>
+        <v>2.5</v>
+      </c>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
       <c r="AH15" s="7"/>
-    </row>
-    <row r="16" spans="1:41" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI15" s="7"/>
+    </row>
+    <row r="16" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -2275,7 +2974,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2289,49 +2988,49 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K16" s="8">
         <v>0</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M16" s="8">
         <v>0</v>
       </c>
-      <c r="N16" s="30">
+      <c r="N16" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O16" s="8">
         <v>0</v>
       </c>
-      <c r="P16" s="30">
+      <c r="P16" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q16" s="8">
         <v>0</v>
       </c>
-      <c r="R16" s="30">
+      <c r="R16" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S16" s="8">
         <v>0</v>
       </c>
-      <c r="T16" s="30">
+      <c r="T16" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U16" s="8">
         <v>0</v>
       </c>
-      <c r="V16" s="32">
+      <c r="V16" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -2343,32 +3042,33 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="30">
+      <c r="Y16" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z16" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA16" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 7</v>
       </c>
-      <c r="AB16" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="7"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
-    </row>
-    <row r="17" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI16" s="7"/>
+    </row>
+    <row r="17" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="B17" s="14" t="s">
@@ -2384,7 +3084,7 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2398,77 +3098,87 @@
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="24">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K17" s="8">
-        <v>41</v>
-      </c>
-      <c r="L17" s="30">
+        <v>42</v>
+      </c>
+      <c r="L17" s="24">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="N17" s="30">
+      <c r="M17" s="8">
+        <v>41</v>
+      </c>
+      <c r="N17" s="24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" s="8">
         <v>41</v>
       </c>
-      <c r="P17" s="30">
+      <c r="P17" s="24">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="Q17" s="8">
         <v>44</v>
       </c>
-      <c r="R17" s="30">
+      <c r="R17" s="24">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="T17" s="30">
+      <c r="S17" s="8">
+        <v>57</v>
+      </c>
+      <c r="T17" s="24">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="32">
+        <v>3</v>
+      </c>
+      <c r="U17" s="8">
+        <v>33</v>
+      </c>
+      <c r="V17" s="26">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" si="10"/>
-        <v>243</v>
+        <v>375</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" si="11"/>
-        <v>9.5</v>
-      </c>
-      <c r="Y17" s="30">
+        <v>15.25</v>
+      </c>
+      <c r="Y17" s="24">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.3461538461538463</v>
       </c>
       <c r="Z17" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>7</v>
       </c>
       <c r="AA17" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>অকৃতকার্য বিষয়: 2</v>
-      </c>
-      <c r="AB17" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC17" s="7"/>
+        <v/>
+      </c>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22">
+        <f t="shared" si="14"/>
+        <v>2.3461538461538463</v>
+      </c>
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
       <c r="AH17" s="7"/>
-    </row>
-    <row r="18" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI17" s="7"/>
+    </row>
+    <row r="18" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -2484,7 +3194,7 @@
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -2498,2254 +3208,2920 @@
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="24">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L18" s="30">
+      <c r="K18" s="8">
+        <v>33</v>
+      </c>
+      <c r="L18" s="24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="8">
         <v>50</v>
       </c>
-      <c r="N18" s="30">
+      <c r="N18" s="24">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="O18" s="8">
         <v>0</v>
       </c>
-      <c r="P18" s="30">
+      <c r="P18" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q18" s="8">
         <v>33</v>
       </c>
-      <c r="R18" s="30">
+      <c r="R18" s="24">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="T18" s="30">
+      <c r="S18" s="8">
+        <v>54</v>
+      </c>
+      <c r="T18" s="24">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U18" s="8">
         <v>0</v>
       </c>
-      <c r="V18" s="32">
+      <c r="V18" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W18" s="6">
         <f t="shared" si="10"/>
-        <v>219</v>
+        <v>306</v>
       </c>
       <c r="X18" s="6">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="Y18" s="30">
+        <v>12</v>
+      </c>
+      <c r="Y18" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z18" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA18" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>অকৃতকার্য বিষয়: 3</v>
-      </c>
-      <c r="AB18" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="7"/>
+        <v>অকৃতকার্য বিষয়: 1</v>
+      </c>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
-    </row>
-    <row r="19" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI18" s="7"/>
+    </row>
+    <row r="19" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>12</v>
       </c>
+      <c r="C19" s="18">
+        <v>36</v>
+      </c>
+      <c r="D19" s="8">
+        <v>27</v>
+      </c>
       <c r="E19" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="30">
+        <v>63</v>
+      </c>
+      <c r="F19" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G19" s="8">
+        <v>37</v>
+      </c>
+      <c r="H19" s="8">
+        <v>5</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="30">
+        <v>42</v>
+      </c>
+      <c r="J19" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L19" s="30">
+      <c r="K19" s="8">
+        <v>20</v>
+      </c>
+      <c r="L19" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N19" s="30">
+      <c r="M19" s="8">
+        <v>28</v>
+      </c>
+      <c r="N19" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O19" s="8">
         <v>33</v>
       </c>
-      <c r="P19" s="30">
+      <c r="P19" s="24">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="Q19" s="8">
         <v>36</v>
       </c>
-      <c r="R19" s="30">
+      <c r="R19" s="24">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="T19" s="30">
+      <c r="S19" s="8">
+        <v>45</v>
+      </c>
+      <c r="T19" s="24">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V19" s="32">
+        <v>2</v>
+      </c>
+      <c r="U19" s="8">
+        <v>22</v>
+      </c>
+      <c r="V19" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W19" s="6">
         <f t="shared" si="10"/>
-        <v>69</v>
+        <v>289</v>
       </c>
       <c r="X19" s="6">
         <f t="shared" si="11"/>
-        <v>2.5</v>
-      </c>
-      <c r="Y19" s="30">
+        <v>6.5</v>
+      </c>
+      <c r="Y19" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z19" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA19" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>অকৃতকার্য বিষয়: 5</v>
-      </c>
-      <c r="AB19" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="7"/>
+        <v>অকৃতকার্য বিষয়: 3</v>
+      </c>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
       <c r="AH19" s="7"/>
-    </row>
-    <row r="20" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI19" s="7"/>
+    </row>
+    <row r="20" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>13</v>
       </c>
+      <c r="C20" s="18">
+        <v>51</v>
+      </c>
+      <c r="D20" s="8">
+        <v>23</v>
+      </c>
       <c r="E20" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="30">
+        <v>74</v>
+      </c>
+      <c r="F20" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G20" s="8">
+        <v>40</v>
+      </c>
+      <c r="H20" s="8">
+        <v>5</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="30">
+        <v>45</v>
+      </c>
+      <c r="J20" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L20" s="30">
+      <c r="K20" s="8">
+        <v>27</v>
+      </c>
+      <c r="L20" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N20" s="30">
+      <c r="M20" s="8">
+        <v>35</v>
+      </c>
+      <c r="N20" s="24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="8">
         <v>37</v>
       </c>
-      <c r="P20" s="30">
+      <c r="P20" s="24">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Q20" s="8">
         <v>40</v>
       </c>
-      <c r="R20" s="30">
+      <c r="R20" s="24">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="T20" s="30">
+      <c r="S20" s="8">
+        <v>52</v>
+      </c>
+      <c r="T20" s="24">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="32">
+        <v>3</v>
+      </c>
+      <c r="U20" s="8">
+        <v>30</v>
+      </c>
+      <c r="V20" s="26">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="W20" s="6">
         <f t="shared" si="10"/>
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="X20" s="6">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="Y20" s="30">
+        <v>10.75</v>
+      </c>
+      <c r="Y20" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z20" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA20" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>অকৃতকার্য বিষয়: 5</v>
-      </c>
-      <c r="AB20" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="7"/>
+        <v>অকৃতকার্য বিষয়: 2</v>
+      </c>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
-    </row>
-    <row r="21" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI20" s="7"/>
+    </row>
+    <row r="21" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="C21" s="18">
+        <v>33</v>
+      </c>
+      <c r="D21" s="8">
+        <v>19</v>
+      </c>
       <c r="E21" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="30">
+        <v>52</v>
+      </c>
+      <c r="F21" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
+        <v>33</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="30">
+        <v>34</v>
+      </c>
+      <c r="J21" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L21" s="30">
+      <c r="K21" s="8">
+        <v>24</v>
+      </c>
+      <c r="L21" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N21" s="30">
+      <c r="M21" s="8">
+        <v>46</v>
+      </c>
+      <c r="N21" s="24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21" s="8">
         <v>40</v>
       </c>
-      <c r="P21" s="30">
+      <c r="P21" s="24">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="Q21" s="8">
         <v>33</v>
       </c>
-      <c r="R21" s="30">
+      <c r="R21" s="24">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="T21" s="30">
+      <c r="S21" s="8">
+        <v>38</v>
+      </c>
+      <c r="T21" s="24">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="32">
+        <v>1</v>
+      </c>
+      <c r="U21" s="8">
+        <v>21</v>
+      </c>
+      <c r="V21" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W21" s="6">
         <f t="shared" si="10"/>
-        <v>73</v>
+        <v>288</v>
       </c>
       <c r="X21" s="6">
         <f t="shared" si="11"/>
-        <v>3.5</v>
-      </c>
-      <c r="Y21" s="30">
+        <v>7.5</v>
+      </c>
+      <c r="Y21" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z21" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA21" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>অকৃতকার্য বিষয়: 5</v>
-      </c>
-      <c r="AB21" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="7"/>
+        <v>অকৃতকার্য বিষয়: 2</v>
+      </c>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
       <c r="AH21" s="7"/>
-    </row>
-    <row r="22" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI21" s="7"/>
+    </row>
+    <row r="22" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="C22" s="18">
+        <v>55</v>
+      </c>
+      <c r="D22" s="8">
+        <v>27</v>
+      </c>
       <c r="E22" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="30">
+        <v>82</v>
+      </c>
+      <c r="F22" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G22" s="8">
+        <v>44</v>
+      </c>
+      <c r="H22" s="8">
+        <v>14</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="30">
+        <v>58</v>
+      </c>
+      <c r="J22" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="30">
+        <v>1</v>
+      </c>
+      <c r="K22" s="8">
+        <v>24</v>
+      </c>
+      <c r="L22" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N22" s="30">
+      <c r="M22" s="8">
+        <v>35</v>
+      </c>
+      <c r="N22" s="24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="8">
         <v>40</v>
       </c>
-      <c r="P22" s="30">
+      <c r="P22" s="24">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="Q22" s="8">
         <v>26</v>
       </c>
-      <c r="R22" s="30">
+      <c r="R22" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T22" s="30">
+      <c r="S22" s="8">
+        <v>37</v>
+      </c>
+      <c r="T22" s="24">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="32">
+        <v>1</v>
+      </c>
+      <c r="U22" s="8">
+        <v>20</v>
+      </c>
+      <c r="V22" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W22" s="6">
         <f t="shared" si="10"/>
-        <v>66</v>
+        <v>322</v>
       </c>
       <c r="X22" s="6">
         <f t="shared" si="11"/>
-        <v>2.5</v>
-      </c>
-      <c r="Y22" s="30">
+        <v>8.5</v>
+      </c>
+      <c r="Y22" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z22" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA22" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>অকৃতকার্য বিষয়: 6</v>
-      </c>
-      <c r="AB22" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="7"/>
+        <v>অকৃতকার্য বিষয়: 2</v>
+      </c>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
-    </row>
-    <row r="23" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI22" s="7"/>
+    </row>
+    <row r="23" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="C23" s="18">
+        <v>20</v>
+      </c>
+      <c r="D23" s="8">
+        <v>10</v>
+      </c>
       <c r="E23" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="30">
+        <v>30</v>
+      </c>
+      <c r="F23" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>27</v>
+      </c>
+      <c r="H23" s="8">
+        <v>2</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="30">
+        <v>29</v>
+      </c>
+      <c r="J23" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L23" s="30">
+      <c r="K23" s="8">
+        <v>15</v>
+      </c>
+      <c r="L23" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N23" s="30">
+      <c r="M23" s="8">
+        <v>16</v>
+      </c>
+      <c r="N23" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O23" s="8">
         <v>30</v>
       </c>
-      <c r="P23" s="30">
+      <c r="P23" s="24">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="Q23" s="8">
         <v>18</v>
       </c>
-      <c r="R23" s="30">
+      <c r="R23" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T23" s="30">
+      <c r="S23" s="8">
+        <v>22</v>
+      </c>
+      <c r="T23" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V23" s="32">
+      <c r="U23" s="8">
+        <v>10</v>
+      </c>
+      <c r="V23" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W23" s="6">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="X23" s="6">
         <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
-      <c r="Y23" s="30">
+      <c r="Y23" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z23" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA23" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 6</v>
       </c>
-      <c r="AB23" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC23" s="7"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
-    </row>
-    <row r="24" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI23" s="7"/>
+    </row>
+    <row r="24" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="C24" s="18">
+        <v>46</v>
+      </c>
+      <c r="D24" s="8">
+        <v>22</v>
+      </c>
       <c r="E24" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="30">
+        <v>68</v>
+      </c>
+      <c r="F24" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G24" s="8">
+        <v>43</v>
+      </c>
+      <c r="H24" s="8">
+        <v>8</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="30">
+        <v>51</v>
+      </c>
+      <c r="J24" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="30">
+        <v>1</v>
+      </c>
+      <c r="K24" s="8">
+        <v>25</v>
+      </c>
+      <c r="L24" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N24" s="30">
+      <c r="M24" s="8">
+        <v>35</v>
+      </c>
+      <c r="N24" s="24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="8">
         <v>38</v>
       </c>
-      <c r="P24" s="30">
+      <c r="P24" s="24">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Q24" s="8">
         <v>40</v>
       </c>
-      <c r="R24" s="30">
+      <c r="R24" s="24">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="T24" s="30">
+      <c r="S24" s="8">
+        <v>50</v>
+      </c>
+      <c r="T24" s="24">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="32">
+        <v>3</v>
+      </c>
+      <c r="U24" s="8">
+        <v>23</v>
+      </c>
+      <c r="V24" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W24" s="6">
         <f t="shared" si="10"/>
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="X24" s="6">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="Y24" s="30">
+        <v>11</v>
+      </c>
+      <c r="Y24" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z24" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z24" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA24" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>অকৃতকার্য বিষয়: 5</v>
-      </c>
-      <c r="AB24" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC24" s="7"/>
+        <v>অকৃতকার্য বিষয়: 1</v>
+      </c>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD24" s="7"/>
       <c r="AE24" s="7"/>
       <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
-    </row>
-    <row r="25" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI24" s="7"/>
+    </row>
+    <row r="25" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>9</v>
       </c>
+      <c r="C25" s="18">
+        <v>25</v>
+      </c>
+      <c r="D25" s="8">
+        <v>13</v>
+      </c>
       <c r="E25" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="30">
+        <v>38</v>
+      </c>
+      <c r="F25" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>35</v>
+      </c>
+      <c r="H25" s="8">
+        <v>2</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="30">
+        <v>37</v>
+      </c>
+      <c r="J25" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L25" s="30">
+      <c r="K25" s="8">
+        <v>6</v>
+      </c>
+      <c r="L25" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N25" s="30">
+      <c r="M25" s="8">
+        <v>23</v>
+      </c>
+      <c r="N25" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O25" s="8">
         <v>31</v>
       </c>
-      <c r="P25" s="30">
+      <c r="P25" s="24">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="Q25" s="8">
         <v>10</v>
       </c>
-      <c r="R25" s="30">
+      <c r="R25" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T25" s="30">
+      <c r="S25" s="8">
+        <v>28</v>
+      </c>
+      <c r="T25" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V25" s="32">
+      <c r="U25" s="8">
+        <v>22</v>
+      </c>
+      <c r="V25" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W25" s="6">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="X25" s="6">
         <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
-      <c r="Y25" s="30">
+      <c r="Y25" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z25" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z25" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA25" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 6</v>
       </c>
-      <c r="AB25" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="7"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
       <c r="AH25" s="7"/>
-    </row>
-    <row r="26" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI25" s="7"/>
+    </row>
+    <row r="26" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>18</v>
       </c>
+      <c r="C26" s="18">
+        <v>36</v>
+      </c>
+      <c r="D26" s="8">
+        <v>23</v>
+      </c>
       <c r="E26" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="30">
+        <v>59</v>
+      </c>
+      <c r="F26" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <v>33</v>
+      </c>
+      <c r="H26" s="8">
+        <v>4</v>
       </c>
       <c r="I26" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="30">
+        <v>37</v>
+      </c>
+      <c r="J26" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L26" s="30">
+      <c r="K26" s="8">
+        <v>11</v>
+      </c>
+      <c r="L26" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N26" s="30">
+      <c r="M26" s="8">
+        <v>28</v>
+      </c>
+      <c r="N26" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O26" s="8">
         <v>30</v>
       </c>
-      <c r="P26" s="30">
+      <c r="P26" s="24">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="Q26" s="8">
         <v>21</v>
       </c>
-      <c r="R26" s="30">
+      <c r="R26" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T26" s="30">
+      <c r="S26" s="8">
+        <v>26</v>
+      </c>
+      <c r="T26" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V26" s="32">
+      <c r="U26" s="8">
+        <v>22</v>
+      </c>
+      <c r="V26" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W26" s="6">
         <f t="shared" si="10"/>
-        <v>51</v>
+        <v>234</v>
       </c>
       <c r="X26" s="6">
         <f t="shared" si="11"/>
-        <v>1.5</v>
-      </c>
-      <c r="Y26" s="30">
+        <v>2.5</v>
+      </c>
+      <c r="Y26" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z26" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z26" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA26" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>অকৃতকার্য বিষয়: 6</v>
-      </c>
-      <c r="AB26" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="7"/>
+        <v>অকৃতকার্য বিষয়: 5</v>
+      </c>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
       <c r="AG26" s="7"/>
       <c r="AH26" s="7"/>
-    </row>
-    <row r="27" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI26" s="7"/>
+    </row>
+    <row r="27" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>19</v>
       </c>
+      <c r="C27" s="18">
+        <v>25</v>
+      </c>
+      <c r="D27" s="8">
+        <v>11</v>
+      </c>
       <c r="E27" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="30">
+        <v>36</v>
+      </c>
+      <c r="F27" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
+        <v>2</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="30">
+        <v>2</v>
+      </c>
+      <c r="J27" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L27" s="30">
+      <c r="K27" s="8">
+        <v>14</v>
+      </c>
+      <c r="L27" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N27" s="30">
+      <c r="M27" s="8">
+        <v>23</v>
+      </c>
+      <c r="N27" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O27" s="8">
         <v>30</v>
       </c>
-      <c r="P27" s="30">
+      <c r="P27" s="24">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="Q27" s="8">
         <v>33</v>
       </c>
-      <c r="R27" s="30">
+      <c r="R27" s="24">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="T27" s="30">
+      <c r="S27" s="8">
+        <v>33</v>
+      </c>
+      <c r="T27" s="24">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="32">
+        <v>1</v>
+      </c>
+      <c r="U27" s="8">
+        <v>22</v>
+      </c>
+      <c r="V27" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W27" s="6">
         <f t="shared" si="10"/>
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="X27" s="6">
         <f t="shared" si="11"/>
-        <v>2.5</v>
-      </c>
-      <c r="Y27" s="30">
+        <v>3.5</v>
+      </c>
+      <c r="Y27" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z27" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z27" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA27" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>অকৃতকার্য বিষয়: 5</v>
-      </c>
-      <c r="AB27" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="7"/>
+        <v>অকৃতকার্য বিষয়: 4</v>
+      </c>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
-    </row>
-    <row r="28" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI27" s="7"/>
+    </row>
+    <row r="28" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="C28" s="18">
+        <v>21</v>
+      </c>
+      <c r="D28" s="8">
+        <v>10</v>
+      </c>
       <c r="E28" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="30">
+        <v>31</v>
+      </c>
+      <c r="F28" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>36</v>
+      </c>
+      <c r="H28" s="8">
+        <v>3</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="30">
+        <v>39</v>
+      </c>
+      <c r="J28" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L28" s="30">
+      <c r="K28" s="8">
+        <v>3</v>
+      </c>
+      <c r="L28" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N28" s="30">
+      <c r="M28" s="8">
+        <v>17</v>
+      </c>
+      <c r="N28" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O28" s="8">
         <v>28</v>
       </c>
-      <c r="P28" s="30">
+      <c r="P28" s="24">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q28" s="8">
         <v>21</v>
       </c>
-      <c r="R28" s="30">
+      <c r="R28" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T28" s="30">
+      <c r="S28" s="8">
+        <v>12</v>
+      </c>
+      <c r="T28" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V28" s="32">
+      <c r="U28" s="8">
+        <v>20</v>
+      </c>
+      <c r="V28" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W28" s="6">
         <f t="shared" si="10"/>
-        <v>49</v>
+        <v>171</v>
       </c>
       <c r="X28" s="6">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Y28" s="30">
+      <c r="Y28" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z28" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA28" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 6</v>
       </c>
-      <c r="AB28" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="7"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
-    </row>
-    <row r="29" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI28" s="7"/>
+    </row>
+    <row r="29" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>21</v>
       </c>
+      <c r="C29" s="18">
+        <v>19</v>
+      </c>
+      <c r="D29" s="8">
+        <v>21</v>
+      </c>
       <c r="E29" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="30">
+        <v>40</v>
+      </c>
+      <c r="F29" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <v>22</v>
+      </c>
+      <c r="H29" s="8">
+        <v>4</v>
       </c>
       <c r="I29" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="30">
+        <v>26</v>
+      </c>
+      <c r="J29" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L29" s="30">
+      <c r="K29" s="8">
+        <v>17</v>
+      </c>
+      <c r="L29" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N29" s="30">
+      <c r="M29" s="8">
+        <v>28</v>
+      </c>
+      <c r="N29" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O29" s="8">
         <v>24</v>
       </c>
-      <c r="P29" s="30">
+      <c r="P29" s="24">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="Q29" s="8">
         <v>26</v>
       </c>
-      <c r="R29" s="30">
+      <c r="R29" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T29" s="30">
+      <c r="S29" s="8">
+        <v>22</v>
+      </c>
+      <c r="T29" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V29" s="32">
+      <c r="U29" s="8">
+        <v>21</v>
+      </c>
+      <c r="V29" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W29" s="6">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="X29" s="6">
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="Y29" s="30">
+      <c r="Y29" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z29" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA29" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 6</v>
       </c>
-      <c r="AB29" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC29" s="7"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
       <c r="AF29" s="7"/>
       <c r="AG29" s="7"/>
       <c r="AH29" s="7"/>
-    </row>
-    <row r="30" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI29" s="7"/>
+    </row>
+    <row r="30" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>22</v>
       </c>
+      <c r="C30" s="18">
+        <v>38</v>
+      </c>
+      <c r="D30" s="8">
+        <v>24</v>
+      </c>
       <c r="E30" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="30">
+        <v>62</v>
+      </c>
+      <c r="F30" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G30" s="8">
+        <v>40</v>
+      </c>
+      <c r="H30" s="8">
+        <v>5</v>
       </c>
       <c r="I30" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="30">
+        <v>45</v>
+      </c>
+      <c r="J30" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L30" s="30">
+      <c r="K30" s="8">
+        <v>15</v>
+      </c>
+      <c r="L30" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N30" s="30">
+      <c r="M30" s="8">
+        <v>33</v>
+      </c>
+      <c r="N30" s="24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="8">
         <v>35</v>
       </c>
-      <c r="P30" s="30">
+      <c r="P30" s="24">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Q30" s="8">
         <v>38</v>
       </c>
-      <c r="R30" s="30">
+      <c r="R30" s="24">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="T30" s="30">
+      <c r="S30" s="8">
+        <v>26</v>
+      </c>
+      <c r="T30" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V30" s="32">
+      <c r="U30" s="8">
+        <v>17</v>
+      </c>
+      <c r="V30" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W30" s="6">
         <f t="shared" si="10"/>
-        <v>73</v>
+        <v>271</v>
       </c>
       <c r="X30" s="6">
         <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="Y30" s="30">
+        <v>6</v>
+      </c>
+      <c r="Y30" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z30" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z30" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA30" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>অকৃতকার্য বিষয়: 5</v>
-      </c>
-      <c r="AB30" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="7"/>
+        <v>অকৃতকার্য বিষয়: 3</v>
+      </c>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
       <c r="AH30" s="7"/>
-    </row>
-    <row r="31" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI30" s="7"/>
+    </row>
+    <row r="31" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>23</v>
       </c>
+      <c r="C31" s="18">
+        <v>18</v>
+      </c>
+      <c r="D31" s="8">
+        <v>5</v>
+      </c>
       <c r="E31" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="30">
+        <v>23</v>
+      </c>
+      <c r="F31" s="24">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
+        <v>7</v>
+      </c>
+      <c r="H31" s="8">
         <v>0</v>
       </c>
       <c r="I31" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="30">
+        <v>7</v>
+      </c>
+      <c r="J31" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L31" s="30">
+      <c r="K31" s="8">
+        <v>10</v>
+      </c>
+      <c r="L31" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N31" s="30">
+      <c r="M31" s="8">
+        <v>15</v>
+      </c>
+      <c r="N31" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O31" s="8">
         <v>34</v>
       </c>
-      <c r="P31" s="30">
+      <c r="P31" s="24">
         <f t="shared" si="6"/>
         <v>1.75</v>
       </c>
       <c r="Q31" s="8">
         <v>14</v>
       </c>
-      <c r="R31" s="30">
+      <c r="R31" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T31" s="30">
+      <c r="S31" s="8">
+        <v>11</v>
+      </c>
+      <c r="T31" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V31" s="32">
+      <c r="U31" s="8">
+        <v>21</v>
+      </c>
+      <c r="V31" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W31" s="6">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="X31" s="6">
         <f t="shared" si="11"/>
         <v>1.75</v>
       </c>
-      <c r="Y31" s="30">
+      <c r="Y31" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z31" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z31" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA31" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 6</v>
       </c>
-      <c r="AB31" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="7"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD31" s="7"/>
       <c r="AE31" s="7"/>
       <c r="AF31" s="7"/>
       <c r="AG31" s="7"/>
       <c r="AH31" s="7"/>
-    </row>
-    <row r="32" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI31" s="7"/>
+    </row>
+    <row r="32" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>24</v>
       </c>
+      <c r="C32" s="18">
+        <v>10</v>
+      </c>
+      <c r="D32" s="8">
+        <v>8</v>
+      </c>
       <c r="E32" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="30">
+        <v>18</v>
+      </c>
+      <c r="F32" s="24">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="8">
+        <v>20</v>
+      </c>
+      <c r="H32" s="8">
         <v>0</v>
       </c>
       <c r="I32" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="30">
+        <v>20</v>
+      </c>
+      <c r="J32" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L32" s="30">
+      <c r="K32" s="8">
+        <v>8</v>
+      </c>
+      <c r="L32" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N32" s="30">
+      <c r="M32" s="8">
+        <v>16</v>
+      </c>
+      <c r="N32" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O32" s="8">
         <v>5</v>
       </c>
-      <c r="P32" s="30">
+      <c r="P32" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q32" s="8">
         <v>14</v>
       </c>
-      <c r="R32" s="30">
+      <c r="R32" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T32" s="30">
+      <c r="S32" s="8">
+        <v>18</v>
+      </c>
+      <c r="T32" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V32" s="32">
+      <c r="U32" s="8">
+        <v>23</v>
+      </c>
+      <c r="V32" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W32" s="6">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="X32" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="30">
+      <c r="Y32" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z32" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z32" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA32" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 7</v>
       </c>
-      <c r="AB32" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC32" s="7"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
       <c r="AH32" s="7"/>
-    </row>
-    <row r="33" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI32" s="7"/>
+    </row>
+    <row r="33" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>25</v>
       </c>
+      <c r="C33" s="18">
+        <v>21</v>
+      </c>
+      <c r="D33" s="8">
+        <v>9</v>
+      </c>
       <c r="E33" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="30">
+        <v>30</v>
+      </c>
+      <c r="F33" s="24">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="8">
+        <v>12</v>
+      </c>
+      <c r="H33" s="8">
         <v>0</v>
       </c>
       <c r="I33" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="30">
+        <v>12</v>
+      </c>
+      <c r="J33" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L33" s="30">
+      <c r="K33" s="8">
+        <v>8</v>
+      </c>
+      <c r="L33" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N33" s="30">
+      <c r="M33" s="8">
+        <v>20</v>
+      </c>
+      <c r="N33" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O33" s="8">
         <v>5</v>
       </c>
-      <c r="P33" s="30">
+      <c r="P33" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q33" s="8">
         <v>13</v>
       </c>
-      <c r="R33" s="30">
+      <c r="R33" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T33" s="30">
+      <c r="S33" s="8">
+        <v>19</v>
+      </c>
+      <c r="T33" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V33" s="32">
+      <c r="U33" s="8">
+        <v>17</v>
+      </c>
+      <c r="V33" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W33" s="6">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="X33" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="30">
+      <c r="Y33" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z33" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z33" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA33" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 7</v>
       </c>
-      <c r="AB33" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="7"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD33" s="7"/>
       <c r="AE33" s="7"/>
       <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
       <c r="AH33" s="7"/>
-    </row>
-    <row r="34" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI33" s="7"/>
+    </row>
+    <row r="34" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>26</v>
       </c>
+      <c r="C34" s="18">
+        <v>46</v>
+      </c>
+      <c r="D34" s="8">
+        <v>14</v>
+      </c>
       <c r="E34" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="30">
+        <v>60</v>
+      </c>
+      <c r="F34" s="24">
         <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G34" s="8">
+        <v>36</v>
+      </c>
+      <c r="H34" s="8">
         <v>0</v>
       </c>
       <c r="I34" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="30">
+        <v>36</v>
+      </c>
+      <c r="J34" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L34" s="30">
+      <c r="K34" s="8">
+        <v>13</v>
+      </c>
+      <c r="L34" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N34" s="30">
+      <c r="M34" s="8">
+        <v>33</v>
+      </c>
+      <c r="N34" s="24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="8">
         <v>34</v>
       </c>
-      <c r="P34" s="30">
+      <c r="P34" s="24">
         <f t="shared" si="6"/>
         <v>1.75</v>
       </c>
       <c r="Q34" s="8">
         <v>37</v>
       </c>
-      <c r="R34" s="30">
+      <c r="R34" s="24">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="T34" s="30">
+      <c r="S34" s="8">
+        <v>38</v>
+      </c>
+      <c r="T34" s="24">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V34" s="32">
+        <v>1</v>
+      </c>
+      <c r="U34" s="8">
+        <v>22</v>
+      </c>
+      <c r="V34" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W34" s="6">
         <f t="shared" si="10"/>
-        <v>71</v>
+        <v>273</v>
       </c>
       <c r="X34" s="6">
         <f t="shared" si="11"/>
-        <v>2.75</v>
-      </c>
-      <c r="Y34" s="30">
+        <v>6.75</v>
+      </c>
+      <c r="Y34" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z34" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z34" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA34" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>অকৃতকার্য বিষয়: 5</v>
-      </c>
-      <c r="AB34" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="7"/>
+        <v>অকৃতকার্য বিষয়: 2</v>
+      </c>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD34" s="7"/>
       <c r="AE34" s="7"/>
       <c r="AF34" s="7"/>
       <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
-    </row>
-    <row r="35" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI34" s="7"/>
+    </row>
+    <row r="35" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>27</v>
       </c>
+      <c r="C35" s="18">
+        <v>33</v>
+      </c>
+      <c r="D35" s="8">
+        <v>6</v>
+      </c>
       <c r="E35" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="30">
+        <v>39</v>
+      </c>
+      <c r="F35" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="G35" s="8">
+        <v>33</v>
+      </c>
+      <c r="H35" s="8">
+        <v>5</v>
       </c>
       <c r="I35" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="30">
+        <v>38</v>
+      </c>
+      <c r="J35" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L35" s="30">
+      <c r="K35" s="8">
+        <v>11</v>
+      </c>
+      <c r="L35" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N35" s="30">
+      <c r="M35" s="8">
+        <v>33</v>
+      </c>
+      <c r="N35" s="24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="8">
         <v>28</v>
       </c>
-      <c r="P35" s="30">
+      <c r="P35" s="24">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q35" s="8">
         <v>18</v>
       </c>
-      <c r="R35" s="30">
+      <c r="R35" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T35" s="30">
+      <c r="S35" s="8">
+        <v>53</v>
+      </c>
+      <c r="T35" s="24">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V35" s="32">
+        <v>3</v>
+      </c>
+      <c r="U35" s="8">
+        <v>24</v>
+      </c>
+      <c r="V35" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W35" s="6">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>244</v>
       </c>
       <c r="X35" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="Y35" s="30">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z35" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z35" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA35" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>অকৃতকার্য বিষয়: 6</v>
-      </c>
-      <c r="AB35" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC35" s="7"/>
+        <v>অকৃতকার্য বিষয়: 4</v>
+      </c>
+      <c r="AB35" s="22"/>
+      <c r="AC35" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD35" s="7"/>
       <c r="AE35" s="7"/>
       <c r="AF35" s="7"/>
       <c r="AG35" s="7"/>
       <c r="AH35" s="7"/>
-    </row>
-    <row r="36" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI35" s="7"/>
+    </row>
+    <row r="36" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>28</v>
       </c>
+      <c r="C36" s="18">
+        <v>23</v>
+      </c>
+      <c r="D36" s="8">
+        <v>9</v>
+      </c>
       <c r="E36" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="30">
+        <v>32</v>
+      </c>
+      <c r="F36" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="G36" s="8">
+        <v>37</v>
+      </c>
+      <c r="H36" s="8">
+        <v>23</v>
       </c>
       <c r="I36" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="30">
+        <v>60</v>
+      </c>
+      <c r="J36" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="30">
+        <v>2</v>
+      </c>
+      <c r="K36" s="8">
+        <v>14</v>
+      </c>
+      <c r="L36" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N36" s="30">
+      <c r="M36" s="8">
+        <v>33</v>
+      </c>
+      <c r="N36" s="24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="8">
         <v>32</v>
       </c>
-      <c r="P36" s="30">
+      <c r="P36" s="24">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="Q36" s="8">
         <v>28</v>
       </c>
-      <c r="R36" s="30">
+      <c r="R36" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T36" s="30">
+      <c r="S36" s="8">
+        <v>40</v>
+      </c>
+      <c r="T36" s="24">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="32">
+        <v>2</v>
+      </c>
+      <c r="U36" s="8">
+        <v>20</v>
+      </c>
+      <c r="V36" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W36" s="6">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>259</v>
       </c>
       <c r="X36" s="6">
         <f t="shared" si="11"/>
-        <v>1.5</v>
-      </c>
-      <c r="Y36" s="30">
+        <v>6.5</v>
+      </c>
+      <c r="Y36" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z36" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z36" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA36" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>অকৃতকার্য বিষয়: 6</v>
-      </c>
-      <c r="AB36" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC36" s="7"/>
+        <v>অকৃতকার্য বিষয়: 3</v>
+      </c>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD36" s="7"/>
       <c r="AE36" s="7"/>
       <c r="AF36" s="7"/>
       <c r="AG36" s="7"/>
       <c r="AH36" s="7"/>
-    </row>
-    <row r="37" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI36" s="7"/>
+    </row>
+    <row r="37" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>29</v>
       </c>
+      <c r="C37" s="18">
+        <v>19</v>
+      </c>
+      <c r="D37" s="8">
+        <v>9</v>
+      </c>
       <c r="E37" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="30">
+        <v>28</v>
+      </c>
+      <c r="F37" s="24">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="8">
+        <v>18</v>
+      </c>
+      <c r="H37" s="8">
         <v>0</v>
       </c>
       <c r="I37" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="30">
+        <v>18</v>
+      </c>
+      <c r="J37" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L37" s="30">
+      <c r="K37" s="8">
+        <v>6</v>
+      </c>
+      <c r="L37" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N37" s="30">
+      <c r="M37" s="8">
+        <v>18</v>
+      </c>
+      <c r="N37" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O37" s="8">
         <v>4</v>
       </c>
-      <c r="P37" s="30">
+      <c r="P37" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q37" s="8">
         <v>12</v>
       </c>
-      <c r="R37" s="30">
+      <c r="R37" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T37" s="30">
+      <c r="S37" s="8">
+        <v>16</v>
+      </c>
+      <c r="T37" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V37" s="32">
+      <c r="U37" s="8">
+        <v>22</v>
+      </c>
+      <c r="V37" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W37" s="6">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="X37" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y37" s="30">
+      <c r="Y37" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z37" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z37" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA37" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 7</v>
       </c>
-      <c r="AB37" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC37" s="7"/>
+      <c r="AB37" s="22"/>
+      <c r="AC37" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD37" s="7"/>
       <c r="AE37" s="7"/>
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="7"/>
-    </row>
-    <row r="38" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI37" s="7"/>
+    </row>
+    <row r="38" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>30</v>
       </c>
+      <c r="C38" s="18">
+        <v>33</v>
+      </c>
+      <c r="D38" s="8">
+        <v>7</v>
+      </c>
       <c r="E38" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="30">
+        <v>40</v>
+      </c>
+      <c r="F38" s="24">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="8">
+        <v>33</v>
+      </c>
+      <c r="H38" s="8">
         <v>0</v>
       </c>
       <c r="I38" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="30">
+        <v>33</v>
+      </c>
+      <c r="J38" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L38" s="30">
+      <c r="K38" s="8">
+        <v>13</v>
+      </c>
+      <c r="L38" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N38" s="30">
+      <c r="M38" s="8">
+        <v>17</v>
+      </c>
+      <c r="N38" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O38" s="8">
         <v>30</v>
       </c>
-      <c r="P38" s="30">
+      <c r="P38" s="24">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="Q38" s="8">
         <v>15</v>
       </c>
-      <c r="R38" s="30">
+      <c r="R38" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T38" s="30">
+      <c r="S38" s="8">
+        <v>10</v>
+      </c>
+      <c r="T38" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V38" s="32">
+      <c r="U38" s="8">
+        <v>12</v>
+      </c>
+      <c r="V38" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W38" s="6">
         <f t="shared" si="10"/>
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="X38" s="6">
         <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
-      <c r="Y38" s="30">
+      <c r="Y38" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z38" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z38" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA38" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 6</v>
       </c>
-      <c r="AB38" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC38" s="7"/>
+      <c r="AB38" s="22"/>
+      <c r="AC38" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD38" s="7"/>
       <c r="AE38" s="7"/>
       <c r="AF38" s="7"/>
       <c r="AG38" s="7"/>
       <c r="AH38" s="7"/>
-    </row>
-    <row r="39" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI38" s="7"/>
+    </row>
+    <row r="39" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>33</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>31</v>
       </c>
+      <c r="C39" s="18">
+        <v>17</v>
+      </c>
+      <c r="D39" s="8">
+        <v>2</v>
+      </c>
       <c r="E39" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="30">
+        <v>19</v>
+      </c>
+      <c r="F39" s="24">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="8">
+        <v>12</v>
+      </c>
+      <c r="H39" s="8">
         <v>0</v>
       </c>
       <c r="I39" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="30">
+        <v>12</v>
+      </c>
+      <c r="J39" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L39" s="30">
+      <c r="K39" s="8">
+        <v>6</v>
+      </c>
+      <c r="L39" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N39" s="30">
+      <c r="M39" s="8">
+        <v>10</v>
+      </c>
+      <c r="N39" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O39" s="8">
-        <v>21</v>
-      </c>
-      <c r="P39" s="30">
+        <v>0</v>
+      </c>
+      <c r="P39" s="24">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="8">
         <v>5</v>
       </c>
-      <c r="R39" s="30">
+      <c r="R39" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T39" s="30">
+      <c r="S39" s="8">
+        <v>8</v>
+      </c>
+      <c r="T39" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V39" s="32">
+      <c r="U39" s="8">
+        <v>23</v>
+      </c>
+      <c r="V39" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W39" s="6">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="X39" s="6">
         <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Y39" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z39" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z39" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA39" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>অকৃতকার্য বিষয়: 6</v>
-      </c>
-      <c r="AB39" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC39" s="7"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB39" s="22"/>
+      <c r="AC39" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD39" s="7"/>
       <c r="AE39" s="7"/>
       <c r="AF39" s="7"/>
       <c r="AG39" s="7"/>
       <c r="AH39" s="7"/>
-    </row>
-    <row r="40" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI39" s="7"/>
+    </row>
+    <row r="40" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>34</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="C40" s="18">
+        <v>14</v>
+      </c>
+      <c r="D40" s="8">
+        <v>7</v>
+      </c>
       <c r="E40" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="30">
+        <v>21</v>
+      </c>
+      <c r="F40" s="24">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="8">
+        <v>33</v>
+      </c>
+      <c r="H40" s="8">
         <v>0</v>
       </c>
       <c r="I40" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="30">
+        <v>33</v>
+      </c>
+      <c r="J40" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L40" s="30">
+      <c r="K40" s="8">
+        <v>10</v>
+      </c>
+      <c r="L40" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N40" s="30">
+      <c r="M40" s="8">
+        <v>12</v>
+      </c>
+      <c r="N40" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O40" s="8">
         <v>4</v>
       </c>
-      <c r="P40" s="30">
+      <c r="P40" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q40" s="8">
         <v>7</v>
       </c>
-      <c r="R40" s="30">
+      <c r="R40" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T40" s="30">
+      <c r="S40" s="8">
+        <v>19</v>
+      </c>
+      <c r="T40" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V40" s="32">
+      <c r="U40" s="8">
+        <v>11</v>
+      </c>
+      <c r="V40" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W40" s="6">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="X40" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="30">
+      <c r="Y40" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z40" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z40" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA40" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 7</v>
       </c>
-      <c r="AB40" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC40" s="7"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD40" s="7"/>
       <c r="AE40" s="7"/>
       <c r="AF40" s="7"/>
       <c r="AG40" s="7"/>
       <c r="AH40" s="7"/>
-    </row>
-    <row r="41" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI40" s="7"/>
+    </row>
+    <row r="41" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>33</v>
       </c>
+      <c r="C41" s="18">
+        <v>33</v>
+      </c>
+      <c r="D41" s="8">
+        <v>7</v>
+      </c>
       <c r="E41" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="30">
+        <v>40</v>
+      </c>
+      <c r="F41" s="24">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="8">
+        <v>33</v>
+      </c>
+      <c r="H41" s="8">
         <v>0</v>
       </c>
       <c r="I41" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="30">
+        <v>33</v>
+      </c>
+      <c r="J41" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L41" s="30">
+      <c r="K41" s="8">
+        <v>6</v>
+      </c>
+      <c r="L41" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N41" s="30">
+      <c r="M41" s="8">
+        <v>11</v>
+      </c>
+      <c r="N41" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O41" s="8">
-        <v>21</v>
-      </c>
-      <c r="P41" s="30">
+        <v>0</v>
+      </c>
+      <c r="P41" s="24">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="8">
         <v>9</v>
       </c>
-      <c r="R41" s="30">
+      <c r="R41" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T41" s="30">
+      <c r="S41" s="8">
+        <v>14</v>
+      </c>
+      <c r="T41" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V41" s="32">
+      <c r="U41" s="8">
+        <v>12</v>
+      </c>
+      <c r="V41" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W41" s="6">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="X41" s="6">
         <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Y41" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z41" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z41" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA41" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>অকৃতকার্য বিষয়: 6</v>
-      </c>
-      <c r="AB41" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC41" s="7"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD41" s="7"/>
       <c r="AE41" s="7"/>
       <c r="AF41" s="7"/>
       <c r="AG41" s="7"/>
       <c r="AH41" s="7"/>
-    </row>
-    <row r="42" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI41" s="7"/>
+    </row>
+    <row r="42" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>34</v>
       </c>
+      <c r="C42" s="18">
+        <v>25</v>
+      </c>
+      <c r="D42" s="8">
+        <v>8</v>
+      </c>
       <c r="E42" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="30">
+        <v>33</v>
+      </c>
+      <c r="F42" s="24">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="8">
+        <v>34</v>
+      </c>
+      <c r="H42" s="8">
         <v>0</v>
       </c>
       <c r="I42" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="30">
+        <v>34</v>
+      </c>
+      <c r="J42" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L42" s="30">
+      <c r="K42" s="8">
+        <v>10</v>
+      </c>
+      <c r="L42" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N42" s="30">
+      <c r="M42" s="8">
+        <v>16</v>
+      </c>
+      <c r="N42" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O42" s="8">
         <v>0</v>
       </c>
-      <c r="P42" s="30">
+      <c r="P42" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q42" s="8">
         <v>9</v>
       </c>
-      <c r="R42" s="30">
+      <c r="R42" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T42" s="30">
+      <c r="S42" s="8">
+        <v>12</v>
+      </c>
+      <c r="T42" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V42" s="32">
+      <c r="U42" s="8">
+        <v>11</v>
+      </c>
+      <c r="V42" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W42" s="6">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="X42" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y42" s="30">
+      <c r="Y42" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z42" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z42" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA42" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 7</v>
       </c>
-      <c r="AB42" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC42" s="7"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD42" s="7"/>
       <c r="AE42" s="7"/>
       <c r="AF42" s="7"/>
       <c r="AG42" s="7"/>
       <c r="AH42" s="7"/>
-    </row>
-    <row r="43" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI42" s="7"/>
+    </row>
+    <row r="43" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>35</v>
       </c>
+      <c r="C43" s="18">
+        <v>28</v>
+      </c>
+      <c r="D43" s="8">
+        <v>4</v>
+      </c>
       <c r="E43" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="30">
+        <v>32</v>
+      </c>
+      <c r="F43" s="24">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="8">
+        <v>22</v>
+      </c>
+      <c r="H43" s="8">
         <v>0</v>
       </c>
       <c r="I43" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="30">
+        <v>22</v>
+      </c>
+      <c r="J43" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L43" s="30">
+      <c r="K43" s="8">
+        <v>14</v>
+      </c>
+      <c r="L43" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N43" s="30">
+      <c r="M43" s="8">
+        <v>18</v>
+      </c>
+      <c r="N43" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O43" s="8">
-        <v>24</v>
-      </c>
-      <c r="P43" s="30">
+        <v>0</v>
+      </c>
+      <c r="P43" s="24">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="8">
         <v>5</v>
       </c>
-      <c r="R43" s="30">
+      <c r="R43" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T43" s="30">
+      <c r="S43" s="8">
+        <v>9</v>
+      </c>
+      <c r="T43" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V43" s="32">
+      <c r="U43" s="8">
+        <v>23</v>
+      </c>
+      <c r="V43" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W43" s="6">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="X43" s="6">
         <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Y43" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z43" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z43" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AA43" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>অকৃতকার্য বিষয়: 6</v>
-      </c>
-      <c r="AB43" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC43" s="7"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD43" s="7"/>
       <c r="AE43" s="7"/>
       <c r="AF43" s="7"/>
       <c r="AG43" s="7"/>
       <c r="AH43" s="7"/>
-    </row>
-    <row r="44" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI43" s="7"/>
+    </row>
+    <row r="44" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>36</v>
+      <c r="B44" s="14"/>
+      <c r="C44" s="18">
+        <v>0</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0</v>
       </c>
       <c r="E44" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F44" s="30">
+      <c r="F44" s="24">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="8">
+        <v>0</v>
+      </c>
+      <c r="H44" s="8">
         <v>0</v>
       </c>
       <c r="I44" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J44" s="30">
+      <c r="J44" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L44" s="30">
+      <c r="K44" s="8">
+        <v>0</v>
+      </c>
+      <c r="L44" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N44" s="30">
+      <c r="M44" s="8">
+        <v>0</v>
+      </c>
+      <c r="N44" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O44" s="8">
         <v>0</v>
       </c>
-      <c r="P44" s="30">
+      <c r="P44" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="R44" s="30">
+      <c r="Q44" s="8">
+        <v>0</v>
+      </c>
+      <c r="R44" s="24">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="T44" s="30">
+        <v>0</v>
+      </c>
+      <c r="S44" s="8">
+        <v>0</v>
+      </c>
+      <c r="T44" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V44" s="32">
-        <f t="shared" si="9"/>
+      <c r="U44" s="8">
+        <v>0</v>
+      </c>
+      <c r="V44" s="26">
+        <f>IF(OR(U44="", NOT(ISNUMBER(U44))), "",
+ _xlfn.LET(
+   _xlpm.x, U44*2,
+   _xlpm.g, IF(_xlpm.x&lt;33, 0,
+       IF(_xlpm.x&lt;40, 1,
+       IF(_xlpm.x&lt;50, 2,
+       IF(_xlpm.x&lt;60, 3,
+       IF(_xlpm.x&lt;70, 3.5,
+       IF(_xlpm.x&lt;80, 4,
+       IF(_xlpm.x&lt;=100, 5, 5))))))),
+   _xlpm.adjusted, _xlpm.g - 2,
+   IF(_xlpm.adjusted&lt;=0, 0, _xlpm.adjusted/2)
+ ))</f>
         <v>0</v>
       </c>
       <c r="W44" s="6">
@@ -4754,296 +6130,372 @@
       </c>
       <c r="X44" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="Y44" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z44" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z44" s="6" t="str">
+        <f t="shared" ref="Z44" si="17">IF(AA44&lt;&gt;"", "", RANK(AC44, $AC$7:$AC$61, 0))</f>
+        <v/>
       </c>
       <c r="AA44" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>অকৃতকার্য বিষয়: 6</v>
-      </c>
-      <c r="AB44" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC44" s="7"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB44" s="22"/>
+      <c r="AC44" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD44" s="7"/>
       <c r="AE44" s="7"/>
       <c r="AF44" s="7"/>
       <c r="AG44" s="7"/>
       <c r="AH44" s="7"/>
-    </row>
-    <row r="45" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI44" s="7"/>
+    </row>
+    <row r="45" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>39</v>
       </c>
       <c r="B45" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="18">
         <v>37</v>
+      </c>
+      <c r="D45" s="8">
+        <v>13</v>
       </c>
       <c r="E45" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="30">
+        <v>50</v>
+      </c>
+      <c r="F45" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G45" s="8">
+        <v>35</v>
+      </c>
+      <c r="H45" s="8">
+        <v>6</v>
       </c>
       <c r="I45" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="30">
+        <v>41</v>
+      </c>
+      <c r="J45" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L45" s="30">
+      <c r="K45" s="8">
+        <v>33</v>
+      </c>
+      <c r="L45" s="24">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N45" s="30">
+        <v>1</v>
+      </c>
+      <c r="M45" s="8">
+        <v>34</v>
+      </c>
+      <c r="N45" s="24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" s="8">
         <v>0</v>
       </c>
-      <c r="P45" s="30">
+      <c r="P45" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q45" s="8">
         <v>37</v>
       </c>
-      <c r="R45" s="30">
+      <c r="R45" s="24">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="T45" s="30">
+      <c r="S45" s="8">
+        <v>27</v>
+      </c>
+      <c r="T45" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V45" s="32">
+      <c r="U45" s="8">
+        <v>0</v>
+      </c>
+      <c r="V45" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W45" s="6">
         <f t="shared" si="10"/>
-        <v>37</v>
+        <v>222</v>
       </c>
       <c r="X45" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="Y45" s="30">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z45" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z45" s="6" t="str">
+        <f t="shared" ref="Z45:Z61" si="18">IF(AA45&lt;&gt;"", "", RANK(AC45, $AC$7:$AC$61, 0))</f>
+        <v/>
       </c>
       <c r="AA45" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>অকৃতকার্য বিষয়: 6</v>
-      </c>
-      <c r="AB45" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC45" s="7"/>
+        <v>অকৃতকার্য বিষয়: 3</v>
+      </c>
+      <c r="AB45" s="22"/>
+      <c r="AC45" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD45" s="7"/>
       <c r="AE45" s="7"/>
       <c r="AF45" s="7"/>
       <c r="AG45" s="7"/>
       <c r="AH45" s="7"/>
-    </row>
-    <row r="46" spans="1:34" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI45" s="7"/>
+    </row>
+    <row r="46" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="C46" s="18">
+        <v>65</v>
+      </c>
+      <c r="D46" s="8">
+        <v>40</v>
       </c>
       <c r="E46" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="30">
+        <v>105</v>
+      </c>
+      <c r="F46" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G46" s="8">
+        <v>46</v>
+      </c>
+      <c r="H46" s="8">
+        <v>48</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="30">
+        <v>94</v>
+      </c>
+      <c r="J46" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="30">
+        <v>3.5</v>
+      </c>
+      <c r="K46" s="8">
+        <v>34</v>
+      </c>
+      <c r="L46" s="24">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="30">
+        <v>1</v>
+      </c>
+      <c r="M46" s="8">
+        <v>65</v>
+      </c>
+      <c r="N46" s="24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O46" s="8">
         <v>43</v>
       </c>
-      <c r="P46" s="30">
+      <c r="P46" s="24">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="Q46" s="8">
         <v>57</v>
       </c>
-      <c r="R46" s="30">
+      <c r="R46" s="24">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="T46" s="30">
+      <c r="S46" s="8">
+        <v>80</v>
+      </c>
+      <c r="T46" s="24">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V46" s="32">
+        <v>5</v>
+      </c>
+      <c r="U46" s="8">
+        <v>31</v>
+      </c>
+      <c r="V46" s="26">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="W46" s="6">
         <f t="shared" si="10"/>
-        <v>100</v>
+        <v>509</v>
       </c>
       <c r="X46" s="6">
         <f t="shared" si="11"/>
-        <v>5.5</v>
-      </c>
-      <c r="Y46" s="30">
+        <v>23.25</v>
+      </c>
+      <c r="Y46" s="24">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3.5769230769230771</v>
       </c>
       <c r="Z46" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AA46" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>অকৃতকার্য বিষয়: 5</v>
-      </c>
-      <c r="AB46" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC46" s="7"/>
+        <v/>
+      </c>
+      <c r="AB46" s="22"/>
+      <c r="AC46" s="22">
+        <f t="shared" si="14"/>
+        <v>3.5769230769230771</v>
+      </c>
       <c r="AD46" s="7"/>
       <c r="AE46" s="7"/>
       <c r="AF46" s="7"/>
       <c r="AG46" s="7"/>
       <c r="AH46" s="7"/>
-    </row>
-    <row r="47" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AI46" s="7"/>
+    </row>
+    <row r="47" spans="1:35" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C47" s="18">
+        <v>21</v>
+      </c>
+      <c r="D47" s="8">
+        <v>10</v>
       </c>
       <c r="E47" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="30">
+        <v>31</v>
+      </c>
+      <c r="F47" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="G47" s="8">
+        <v>35</v>
+      </c>
+      <c r="H47" s="8">
+        <v>2</v>
       </c>
       <c r="I47" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="30">
+        <v>37</v>
+      </c>
+      <c r="J47" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L47" s="30">
+      <c r="K47" s="8">
+        <v>9</v>
+      </c>
+      <c r="L47" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N47" s="30">
+      <c r="M47" s="8">
+        <v>24</v>
+      </c>
+      <c r="N47" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O47" s="8">
-        <v>25</v>
-      </c>
-      <c r="P47" s="30">
+        <v>0</v>
+      </c>
+      <c r="P47" s="24">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="8">
         <v>15</v>
       </c>
-      <c r="R47" s="30">
+      <c r="R47" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T47" s="30">
+      <c r="S47" s="8">
+        <v>28</v>
+      </c>
+      <c r="T47" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V47" s="32">
+      <c r="U47" s="8">
+        <v>20</v>
+      </c>
+      <c r="V47" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W47" s="6">
         <f t="shared" si="10"/>
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="X47" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="Y47" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z47" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z47" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="AA47" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>অকৃতকার্য বিষয়: 6</v>
-      </c>
-      <c r="AB47" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC47" s="7"/>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD47" s="7"/>
       <c r="AE47" s="7"/>
       <c r="AF47" s="7"/>
       <c r="AG47" s="7"/>
       <c r="AH47" s="7"/>
-    </row>
-    <row r="48" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI47" s="7"/>
+    </row>
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>42</v>
       </c>
       <c r="E48" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F48" s="30">
+      <c r="F48" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5051,33 +6503,33 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J48" s="30">
+      <c r="J48" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L48" s="30">
+      <c r="L48" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N48" s="30">
+      <c r="N48" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P48" s="30">
+      <c r="P48" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R48" s="30">
+      <c r="R48" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T48" s="30">
+      <c r="T48" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V48" s="32">
+      <c r="V48" s="26" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="W48" s="6">
         <f t="shared" si="10"/>
@@ -5087,39 +6539,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y48" s="30">
+      <c r="Y48" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z48" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z48" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="AA48" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 7</v>
       </c>
-      <c r="AB48" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC48" s="7"/>
+      <c r="AB48" s="22"/>
+      <c r="AC48" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD48" s="7"/>
       <c r="AE48" s="7"/>
       <c r="AF48" s="7"/>
       <c r="AG48" s="7"/>
       <c r="AH48" s="7"/>
-    </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI48" s="7"/>
+    </row>
+    <row r="49" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43</v>
       </c>
       <c r="E49" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F49" s="30">
+      <c r="F49" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5127,33 +6580,33 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J49" s="30">
+      <c r="J49" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L49" s="30">
+      <c r="L49" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N49" s="30">
+      <c r="N49" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P49" s="30">
+      <c r="P49" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R49" s="30">
+      <c r="R49" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T49" s="30">
+      <c r="T49" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V49" s="32">
+      <c r="V49" s="26" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="W49" s="6">
         <f t="shared" si="10"/>
@@ -5163,39 +6616,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y49" s="30">
+      <c r="Y49" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z49" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z49" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="AA49" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 7</v>
       </c>
-      <c r="AB49" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC49" s="7"/>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD49" s="7"/>
       <c r="AE49" s="7"/>
       <c r="AF49" s="7"/>
       <c r="AG49" s="7"/>
       <c r="AH49" s="7"/>
-    </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI49" s="7"/>
+    </row>
+    <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>44</v>
       </c>
       <c r="E50" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F50" s="30">
+      <c r="F50" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5203,33 +6657,33 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J50" s="30">
+      <c r="J50" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L50" s="30">
+      <c r="L50" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N50" s="30">
+      <c r="N50" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P50" s="30">
+      <c r="P50" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R50" s="30">
+      <c r="R50" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T50" s="30">
+      <c r="T50" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V50" s="32">
+      <c r="V50" s="26" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="W50" s="6">
         <f t="shared" si="10"/>
@@ -5239,39 +6693,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y50" s="30">
+      <c r="Y50" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z50" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z50" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="AA50" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 7</v>
       </c>
-      <c r="AB50" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC50" s="7"/>
+      <c r="AB50" s="22"/>
+      <c r="AC50" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD50" s="7"/>
       <c r="AE50" s="7"/>
       <c r="AF50" s="7"/>
       <c r="AG50" s="7"/>
       <c r="AH50" s="7"/>
-    </row>
-    <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI50" s="7"/>
+    </row>
+    <row r="51" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
       <c r="E51" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F51" s="30">
+      <c r="F51" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5279,33 +6734,33 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J51" s="30">
+      <c r="J51" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L51" s="30">
+      <c r="L51" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N51" s="30">
+      <c r="N51" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P51" s="30">
+      <c r="P51" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R51" s="30">
+      <c r="R51" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T51" s="30">
+      <c r="T51" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V51" s="32">
+      <c r="V51" s="26" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="W51" s="6">
         <f t="shared" si="10"/>
@@ -5315,39 +6770,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y51" s="30">
+      <c r="Y51" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z51" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z51" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="AA51" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 7</v>
       </c>
-      <c r="AB51" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC51" s="7"/>
+      <c r="AB51" s="22"/>
+      <c r="AC51" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD51" s="7"/>
       <c r="AE51" s="7"/>
       <c r="AF51" s="7"/>
       <c r="AG51" s="7"/>
       <c r="AH51" s="7"/>
-    </row>
-    <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI51" s="7"/>
+    </row>
+    <row r="52" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46</v>
       </c>
       <c r="E52" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F52" s="30">
+      <c r="F52" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5355,33 +6811,33 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J52" s="30">
+      <c r="J52" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L52" s="30">
+      <c r="L52" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N52" s="30">
+      <c r="N52" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P52" s="30">
+      <c r="P52" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R52" s="30">
+      <c r="R52" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T52" s="30">
+      <c r="T52" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V52" s="32">
+      <c r="V52" s="26" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="W52" s="6">
         <f t="shared" si="10"/>
@@ -5391,39 +6847,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y52" s="30">
+      <c r="Y52" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z52" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z52" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="AA52" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 7</v>
       </c>
-      <c r="AB52" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC52" s="7"/>
+      <c r="AB52" s="22"/>
+      <c r="AC52" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD52" s="7"/>
       <c r="AE52" s="7"/>
       <c r="AF52" s="7"/>
       <c r="AG52" s="7"/>
       <c r="AH52" s="7"/>
-    </row>
-    <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI52" s="7"/>
+    </row>
+    <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>47</v>
       </c>
       <c r="E53" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F53" s="30">
+      <c r="F53" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5431,33 +6888,33 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J53" s="30">
+      <c r="J53" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L53" s="30">
+      <c r="L53" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N53" s="30">
+      <c r="N53" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P53" s="30">
+      <c r="P53" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R53" s="30">
+      <c r="R53" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T53" s="30">
+      <c r="T53" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V53" s="32">
+      <c r="V53" s="26" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="W53" s="6">
         <f t="shared" si="10"/>
@@ -5467,39 +6924,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y53" s="30">
+      <c r="Y53" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z53" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z53" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="AA53" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 7</v>
       </c>
-      <c r="AB53" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC53" s="7"/>
+      <c r="AB53" s="22"/>
+      <c r="AC53" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD53" s="7"/>
       <c r="AE53" s="7"/>
       <c r="AF53" s="7"/>
       <c r="AG53" s="7"/>
       <c r="AH53" s="7"/>
-    </row>
-    <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI53" s="7"/>
+    </row>
+    <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>48</v>
       </c>
       <c r="E54" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F54" s="30">
+      <c r="F54" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5507,33 +6965,33 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J54" s="30">
+      <c r="J54" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L54" s="30">
+      <c r="L54" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N54" s="30">
+      <c r="N54" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P54" s="30">
+      <c r="P54" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R54" s="30">
+      <c r="R54" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T54" s="30">
+      <c r="T54" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V54" s="32">
+      <c r="V54" s="26" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="W54" s="6">
         <f t="shared" si="10"/>
@@ -5543,39 +7001,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y54" s="30">
+      <c r="Y54" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z54" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z54" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="AA54" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 7</v>
       </c>
-      <c r="AB54" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC54" s="7"/>
+      <c r="AB54" s="22"/>
+      <c r="AC54" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD54" s="7"/>
       <c r="AE54" s="7"/>
       <c r="AF54" s="7"/>
       <c r="AG54" s="7"/>
       <c r="AH54" s="7"/>
-    </row>
-    <row r="55" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI54" s="7"/>
+    </row>
+    <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>49</v>
       </c>
       <c r="E55" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F55" s="30">
+      <c r="F55" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5583,33 +7042,33 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J55" s="30">
+      <c r="J55" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L55" s="30">
+      <c r="L55" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N55" s="30">
+      <c r="N55" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P55" s="30">
+      <c r="P55" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R55" s="30">
+      <c r="R55" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T55" s="30">
+      <c r="T55" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V55" s="32">
+      <c r="V55" s="26" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="W55" s="6">
         <f t="shared" si="10"/>
@@ -5619,39 +7078,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y55" s="30">
+      <c r="Y55" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z55" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z55" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="AA55" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 7</v>
       </c>
-      <c r="AB55" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC55" s="7"/>
+      <c r="AB55" s="22"/>
+      <c r="AC55" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD55" s="7"/>
       <c r="AE55" s="7"/>
       <c r="AF55" s="7"/>
       <c r="AG55" s="7"/>
       <c r="AH55" s="7"/>
-    </row>
-    <row r="56" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI55" s="7"/>
+    </row>
+    <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="E56" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F56" s="30">
+      <c r="F56" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5659,33 +7119,33 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J56" s="30">
+      <c r="J56" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L56" s="30">
+      <c r="L56" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N56" s="30">
+      <c r="N56" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P56" s="30">
+      <c r="P56" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R56" s="30">
+      <c r="R56" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T56" s="30">
+      <c r="T56" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V56" s="32">
+      <c r="V56" s="26" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="W56" s="6">
         <f t="shared" si="10"/>
@@ -5695,39 +7155,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y56" s="30">
+      <c r="Y56" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z56" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z56" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="AA56" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 7</v>
       </c>
-      <c r="AB56" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC56" s="7"/>
+      <c r="AB56" s="22"/>
+      <c r="AC56" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD56" s="7"/>
       <c r="AE56" s="7"/>
       <c r="AF56" s="7"/>
       <c r="AG56" s="7"/>
       <c r="AH56" s="7"/>
-    </row>
-    <row r="57" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI56" s="7"/>
+    </row>
+    <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>51</v>
       </c>
       <c r="E57" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F57" s="30">
+      <c r="F57" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5735,33 +7196,33 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J57" s="30">
+      <c r="J57" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L57" s="30">
+      <c r="L57" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N57" s="30">
+      <c r="N57" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P57" s="30">
+      <c r="P57" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R57" s="30">
+      <c r="R57" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T57" s="30">
+      <c r="T57" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V57" s="32">
+      <c r="V57" s="26" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="W57" s="6">
         <f t="shared" si="10"/>
@@ -5771,39 +7232,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y57" s="30">
+      <c r="Y57" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z57" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z57" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="AA57" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 7</v>
       </c>
-      <c r="AB57" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC57" s="7"/>
+      <c r="AB57" s="22"/>
+      <c r="AC57" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD57" s="7"/>
       <c r="AE57" s="7"/>
       <c r="AF57" s="7"/>
       <c r="AG57" s="7"/>
       <c r="AH57" s="7"/>
-    </row>
-    <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI57" s="7"/>
+    </row>
+    <row r="58" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>52</v>
       </c>
       <c r="E58" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F58" s="30">
+      <c r="F58" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5811,33 +7273,33 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J58" s="30">
+      <c r="J58" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L58" s="30">
+      <c r="L58" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N58" s="30">
+      <c r="N58" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P58" s="30">
+      <c r="P58" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R58" s="30">
+      <c r="R58" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T58" s="30">
+      <c r="T58" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V58" s="32">
+      <c r="V58" s="26" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="W58" s="6">
         <f t="shared" si="10"/>
@@ -5847,39 +7309,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y58" s="30">
+      <c r="Y58" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z58" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z58" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="AA58" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 7</v>
       </c>
-      <c r="AB58" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC58" s="7"/>
+      <c r="AB58" s="22"/>
+      <c r="AC58" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD58" s="7"/>
       <c r="AE58" s="7"/>
       <c r="AF58" s="7"/>
       <c r="AG58" s="7"/>
       <c r="AH58" s="7"/>
-    </row>
-    <row r="59" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI58" s="7"/>
+    </row>
+    <row r="59" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>53</v>
       </c>
       <c r="E59" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F59" s="30">
+      <c r="F59" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5887,33 +7350,33 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J59" s="30">
+      <c r="J59" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L59" s="30">
+      <c r="L59" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N59" s="30">
+      <c r="N59" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P59" s="30">
+      <c r="P59" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R59" s="30">
+      <c r="R59" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T59" s="30">
+      <c r="T59" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V59" s="32">
+      <c r="V59" s="26" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="W59" s="6">
         <f t="shared" si="10"/>
@@ -5923,39 +7386,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y59" s="30">
+      <c r="Y59" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z59" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z59" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="AA59" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 7</v>
       </c>
-      <c r="AB59" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC59" s="7"/>
+      <c r="AB59" s="22"/>
+      <c r="AC59" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
       <c r="AF59" s="7"/>
       <c r="AG59" s="7"/>
       <c r="AH59" s="7"/>
-    </row>
-    <row r="60" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI59" s="7"/>
+    </row>
+    <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>54</v>
       </c>
       <c r="E60" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F60" s="30">
+      <c r="F60" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5963,33 +7427,33 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J60" s="30">
+      <c r="J60" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L60" s="30">
+      <c r="L60" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N60" s="30">
+      <c r="N60" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P60" s="30">
+      <c r="P60" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R60" s="30">
+      <c r="R60" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T60" s="30">
+      <c r="T60" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V60" s="32">
+      <c r="V60" s="26" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="W60" s="6">
         <f t="shared" si="10"/>
@@ -5999,39 +7463,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y60" s="30">
+      <c r="Y60" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z60" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z60" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="AA60" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 7</v>
       </c>
-      <c r="AB60" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC60" s="7"/>
+      <c r="AB60" s="22"/>
+      <c r="AC60" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
       <c r="AF60" s="7"/>
       <c r="AG60" s="7"/>
       <c r="AH60" s="7"/>
-    </row>
-    <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI60" s="7"/>
+    </row>
+    <row r="61" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>55</v>
       </c>
       <c r="E61" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F61" s="30">
+      <c r="F61" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6039,33 +7504,33 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J61" s="30">
+      <c r="J61" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L61" s="30">
+      <c r="L61" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N61" s="30">
+      <c r="N61" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P61" s="30">
+      <c r="P61" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R61" s="30">
+      <c r="R61" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T61" s="30">
+      <c r="T61" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V61" s="32">
+      <c r="V61" s="26" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="W61" s="6">
         <f t="shared" si="10"/>
@@ -6075,33 +7540,34 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y61" s="30">
+      <c r="Y61" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z61" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+      <c r="Z61" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="AA61" s="6" t="str">
         <f t="shared" si="16"/>
         <v>অকৃতকার্য বিষয়: 7</v>
       </c>
-      <c r="AB61" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC61" s="7"/>
+      <c r="AB61" s="22"/>
+      <c r="AC61" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="AD61" s="7"/>
       <c r="AE61" s="7"/>
       <c r="AF61" s="7"/>
       <c r="AG61" s="7"/>
       <c r="AH61" s="7"/>
-    </row>
-    <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI61" s="7"/>
+    </row>
+    <row r="62" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Z62" s="6"/>
     </row>
-    <row r="63" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Z63" s="6"/>
     </row>
   </sheetData>
@@ -6113,7 +7579,7 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="6">
-    <mergeCell ref="AI1:AO1048576"/>
+    <mergeCell ref="AJ1:AP1048576"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:AA2"/>
     <mergeCell ref="A1:AA1"/>
@@ -6121,43 +7587,78 @@
     <mergeCell ref="A3:AA3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="lessThan">
+      <formula>33</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="lessThan">
+      <formula>33</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="lessThan">
+      <formula>17</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1048576">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="lessThan">
+      <formula>33</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1048576">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
+      <formula>33</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA1:AH1 AA2:AA1048576 AC2:AH1048576">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="notEqual">
+  <conditionalFormatting sqref="AA1:AI1 AA2:AB1048576 AD2:AI1048576">
+    <cfRule type="cellIs" dxfId="22" priority="15" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6165,4 +7666,1360 @@
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A81ABB-B8C2-497D-BE5A-1E98B7CBB0B4}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AP3"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="29" width="8.88671875" style="55"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" s="5" customFormat="1" ht="67.8" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y1" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+    </row>
+    <row r="2" spans="1:42" s="4" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.35">
+      <c r="A2" s="47">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="48">
+        <v>70</v>
+      </c>
+      <c r="D2" s="49">
+        <v>38</v>
+      </c>
+      <c r="E2" s="50">
+        <f t="shared" ref="E2:E3" si="0">D2+C2</f>
+        <v>108</v>
+      </c>
+      <c r="F2" s="51">
+        <f t="shared" ref="F2:F3" si="1">IF(E2&lt;50,0,IF(E2&lt;60,1,IF(E2&lt;75,2,IF(E2&lt;90,3,IF(E2&lt;105,3.5,IF(E2&lt;120,4,5))))))</f>
+        <v>4</v>
+      </c>
+      <c r="G2" s="52">
+        <v>60</v>
+      </c>
+      <c r="H2" s="49">
+        <v>13</v>
+      </c>
+      <c r="I2" s="50">
+        <f t="shared" ref="I2:I3" si="2">G2+H2</f>
+        <v>73</v>
+      </c>
+      <c r="J2" s="51">
+        <f t="shared" ref="J2:J3" si="3">IF(I2&lt;50,0,IF(I2&lt;60,1,IF(I2&lt;75,2,IF(I2&lt;90,3,IF(I2&lt;105,3.5,IF(I2&lt;120,4,5))))))</f>
+        <v>2</v>
+      </c>
+      <c r="K2" s="49">
+        <v>57</v>
+      </c>
+      <c r="L2" s="51">
+        <f t="shared" ref="L2:L3" si="4">IF(K2&lt;33,0,IF(K2&lt;40,1,IF(K2&lt;50,2,IF(K2&lt;60,3,IF(K2&lt;70,3.5,IF(K2&lt;80,4,5))))))</f>
+        <v>3</v>
+      </c>
+      <c r="M2" s="49">
+        <v>60</v>
+      </c>
+      <c r="N2" s="51">
+        <f t="shared" ref="N2:N3" si="5">IF(M2&lt;33,0,IF(M2&lt;40,1,IF(M2&lt;50,2,IF(M2&lt;60,3,IF(M2&lt;70,3.5,IF(M2&lt;80,4,5))))))</f>
+        <v>3.5</v>
+      </c>
+      <c r="O2" s="49">
+        <v>46</v>
+      </c>
+      <c r="P2" s="51">
+        <f t="shared" ref="P2:P3" si="6">IF(O2&gt;=40, 2.5, IF(O2&gt;=35, 2, IF(O2&gt;=34, 1.75, IF(O2&gt;=30, 1.5, IF(O2&gt;=25, 1, IF(O2&gt;=20, 0.5, 0))))))</f>
+        <v>2.5</v>
+      </c>
+      <c r="Q2" s="49">
+        <v>66</v>
+      </c>
+      <c r="R2" s="51">
+        <f t="shared" ref="R2:R3" si="7">IF(Q2&lt;33,0,IF(Q2&lt;40,1,IF(Q2&lt;50,2,IF(Q2&lt;60,3,IF(Q2&lt;70,3.5,IF(Q2&lt;80,4,5))))))</f>
+        <v>3.5</v>
+      </c>
+      <c r="S2" s="49">
+        <v>66</v>
+      </c>
+      <c r="T2" s="51">
+        <f t="shared" ref="T2:T3" si="8">IF(S2&lt;33,0,IF(S2&lt;40,1,IF(S2&lt;50,2,IF(S2&lt;60,3,IF(S2&lt;70,3.5,IF(S2&lt;80,4,5))))))</f>
+        <v>3.5</v>
+      </c>
+      <c r="U2" s="49">
+        <v>36</v>
+      </c>
+      <c r="V2" s="53">
+        <f t="shared" ref="V2:V3" si="9">IF(OR(U2="", NOT(ISNUMBER(U2))), "",
+ _xlfn.LET(
+   _xlpm.x, U2*2,
+   _xlpm.g, IF(_xlpm.x&lt;33, 0,
+       IF(_xlpm.x&lt;40, 1,
+       IF(_xlpm.x&lt;50, 2,
+       IF(_xlpm.x&lt;60, 3,
+       IF(_xlpm.x&lt;70, 3.5,
+       IF(_xlpm.x&lt;80, 4,
+       IF(_xlpm.x&lt;=100, 5, 5))))))),
+   _xlpm.adjusted, _xlpm.g - 2,
+   IF(_xlpm.adjusted&lt;=0, 0, _xlpm.adjusted/2)
+ ))</f>
+        <v>1</v>
+      </c>
+      <c r="W2" s="50">
+        <f t="shared" ref="W2:X3" si="10">SUM(E2,I2,K2,M2,O2,Q2,S2,U2)</f>
+        <v>512</v>
+      </c>
+      <c r="X2" s="50">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="Y2" s="51">
+        <f t="shared" ref="Y2:Y3" si="11">IF(MIN(F2,J2,L2,N2,P2,R2,T2)&lt;1, 0, MAX(0, MIN(5, X2/6.5)))</f>
+        <v>3.5384615384615383</v>
+      </c>
+      <c r="Z2" s="50">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="50" t="str">
+        <f>IF(SUM((F2=0)+(J2=0)+(L2=0)+(N2=0)+(P2=0)+(R2=0)+(T2=0))=0, "", "অকৃতকার্য বিষয়: " &amp; SUM((F2=0)+(J2=0)+(L2=0)+(N2=0)+(P2=0)+(R2=0)+(T2=0)))</f>
+        <v/>
+      </c>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54">
+        <f t="shared" ref="AC2:AC3" si="12">IF(MIN(F2,J2,L2,N2,P2,R2,T2)&lt;1, 0, MAX(0, X2/6.5))</f>
+        <v>3.5384615384615383</v>
+      </c>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+    </row>
+    <row r="3" spans="1:42" s="4" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.35">
+      <c r="A3" s="47">
+        <v>40</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="48">
+        <v>65</v>
+      </c>
+      <c r="D3" s="49">
+        <v>40</v>
+      </c>
+      <c r="E3" s="50">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="F3" s="51">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G3" s="49">
+        <v>46</v>
+      </c>
+      <c r="H3" s="49">
+        <v>48</v>
+      </c>
+      <c r="I3" s="50">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="J3" s="51">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="K3" s="49">
+        <v>34</v>
+      </c>
+      <c r="L3" s="51">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M3" s="49">
+        <v>65</v>
+      </c>
+      <c r="N3" s="51">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="O3" s="49">
+        <v>43</v>
+      </c>
+      <c r="P3" s="51">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q3" s="49">
+        <v>57</v>
+      </c>
+      <c r="R3" s="51">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="S3" s="49">
+        <v>80</v>
+      </c>
+      <c r="T3" s="51">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="U3" s="49">
+        <v>31</v>
+      </c>
+      <c r="V3" s="53">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="W3" s="50">
+        <f t="shared" si="10"/>
+        <v>509</v>
+      </c>
+      <c r="X3" s="50">
+        <f t="shared" si="10"/>
+        <v>23.25</v>
+      </c>
+      <c r="Y3" s="51">
+        <f t="shared" si="11"/>
+        <v>3.5769230769230771</v>
+      </c>
+      <c r="Z3" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="50" t="str">
+        <f t="shared" ref="AA3" si="13">IF(SUM((F3=0)+(J3=0)+(L3=0)+(N3=0)+(P3=0)+(R3=0)+(T3=0))=0, "", "অকৃতকার্য বিষয়: " &amp; SUM((F3=0)+(J3=0)+(L3=0)+(N3=0)+(P3=0)+(R3=0)+(T3=0)))</f>
+        <v/>
+      </c>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54">
+        <f t="shared" si="12"/>
+        <v>3.5769230769230771</v>
+      </c>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E1:E3">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F3">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I3">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J3">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K3">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
+      <formula>33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L3">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M3">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="lessThan">
+      <formula>33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N3">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O3">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
+      <formula>17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P3">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q3">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
+      <formula>33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R3">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S3">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+      <formula>33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T3">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA1:AB3 AD1:AI3">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E17F75-0EB3-4305-B0F1-3B06BCF2004B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="15" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.77734375" style="28" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" style="38" customWidth="1"/>
+    <col min="7" max="8" width="11.77734375" style="28" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="27"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="27"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="27"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="27"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="67">
+        <v>35</v>
+      </c>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="68" t="str">
+        <f>IFERROR(VLOOKUP(B6, Datasheet!A7:AA61, 2, FALSE), "Not found")</f>
+        <v>শেখ সফিউল্লাহ</v>
+      </c>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="31">
+        <v>101</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="34">
+        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 3, FALSE), "Not found")</f>
+        <v>33</v>
+      </c>
+      <c r="D9" s="31">
+        <v>100</v>
+      </c>
+      <c r="E9" s="62">
+        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 6, FALSE), "Not found")</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="62" t="str">
+        <f>IF(OR(E9="",NOT(ISNUMBER(E9))),"",
+IF(E9&lt;1,"Fail",
+IF(E9&lt;2,"D",
+IF(E9&lt;3,"C",
+IF(E9&lt;3.5,"B",
+IF(E9&lt;5,"A-",
+"A+"))))))</f>
+        <v>Fail</v>
+      </c>
+      <c r="G9" s="69">
+        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 25, FALSE), "Not found")</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="70" t="str">
+        <f>IF(OR(G9="",NOT(ISNUMBER(G9))),"",
+IF(G9&lt;1,"Fail",
+IF(G9&lt;2,"D",
+IF(G9&lt;3,"C",
+IF(G9&lt;3.5,"B",
+IF(G9&lt;4,"A-",
+IF(G9&lt;5,"A","A+")))))))</f>
+        <v>Fail</v>
+      </c>
+      <c r="I9" s="62" t="str">
+        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 26, FALSE), "Not found")</f>
+        <v/>
+      </c>
+      <c r="J9" s="74" t="str">
+        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 27, FALSE), "Not found")</f>
+        <v>অকৃতকার্য বিষয়: 7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="31">
+        <v>102</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="34">
+        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 4, FALSE), "Not found")</f>
+        <v>7</v>
+      </c>
+      <c r="D10" s="31">
+        <v>50</v>
+      </c>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="74"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="31">
+        <v>107</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="34">
+        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 7, FALSE), "Not found")</f>
+        <v>33</v>
+      </c>
+      <c r="D11" s="31">
+        <v>100</v>
+      </c>
+      <c r="E11" s="62">
+        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 10, FALSE), "Not found")</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="62" t="str">
+        <f>IF(OR(E11="",NOT(ISNUMBER(E11))),"",
+IF(E11&lt;1,"Fail",
+IF(E11&lt;2,"D",
+IF(E11&lt;3,"C",
+IF(E11&lt;3.5,"B",
+IF(E11&lt;5,"A-",
+"A+"))))))</f>
+        <v>Fail</v>
+      </c>
+      <c r="G11" s="69"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="74"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="31">
+        <v>108</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="34">
+        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 8, FALSE), "Not found")</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="31">
+        <v>50</v>
+      </c>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="74"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="32">
+        <v>109</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="34">
+        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 11, FALSE), "Not found")</f>
+        <v>6</v>
+      </c>
+      <c r="D13" s="31">
+        <v>100</v>
+      </c>
+      <c r="E13" s="34">
+        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 12, FALSE), "Not found")</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="34" t="str">
+        <f>IF(OR(E13="",NOT(ISNUMBER(E13))),"",
+IF(E13&lt;1,"Fail",
+IF(E13&lt;2,"D",
+IF(E13&lt;3,"C",
+IF(E13&lt;3.5,"B",
+IF(E13&lt;5,"A-",
+"A+"))))))</f>
+        <v>Fail</v>
+      </c>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="74"/>
+      <c r="N13" s="28" t="str">
+        <f>I9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="32">
+        <v>111</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="34">
+        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 13, FALSE), "Not found")</f>
+        <v>11</v>
+      </c>
+      <c r="D14" s="31">
+        <v>100</v>
+      </c>
+      <c r="E14" s="34">
+        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 14, FALSE), "Not found")</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="34" t="str">
+        <f>IF(OR(E14="",NOT(ISNUMBER(E14))),"",
+IF(E14&lt;1,"Fail",
+IF(E14&lt;2,"D",
+IF(E14&lt;3,"C",
+IF(E14&lt;3.5,"B",
+IF(E14&lt;5,"A-",
+"A+"))))))</f>
+        <v>Fail</v>
+      </c>
+      <c r="G14" s="69"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="74"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="32">
+        <v>154</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="34">
+        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 15, FALSE), "Not found")</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="31">
+        <v>50</v>
+      </c>
+      <c r="E15" s="34">
+        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 16, FALSE), "Not found")</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="34" t="str">
+        <f>IF(OR(E15="",NOT(ISNUMBER(E15))),"",
+IF(E15&lt;1,"Fail",
+IF(E15&lt;2,"D",
+IF(E15&lt;3,"C",
+IF(E15&lt;3.5,"B",
+IF(E15&lt;5,"A-",
+"A+"))))))</f>
+        <v>Fail</v>
+      </c>
+      <c r="G15" s="69"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="74"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="32">
+        <v>127</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="34">
+        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 17, FALSE), "Not found")</f>
+        <v>9</v>
+      </c>
+      <c r="D16" s="31">
+        <v>100</v>
+      </c>
+      <c r="E16" s="34">
+        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 18, FALSE), "Not found")</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="34" t="str">
+        <f>IF(OR(E16="",NOT(ISNUMBER(E16))),"",
+IF(E16&lt;1,"Fail",
+IF(E16&lt;2,"D",
+IF(E16&lt;3,"C",
+IF(E16&lt;3.5,"B",
+IF(E16&lt;5,"A-",
+"A+"))))))</f>
+        <v>Fail</v>
+      </c>
+      <c r="G16" s="69"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="74"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="32">
+        <v>150</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="34">
+        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 19, FALSE), "Not found")</f>
+        <v>14</v>
+      </c>
+      <c r="D17" s="31">
+        <v>100</v>
+      </c>
+      <c r="E17" s="34">
+        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 20, FALSE), "Not found")</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="34" t="str">
+        <f>IF(OR(E17="",NOT(ISNUMBER(E17))),"",
+IF(E17&lt;1,"Fail",
+IF(E17&lt;2,"D",
+IF(E17&lt;3,"C",
+IF(E17&lt;3.5,"B",
+IF(E17&lt;5,"A-",
+"A+"))))))</f>
+        <v>Fail</v>
+      </c>
+      <c r="G17" s="69"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="74"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="32">
+        <v>134</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="34">
+        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 21, FALSE), "Not found")</f>
+        <v>12</v>
+      </c>
+      <c r="D18" s="31">
+        <v>50</v>
+      </c>
+      <c r="E18" s="34">
+        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 22, FALSE), "Not found")</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="72"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="74"/>
+    </row>
+    <row r="19" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="71"/>
+      <c r="C19" s="35">
+        <f>SUM(C9:C18)</f>
+        <v>125</v>
+      </c>
+      <c r="D19" s="37">
+        <f>SUM(D9:D18)</f>
+        <v>800</v>
+      </c>
+      <c r="E19" s="36">
+        <f>SUM(E9:E18)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="73"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="66"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B23" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="76"/>
+      <c r="H23" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B24" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="76"/>
+      <c r="H24" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B25" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="G9:G18"/>
+    <mergeCell ref="H9:H18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="J9:J18"/>
+    <mergeCell ref="I9:I18"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E9:E17">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F17">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G18">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H18">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:I18">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K5">
+    <cfRule type="cellIs" dxfId="0" priority="21" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.31496062992125984" bottom="0.31496062992125984" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A993F1-4A73-4C39-BA73-DB5BB7FE9B71}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+    </row>
+    <row r="2" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A2" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+    </row>
+    <row r="3" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A3" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+    </row>
+    <row r="4" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A4" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="81"/>
+      <c r="C6" s="79" t="str" cm="1">
+        <f t="array" ref="C6">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47, Datasheet!AA7:AA47=""))</f>
+        <v>1, 4, 5, 8, 9, 11, 40</v>
+      </c>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="80">
+        <f>IF(C6="", 0, LEN(C6) - LEN(SUBSTITUTE(C6, ",", "")) + 1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="80"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="78" t="str" cm="1">
+        <f t="array" ref="C8">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47,
+  ( (Datasheet!F7:F47=0) +
+    (Datasheet!J7:J47=0) +
+    (Datasheet!L7:L47=0) +
+    (Datasheet!N7:N47=0) +
+    (Datasheet!P7:P47=0) +
+    (Datasheet!R7:R47=0) +
+    (Datasheet!T7:T47=0) ) = 1
+))</f>
+        <v>2, 3, 12, 18</v>
+      </c>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="80">
+        <f>IF(C8="", 0, LEN(C8) - LEN(SUBSTITUTE(C8, ",", "")) + 1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="81"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="80"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="77"/>
+      <c r="C10" s="78" t="str" cm="1">
+        <f t="array" ref="C10">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47,
+  ( (Datasheet!F7:F47=0) +
+    (Datasheet!J7:J47=0) +
+    (Datasheet!L7:L47=0) +
+    (Datasheet!N7:N47=0) +
+    (Datasheet!P7:P47=0) +
+    (Datasheet!R7:R47=0) +
+    (Datasheet!T7:T47=0) ) = 2
+))</f>
+        <v>14, 15, 16, 28</v>
+      </c>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="80">
+        <f>IF(C10="", 0, LEN(C10) - LEN(SUBSTITUTE(C10, ",", "")) + 1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="80"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="80"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="80"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="77"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="80"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77" t="str" cm="1">
+        <f t="array" ref="C15">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47,
+  ( (Datasheet!F7:F47=0) +
+    (Datasheet!J7:J47=0) +
+    (Datasheet!L7:L47=0) +
+    (Datasheet!N7:N47=0) +
+    (Datasheet!P7:P47=0) +
+    (Datasheet!R7:R47=0) +
+    (Datasheet!T7:T47=0) ) &gt; 2
+))</f>
+        <v>6, 7, 10, 13, 17, 19, 20, 21, 22, 23, 24, 25, 26, 27, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 41</v>
+      </c>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="80">
+        <f>IF(C15="", 0, LEN(C15) - LEN(SUBSTITUTE(C15, ",", "")) + 1)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="80"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="77"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="80"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="80"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="80"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="J15:J19"/>
+    <mergeCell ref="C10:I14"/>
+    <mergeCell ref="C15:I19"/>
+    <mergeCell ref="A10:B14"/>
+    <mergeCell ref="A15:B19"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:I9"/>
+    <mergeCell ref="J8:J9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/result calculation sheet.xlsx
+++ b/result calculation sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdous\Documents\GitHub\result_calculation_excel_sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB96A833-3521-44A8-A495-468271F1D950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF15FA7-393A-4967-BD85-B136559CB791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{86089DA0-2BA1-4133-B16D-0F30CFEF8E2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{86089DA0-2BA1-4133-B16D-0F30CFEF8E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasheet" sheetId="1" r:id="rId1"/>
@@ -732,11 +732,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -771,16 +768,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -790,6 +784,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1551,9 +1551,9 @@
   </sheetPr>
   <dimension ref="A1:AP63"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB46" sqref="AB46"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.21875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2418,11 +2418,11 @@
         <v>55</v>
       </c>
       <c r="D11" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" s="24">
         <f t="shared" si="1"/>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="W11" s="6">
         <f t="shared" si="10"/>
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="X11" s="6">
         <f t="shared" si="11"/>
@@ -3202,15 +3202,15 @@
         <v>48</v>
       </c>
       <c r="H18" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J18" s="24">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" s="8">
         <v>33</v>
@@ -3256,11 +3256,11 @@
       </c>
       <c r="W18" s="6">
         <f t="shared" si="10"/>
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="X18" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y18" s="24">
         <f t="shared" si="12"/>
@@ -4068,15 +4068,15 @@
         <v>36</v>
       </c>
       <c r="D26" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F26" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="8">
         <v>33</v>
@@ -4136,11 +4136,11 @@
       </c>
       <c r="W26" s="6">
         <f t="shared" si="10"/>
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="X26" s="6">
         <f t="shared" si="11"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Y26" s="24">
         <f t="shared" si="12"/>
@@ -4437,11 +4437,11 @@
         <v>0</v>
       </c>
       <c r="O29" s="8">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="P29" s="24">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="8">
         <v>26</v>
@@ -4466,11 +4466,11 @@
       </c>
       <c r="W29" s="6">
         <f t="shared" si="10"/>
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="X29" s="6">
         <f t="shared" si="11"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="24">
         <f t="shared" si="12"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="AA29" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>অকৃতকার্য বিষয়: 6</v>
+        <v>অকৃতকার্য বিষয়: 7</v>
       </c>
       <c r="AB29" s="22"/>
       <c r="AC29" s="22">
@@ -8112,8 +8112,8 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -8204,22 +8204,22 @@
       <c r="A6" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="67">
-        <v>35</v>
-      </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
+      <c r="B6" s="66">
+        <v>4</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="68" t="str">
+      <c r="G6" s="67" t="str">
         <f>IFERROR(VLOOKUP(B6, Datasheet!A7:AA61, 2, FALSE), "Not found")</f>
-        <v>শেখ সফিউল্লাহ</v>
-      </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
+        <v>জান্নাতুল ইসলাম নাবিলা</v>
+      </c>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="29"/>
@@ -8271,16 +8271,16 @@
       </c>
       <c r="C9" s="34">
         <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 3, FALSE), "Not found")</f>
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D9" s="31">
         <v>100</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="74">
         <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 6, FALSE), "Not found")</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="62" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="F9" s="74" t="str">
         <f>IF(OR(E9="",NOT(ISNUMBER(E9))),"",
 IF(E9&lt;1,"Fail",
 IF(E9&lt;2,"D",
@@ -8288,13 +8288,13 @@
 IF(E9&lt;3.5,"B",
 IF(E9&lt;5,"A-",
 "A+"))))))</f>
-        <v>Fail</v>
-      </c>
-      <c r="G9" s="69">
+        <v>A-</v>
+      </c>
+      <c r="G9" s="68">
         <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 25, FALSE), "Not found")</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="70" t="str">
+        <v>2.8846153846153846</v>
+      </c>
+      <c r="H9" s="69" t="str">
         <f>IF(OR(G9="",NOT(ISNUMBER(G9))),"",
 IF(G9&lt;1,"Fail",
 IF(G9&lt;2,"D",
@@ -8302,15 +8302,15 @@
 IF(G9&lt;3.5,"B",
 IF(G9&lt;4,"A-",
 IF(G9&lt;5,"A","A+")))))))</f>
-        <v>Fail</v>
-      </c>
-      <c r="I9" s="62" t="str">
+        <v>C</v>
+      </c>
+      <c r="I9" s="74">
         <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 26, FALSE), "Not found")</f>
+        <v>3</v>
+      </c>
+      <c r="J9" s="73" t="str">
+        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 27, FALSE), "Not found")</f>
         <v/>
-      </c>
-      <c r="J9" s="74" t="str">
-        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 27, FALSE), "Not found")</f>
-        <v>অকৃতকার্য বিষয়: 7</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
@@ -8322,17 +8322,17 @@
       </c>
       <c r="C10" s="34">
         <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 4, FALSE), "Not found")</f>
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D10" s="31">
         <v>50</v>
       </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="70"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
       <c r="I10" s="75"/>
-      <c r="J10" s="74"/>
+      <c r="J10" s="73"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="31">
@@ -8343,16 +8343,16 @@
       </c>
       <c r="C11" s="34">
         <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 7, FALSE), "Not found")</f>
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D11" s="31">
         <v>100</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="74">
         <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 10, FALSE), "Not found")</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="62" t="str">
+        <v>3</v>
+      </c>
+      <c r="F11" s="74" t="str">
         <f>IF(OR(E11="",NOT(ISNUMBER(E11))),"",
 IF(E11&lt;1,"Fail",
 IF(E11&lt;2,"D",
@@ -8360,12 +8360,12 @@
 IF(E11&lt;3.5,"B",
 IF(E11&lt;5,"A-",
 "A+"))))))</f>
-        <v>Fail</v>
-      </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="70"/>
+        <v>B</v>
+      </c>
+      <c r="G11" s="68"/>
+      <c r="H11" s="69"/>
       <c r="I11" s="75"/>
-      <c r="J11" s="74"/>
+      <c r="J11" s="73"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="31">
@@ -8376,17 +8376,17 @@
       </c>
       <c r="C12" s="34">
         <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 8, FALSE), "Not found")</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D12" s="31">
         <v>50</v>
       </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="70"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
       <c r="I12" s="75"/>
-      <c r="J12" s="74"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="32">
@@ -8397,14 +8397,14 @@
       </c>
       <c r="C13" s="34">
         <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 11, FALSE), "Not found")</f>
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D13" s="31">
         <v>100</v>
       </c>
       <c r="E13" s="34">
         <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 12, FALSE), "Not found")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="34" t="str">
         <f>IF(OR(E13="",NOT(ISNUMBER(E13))),"",
@@ -8414,15 +8414,15 @@
 IF(E13&lt;3.5,"B",
 IF(E13&lt;5,"A-",
 "A+"))))))</f>
-        <v>Fail</v>
-      </c>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+        <v>D</v>
+      </c>
+      <c r="G13" s="68"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="75"/>
-      <c r="J13" s="74"/>
-      <c r="N13" s="28" t="str">
+      <c r="J13" s="73"/>
+      <c r="N13" s="28">
         <f>I9</f>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
@@ -8434,14 +8434,14 @@
       </c>
       <c r="C14" s="34">
         <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 13, FALSE), "Not found")</f>
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D14" s="31">
         <v>100</v>
       </c>
       <c r="E14" s="34">
         <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 14, FALSE), "Not found")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="34" t="str">
         <f>IF(OR(E14="",NOT(ISNUMBER(E14))),"",
@@ -8451,12 +8451,12 @@
 IF(E14&lt;3.5,"B",
 IF(E14&lt;5,"A-",
 "A+"))))))</f>
-        <v>Fail</v>
-      </c>
-      <c r="G14" s="69"/>
-      <c r="H14" s="70"/>
+        <v>C</v>
+      </c>
+      <c r="G14" s="68"/>
+      <c r="H14" s="69"/>
       <c r="I14" s="75"/>
-      <c r="J14" s="74"/>
+      <c r="J14" s="73"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="32">
@@ -8467,14 +8467,14 @@
       </c>
       <c r="C15" s="34">
         <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 15, FALSE), "Not found")</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D15" s="31">
         <v>50</v>
       </c>
       <c r="E15" s="34">
         <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 16, FALSE), "Not found")</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F15" s="34" t="str">
         <f>IF(OR(E15="",NOT(ISNUMBER(E15))),"",
@@ -8484,12 +8484,12 @@
 IF(E15&lt;3.5,"B",
 IF(E15&lt;5,"A-",
 "A+"))))))</f>
-        <v>Fail</v>
-      </c>
-      <c r="G15" s="69"/>
-      <c r="H15" s="70"/>
+        <v>C</v>
+      </c>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="75"/>
-      <c r="J15" s="74"/>
+      <c r="J15" s="73"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="32">
@@ -8500,14 +8500,14 @@
       </c>
       <c r="C16" s="34">
         <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 17, FALSE), "Not found")</f>
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D16" s="31">
         <v>100</v>
       </c>
       <c r="E16" s="34">
         <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 18, FALSE), "Not found")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" s="34" t="str">
         <f>IF(OR(E16="",NOT(ISNUMBER(E16))),"",
@@ -8517,12 +8517,12 @@
 IF(E16&lt;3.5,"B",
 IF(E16&lt;5,"A-",
 "A+"))))))</f>
-        <v>Fail</v>
-      </c>
-      <c r="G16" s="69"/>
-      <c r="H16" s="70"/>
+        <v>B</v>
+      </c>
+      <c r="G16" s="68"/>
+      <c r="H16" s="69"/>
       <c r="I16" s="75"/>
-      <c r="J16" s="74"/>
+      <c r="J16" s="73"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="32">
@@ -8533,14 +8533,14 @@
       </c>
       <c r="C17" s="34">
         <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 19, FALSE), "Not found")</f>
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D17" s="31">
         <v>100</v>
       </c>
       <c r="E17" s="34">
         <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 20, FALSE), "Not found")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F17" s="34" t="str">
         <f>IF(OR(E17="",NOT(ISNUMBER(E17))),"",
@@ -8550,12 +8550,12 @@
 IF(E17&lt;3.5,"B",
 IF(E17&lt;5,"A-",
 "A+"))))))</f>
-        <v>Fail</v>
-      </c>
-      <c r="G17" s="69"/>
-      <c r="H17" s="70"/>
+        <v>B</v>
+      </c>
+      <c r="G17" s="68"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="75"/>
-      <c r="J17" s="74"/>
+      <c r="J17" s="73"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="32">
@@ -8566,29 +8566,29 @@
       </c>
       <c r="C18" s="34">
         <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 21, FALSE), "Not found")</f>
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D18" s="31">
         <v>50</v>
       </c>
       <c r="E18" s="34">
         <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 22, FALSE), "Not found")</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="72"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="74"/>
+        <v>0.75</v>
+      </c>
+      <c r="F18" s="71"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="73"/>
     </row>
     <row r="19" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="71"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="35">
         <f>SUM(C9:C18)</f>
-        <v>125</v>
+        <v>446</v>
       </c>
       <c r="D19" s="37">
         <f>SUM(D9:D18)</f>
@@ -8596,13 +8596,13 @@
       </c>
       <c r="E19" s="36">
         <f>SUM(E9:E18)</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="73"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="66"/>
+        <v>18.75</v>
+      </c>
+      <c r="F19" s="72"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="28" t="s">
@@ -8610,40 +8610,39 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="H23" s="76" t="s">
+      <c r="C23" s="62"/>
+      <c r="H23" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="H24" s="76" t="s">
+      <c r="C24" s="62"/>
+      <c r="H24" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="76"/>
+      <c r="C25" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="G6:J6"/>
@@ -8658,10 +8657,11 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <conditionalFormatting sqref="E9:E17">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
@@ -8708,7 +8708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A993F1-4A73-4C39-BA73-DB5BB7FE9B71}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -8777,43 +8777,43 @@
     </row>
     <row r="5" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="79" t="str" cm="1">
+      <c r="B6" s="79"/>
+      <c r="C6" s="77" t="str" cm="1">
         <f t="array" ref="C6">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47, Datasheet!AA7:AA47=""))</f>
         <v>1, 4, 5, 8, 9, 11, 40</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="80">
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="78">
         <f>IF(C6="", 0, LEN(C6) - LEN(SUBSTITUTE(C6, ",", "")) + 1)</f>
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="78" t="str" cm="1">
+      <c r="B8" s="79"/>
+      <c r="C8" s="80" t="str" cm="1">
         <f t="array" ref="C8">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47,
   ( (Datasheet!F7:F47=0) +
     (Datasheet!J7:J47=0) +
@@ -8825,35 +8825,35 @@
 ))</f>
         <v>2, 3, 12, 18</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="80">
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="78">
         <f>IF(C8="", 0, LEN(C8) - LEN(SUBSTITUTE(C8, ",", "")) + 1)</f>
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="80"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="78"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78" t="str" cm="1">
+      <c r="B10" s="81"/>
+      <c r="C10" s="80" t="str" cm="1">
         <f t="array" ref="C10">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47,
   ( (Datasheet!F7:F47=0) +
     (Datasheet!J7:J47=0) +
@@ -8865,71 +8865,71 @@
 ))</f>
         <v>14, 15, 16, 28</v>
       </c>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="80">
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="78">
         <f>IF(C10="", 0, LEN(C10) - LEN(SUBSTITUTE(C10, ",", "")) + 1)</f>
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="80"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="78"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="80"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="78"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="80"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="78"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="80"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="78"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77" t="str" cm="1">
+      <c r="B15" s="81"/>
+      <c r="C15" s="81" t="str" cm="1">
         <f t="array" ref="C15">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47,
   ( (Datasheet!F7:F47=0) +
     (Datasheet!J7:J47=0) +
@@ -8941,67 +8941,76 @@
 ))</f>
         <v>6, 7, 10, 13, 17, 19, 20, 21, 22, 23, 24, 25, 26, 27, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 41</v>
       </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="80">
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="78">
         <f>IF(C15="", 0, LEN(C15) - LEN(SUBSTITUTE(C15, ",", "")) + 1)</f>
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="80"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="78"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="80"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="78"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="77"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="80"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="78"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="77"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="80"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="J15:J19"/>
+    <mergeCell ref="C10:I14"/>
+    <mergeCell ref="C15:I19"/>
+    <mergeCell ref="A10:B14"/>
+    <mergeCell ref="A15:B19"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
@@ -9009,15 +9018,6 @@
     <mergeCell ref="C6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="A6:B7"/>
-    <mergeCell ref="J10:J14"/>
-    <mergeCell ref="J15:J19"/>
-    <mergeCell ref="C10:I14"/>
-    <mergeCell ref="C15:I19"/>
-    <mergeCell ref="A10:B14"/>
-    <mergeCell ref="A15:B19"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:I9"/>
-    <mergeCell ref="J8:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/result calculation sheet.xlsx
+++ b/result calculation sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdous\Documents\GitHub\result_calculation_excel_sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF15FA7-393A-4967-BD85-B136559CB791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3A8F4E-B2E7-4D18-9A9C-C2FD5071743B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{86089DA0-2BA1-4133-B16D-0F30CFEF8E2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{86089DA0-2BA1-4133-B16D-0F30CFEF8E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasheet" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="100">
   <si>
     <t>সুমাইয়া খাতুন</t>
   </si>
@@ -364,6 +364,12 @@
   </si>
   <si>
     <t>সকল বিষয়ে কৃতকার্য</t>
+  </si>
+  <si>
+    <t>অভিভাবকের স্বাক্ষর:</t>
+  </si>
+  <si>
+    <t>জমার শেষ তারিখ: ০১/০৮/২০২৫</t>
   </si>
 </sst>
 </file>
@@ -565,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
@@ -732,9 +738,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,12 +762,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -777,11 +774,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -789,9 +783,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1180,6 +1196,61 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B494159E-6525-87AF-A59F-391BF8F4E36C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7620" y="6393180"/>
+          <a:ext cx="8023860" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1551,9 +1622,9 @@
   </sheetPr>
   <dimension ref="A1:AP63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomLeft" activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.21875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1891,7 +1962,7 @@
         <v>50</v>
       </c>
       <c r="P6" s="24">
-        <f>IF(O6&gt;=40, 2.5, IF(O6&gt;=35, 2, IF(O6&gt;=34, 1.75, IF(O6&gt;=30, 1.5, IF(O6&gt;=25, 1, IF(O6&gt;=20, 0.5, 0))))))</f>
+        <f>IF(O6&gt;=40, 2.5, IF(O6&gt;=35, 2, IF(O6&gt;=30, 1.75, IF(O6&gt;=25, 1.5, IF(O6&gt;=20, 1, IF(O6&gt;=16.5, 0.5, 0))))))</f>
         <v>2.5</v>
       </c>
       <c r="Q6" s="6">
@@ -2008,7 +2079,7 @@
         <v>46</v>
       </c>
       <c r="P7" s="24">
-        <f t="shared" ref="P7:P61" si="6">IF(O7&gt;=40, 2.5, IF(O7&gt;=35, 2, IF(O7&gt;=34, 1.75, IF(O7&gt;=30, 1.5, IF(O7&gt;=25, 1, IF(O7&gt;=20, 0.5, 0))))))</f>
+        <f t="shared" ref="P7:P61" si="6">IF(O7&gt;=40, 2.5, IF(O7&gt;=35, 2, IF(O7&gt;=30, 1.75, IF(O7&gt;=25, 1.5, IF(O7&gt;=20, 1, IF(O7&gt;=16.5, 0.5, 0))))))</f>
         <v>2.5</v>
       </c>
       <c r="Q7" s="8">
@@ -3341,7 +3412,7 @@
       </c>
       <c r="P19" s="24">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q19" s="8">
         <v>36</v>
@@ -3370,7 +3441,7 @@
       </c>
       <c r="X19" s="6">
         <f t="shared" si="11"/>
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="Y19" s="24">
         <f t="shared" si="12"/>
@@ -3781,7 +3852,7 @@
       </c>
       <c r="P23" s="24">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q23" s="8">
         <v>18</v>
@@ -3810,7 +3881,7 @@
       </c>
       <c r="X23" s="6">
         <f t="shared" si="11"/>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="Y23" s="24">
         <f t="shared" si="12"/>
@@ -4001,7 +4072,7 @@
       </c>
       <c r="P25" s="24">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q25" s="8">
         <v>10</v>
@@ -4030,7 +4101,7 @@
       </c>
       <c r="X25" s="6">
         <f t="shared" si="11"/>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="Y25" s="24">
         <f t="shared" si="12"/>
@@ -4111,7 +4182,7 @@
       </c>
       <c r="P26" s="24">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q26" s="8">
         <v>21</v>
@@ -4140,7 +4211,7 @@
       </c>
       <c r="X26" s="6">
         <f t="shared" si="11"/>
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y26" s="24">
         <f t="shared" si="12"/>
@@ -4221,7 +4292,7 @@
       </c>
       <c r="P27" s="24">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q27" s="8">
         <v>33</v>
@@ -4250,7 +4321,7 @@
       </c>
       <c r="X27" s="6">
         <f t="shared" si="11"/>
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y27" s="24">
         <f t="shared" si="12"/>
@@ -4331,7 +4402,7 @@
       </c>
       <c r="P28" s="24">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Q28" s="8">
         <v>21</v>
@@ -4360,7 +4431,7 @@
       </c>
       <c r="X28" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Y28" s="24">
         <f t="shared" si="12"/>
@@ -5101,7 +5172,7 @@
       </c>
       <c r="P35" s="24">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Q35" s="8">
         <v>18</v>
@@ -5130,7 +5201,7 @@
       </c>
       <c r="X35" s="6">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y35" s="24">
         <f t="shared" si="12"/>
@@ -5211,7 +5282,7 @@
       </c>
       <c r="P36" s="24">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q36" s="8">
         <v>28</v>
@@ -5240,7 +5311,7 @@
       </c>
       <c r="X36" s="6">
         <f t="shared" si="11"/>
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="Y36" s="24">
         <f t="shared" si="12"/>
@@ -5431,7 +5502,7 @@
       </c>
       <c r="P38" s="24">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q38" s="8">
         <v>15</v>
@@ -5460,7 +5531,7 @@
       </c>
       <c r="X38" s="6">
         <f t="shared" si="11"/>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="Y38" s="24">
         <f t="shared" si="12"/>
@@ -8110,10 +8181,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -8123,11 +8194,11 @@
     <col min="3" max="4" width="11.77734375" style="28" customWidth="1"/>
     <col min="5" max="6" width="11.77734375" style="38" customWidth="1"/>
     <col min="7" max="8" width="11.77734375" style="28" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="28" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="60" t="s">
         <v>64</v>
       </c>
@@ -8142,7 +8213,7 @@
       <c r="J1" s="60"/>
       <c r="K1" s="27"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="59" t="s">
         <v>65</v>
       </c>
@@ -8157,7 +8228,7 @@
       <c r="J2" s="59"/>
       <c r="K2" s="27"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="59" t="s">
         <v>76</v>
       </c>
@@ -8172,7 +8243,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="27"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="59" t="s">
         <v>67</v>
       </c>
@@ -8187,224 +8258,244 @@
       <c r="J4" s="59"/>
       <c r="K4" s="27"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="27"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="15" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B5" s="65">
+        <v>1</v>
+      </c>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="66" t="str">
+        <f>IFERROR(VLOOKUP(B5, Datasheet!A7:AA61, 2, FALSE), "Not found")</f>
+        <v>সুমাইয়া খাতুন</v>
+      </c>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="31">
+        <v>101</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="34">
+        <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 3, FALSE), "Not found")</f>
+        <v>70</v>
+      </c>
+      <c r="D8" s="31">
+        <v>100</v>
+      </c>
+      <c r="E8" s="71">
+        <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 6, FALSE), "Not found")</f>
         <v>4</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="67" t="str">
-        <f>IFERROR(VLOOKUP(B6, Datasheet!A7:AA61, 2, FALSE), "Not found")</f>
-        <v>জান্নাতুল ইসলাম নাবিলা</v>
-      </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="31">
-        <v>101</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="34">
-        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 3, FALSE), "Not found")</f>
-        <v>60</v>
-      </c>
-      <c r="D9" s="31">
-        <v>100</v>
-      </c>
-      <c r="E9" s="74">
-        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 6, FALSE), "Not found")</f>
-        <v>3.5</v>
-      </c>
-      <c r="F9" s="74" t="str">
-        <f>IF(OR(E9="",NOT(ISNUMBER(E9))),"",
-IF(E9&lt;1,"Fail",
-IF(E9&lt;2,"D",
-IF(E9&lt;3,"C",
-IF(E9&lt;3.5,"B",
-IF(E9&lt;5,"A-",
+      <c r="F8" s="71" t="str">
+        <f>IF(OR(E8="",NOT(ISNUMBER(E8))),"",
+IF(E8&lt;1,"Fail",
+IF(E8&lt;2,"D",
+IF(E8&lt;3,"C",
+IF(E8&lt;3.5,"B",
+IF(E8&lt;5,"A-",
 "A+"))))))</f>
         <v>A-</v>
       </c>
-      <c r="G9" s="68">
-        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 25, FALSE), "Not found")</f>
-        <v>2.8846153846153846</v>
-      </c>
-      <c r="H9" s="69" t="str">
-        <f>IF(OR(G9="",NOT(ISNUMBER(G9))),"",
-IF(G9&lt;1,"Fail",
-IF(G9&lt;2,"D",
-IF(G9&lt;3,"C",
-IF(G9&lt;3.5,"B",
-IF(G9&lt;4,"A-",
-IF(G9&lt;5,"A","A+")))))))</f>
+      <c r="G8" s="67">
+        <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 25, FALSE), "Not found")</f>
+        <v>3.5384615384615383</v>
+      </c>
+      <c r="H8" s="68" t="str">
+        <f>IF(OR(G8="",NOT(ISNUMBER(G8))),"",
+IF(G8&lt;1,"Fail",
+IF(G8&lt;2,"D",
+IF(G8&lt;3,"C",
+IF(G8&lt;3.5,"B",
+IF(G8&lt;4,"A-",
+IF(G8&lt;5,"A","A+")))))))</f>
+        <v>A-</v>
+      </c>
+      <c r="I8" s="71">
+        <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 26, FALSE), "Not found")</f>
+        <v>2</v>
+      </c>
+      <c r="J8" s="70" t="str">
+        <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 27, FALSE), "Not found")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="31">
+        <v>102</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="34">
+        <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 4, FALSE), "Not found")</f>
+        <v>38</v>
+      </c>
+      <c r="D9" s="31">
+        <v>50</v>
+      </c>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="70"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="31">
+        <v>107</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="34">
+        <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 7, FALSE), "Not found")</f>
+        <v>60</v>
+      </c>
+      <c r="D10" s="31">
+        <v>100</v>
+      </c>
+      <c r="E10" s="71">
+        <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 10, FALSE), "Not found")</f>
+        <v>2</v>
+      </c>
+      <c r="F10" s="71" t="str">
+        <f>IF(OR(E10="",NOT(ISNUMBER(E10))),"",
+IF(E10&lt;1,"Fail",
+IF(E10&lt;2,"D",
+IF(E10&lt;3,"C",
+IF(E10&lt;3.5,"B",
+IF(E10&lt;5,"A-",
+"A+"))))))</f>
         <v>C</v>
       </c>
-      <c r="I9" s="74">
-        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 26, FALSE), "Not found")</f>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="70"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="31">
+        <v>108</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="34">
+        <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 8, FALSE), "Not found")</f>
+        <v>13</v>
+      </c>
+      <c r="D11" s="31">
+        <v>50</v>
+      </c>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="70"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="32">
+        <v>109</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="34">
+        <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 11, FALSE), "Not found")</f>
+        <v>57</v>
+      </c>
+      <c r="D12" s="31">
+        <v>100</v>
+      </c>
+      <c r="E12" s="34">
+        <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 12, FALSE), "Not found")</f>
         <v>3</v>
       </c>
-      <c r="J9" s="73" t="str">
-        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 27, FALSE), "Not found")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="31">
-        <v>102</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="34">
-        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 4, FALSE), "Not found")</f>
-        <v>36</v>
-      </c>
-      <c r="D10" s="31">
-        <v>50</v>
-      </c>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="73"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="31">
-        <v>107</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="34">
-        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 7, FALSE), "Not found")</f>
-        <v>52</v>
-      </c>
-      <c r="D11" s="31">
-        <v>100</v>
-      </c>
-      <c r="E11" s="74">
-        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 10, FALSE), "Not found")</f>
-        <v>3</v>
-      </c>
-      <c r="F11" s="74" t="str">
-        <f>IF(OR(E11="",NOT(ISNUMBER(E11))),"",
-IF(E11&lt;1,"Fail",
-IF(E11&lt;2,"D",
-IF(E11&lt;3,"C",
-IF(E11&lt;3.5,"B",
-IF(E11&lt;5,"A-",
+      <c r="F12" s="34" t="str">
+        <f>IF(OR(E12="",NOT(ISNUMBER(E12))),"",
+IF(E12&lt;1,"Fail",
+IF(E12&lt;2,"D",
+IF(E12&lt;3,"C",
+IF(E12&lt;3.5,"B",
+IF(E12&lt;5,"A-",
 "A+"))))))</f>
         <v>B</v>
       </c>
-      <c r="G11" s="68"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="73"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="31">
-        <v>108</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="34">
-        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 8, FALSE), "Not found")</f>
-        <v>34</v>
-      </c>
-      <c r="D12" s="31">
-        <v>50</v>
-      </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="73"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="70"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="32">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="C13" s="34">
-        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 11, FALSE), "Not found")</f>
-        <v>34</v>
+        <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 13, FALSE), "Not found")</f>
+        <v>60</v>
       </c>
       <c r="D13" s="31">
         <v>100</v>
       </c>
       <c r="E13" s="34">
-        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 12, FALSE), "Not found")</f>
-        <v>1</v>
+        <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 14, FALSE), "Not found")</f>
+        <v>3.5</v>
       </c>
       <c r="F13" s="34" t="str">
         <f>IF(OR(E13="",NOT(ISNUMBER(E13))),"",
@@ -8414,34 +8505,30 @@
 IF(E13&lt;3.5,"B",
 IF(E13&lt;5,"A-",
 "A+"))))))</f>
-        <v>D</v>
-      </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="73"/>
-      <c r="N13" s="28">
-        <f>I9</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+        <v>A-</v>
+      </c>
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="70"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="32">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C14" s="34">
-        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 13, FALSE), "Not found")</f>
-        <v>43</v>
+        <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 15, FALSE), "Not found")</f>
+        <v>46</v>
       </c>
       <c r="D14" s="31">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E14" s="34">
-        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 14, FALSE), "Not found")</f>
-        <v>2</v>
+        <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 16, FALSE), "Not found")</f>
+        <v>2.5</v>
       </c>
       <c r="F14" s="34" t="str">
         <f>IF(OR(E14="",NOT(ISNUMBER(E14))),"",
@@ -8453,28 +8540,28 @@
 "A+"))))))</f>
         <v>C</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="73"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="70"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="32">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C15" s="34">
-        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 15, FALSE), "Not found")</f>
-        <v>45</v>
+        <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 17, FALSE), "Not found")</f>
+        <v>66</v>
       </c>
       <c r="D15" s="31">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E15" s="34">
-        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 16, FALSE), "Not found")</f>
-        <v>2.5</v>
+        <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 18, FALSE), "Not found")</f>
+        <v>3.5</v>
       </c>
       <c r="F15" s="34" t="str">
         <f>IF(OR(E15="",NOT(ISNUMBER(E15))),"",
@@ -8484,30 +8571,30 @@
 IF(E15&lt;3.5,"B",
 IF(E15&lt;5,"A-",
 "A+"))))))</f>
-        <v>C</v>
-      </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="73"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+        <v>A-</v>
+      </c>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="70"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="32">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="C16" s="34">
-        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 17, FALSE), "Not found")</f>
-        <v>56</v>
+        <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 19, FALSE), "Not found")</f>
+        <v>66</v>
       </c>
       <c r="D16" s="31">
         <v>100</v>
       </c>
       <c r="E16" s="34">
-        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 18, FALSE), "Not found")</f>
-        <v>3</v>
+        <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 20, FALSE), "Not found")</f>
+        <v>3.5</v>
       </c>
       <c r="F16" s="34" t="str">
         <f>IF(OR(E16="",NOT(ISNUMBER(E16))),"",
@@ -8517,199 +8604,178 @@
 IF(E16&lt;3.5,"B",
 IF(E16&lt;5,"A-",
 "A+"))))))</f>
-        <v>B</v>
-      </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="73"/>
+        <v>A-</v>
+      </c>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="70"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="32">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C17" s="34">
-        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 19, FALSE), "Not found")</f>
-        <v>53</v>
+        <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 21, FALSE), "Not found")</f>
+        <v>36</v>
       </c>
       <c r="D17" s="31">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E17" s="34">
-        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 20, FALSE), "Not found")</f>
-        <v>3</v>
-      </c>
-      <c r="F17" s="34" t="str">
-        <f>IF(OR(E17="",NOT(ISNUMBER(E17))),"",
-IF(E17&lt;1,"Fail",
-IF(E17&lt;2,"D",
-IF(E17&lt;3,"C",
-IF(E17&lt;3.5,"B",
-IF(E17&lt;5,"A-",
-"A+"))))))</f>
-        <v>B</v>
-      </c>
-      <c r="G17" s="68"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="73"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="32">
-        <v>134</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="34">
-        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 21, FALSE), "Not found")</f>
-        <v>33</v>
-      </c>
-      <c r="D18" s="31">
-        <v>50</v>
-      </c>
-      <c r="E18" s="34">
-        <f>IFERROR(VLOOKUP($B$6, Datasheet!$A$7:$AA$61, 22, FALSE), "Not found")</f>
-        <v>0.75</v>
-      </c>
-      <c r="F18" s="71"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="73"/>
-    </row>
-    <row r="19" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="70" t="s">
+        <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 22, FALSE), "Not found")</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="81" t="str">
+        <f>IF(C17&gt;=40, "A+", IF(C17&gt;=35, "A", IF(O30&gt;=34, 1.75, IF(O30&gt;=30, 1.5, IF(O30&gt;=25, 1, IF(O30&gt;=20, 0.5, 0))))))</f>
+        <v>A</v>
+      </c>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="70"/>
+    </row>
+    <row r="18" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="35">
-        <f>SUM(C9:C18)</f>
-        <v>446</v>
-      </c>
-      <c r="D19" s="37">
-        <f>SUM(D9:D18)</f>
+      <c r="B18" s="69"/>
+      <c r="C18" s="35">
+        <f>SUM(C8:C17)</f>
+        <v>512</v>
+      </c>
+      <c r="D18" s="37">
+        <f>SUM(D8:D17)</f>
         <v>800</v>
       </c>
-      <c r="E19" s="36">
-        <f>SUM(E9:E18)</f>
-        <v>18.75</v>
-      </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="65"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="28" t="s">
+      <c r="E18" s="36">
+        <f>SUM(E8:E17)</f>
+        <v>23</v>
+      </c>
+      <c r="F18" s="80"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="64"/>
+    </row>
+    <row r="19" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="28" t="s">
         <v>89</v>
       </c>
     </row>
+    <row r="20" spans="1:10" ht="8.4" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B21" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="74"/>
+      <c r="H21" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B22" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="74"/>
+      <c r="H22" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+    </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B23" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="62"/>
-      <c r="H23" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B24" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="62"/>
-      <c r="H24" s="62" t="s">
+      <c r="B23" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
+      <c r="C23" s="74"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B25" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="62"/>
+      <c r="A25" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="85"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="21">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:J4"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="G9:G18"/>
-    <mergeCell ref="H9:H18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="J9:J18"/>
-    <mergeCell ref="I9:I18"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G8:G17"/>
+    <mergeCell ref="H8:H17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="J8:J17"/>
+    <mergeCell ref="I8:I17"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
-  <conditionalFormatting sqref="E9:E17">
+  <conditionalFormatting sqref="E8:E16">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F17">
+  <conditionalFormatting sqref="F8:F16">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G18">
+  <conditionalFormatting sqref="G8:G17">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H18">
+  <conditionalFormatting sqref="H8:H17">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I18">
+  <conditionalFormatting sqref="I8:I17">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
+  <conditionalFormatting sqref="J8">
     <cfRule type="cellIs" dxfId="1" priority="6" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K5">
+  <conditionalFormatting sqref="K1:K4">
     <cfRule type="cellIs" dxfId="0" priority="21" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.31496062992125984" bottom="0.31496062992125984" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A993F1-4A73-4C39-BA73-DB5BB7FE9B71}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -8777,43 +8843,43 @@
     </row>
     <row r="5" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="77" t="str" cm="1">
+      <c r="B6" s="78"/>
+      <c r="C6" s="79" t="str" cm="1">
         <f t="array" ref="C6">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47, Datasheet!AA7:AA47=""))</f>
         <v>1, 4, 5, 8, 9, 11, 40</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78">
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="77">
         <f>IF(C6="", 0, LEN(C6) - LEN(SUBSTITUTE(C6, ",", "")) + 1)</f>
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="79"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="78"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="77"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="80" t="str" cm="1">
+      <c r="B8" s="78"/>
+      <c r="C8" s="76" t="str" cm="1">
         <f t="array" ref="C8">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47,
   ( (Datasheet!F7:F47=0) +
     (Datasheet!J7:J47=0) +
@@ -8825,35 +8891,35 @@
 ))</f>
         <v>2, 3, 12, 18</v>
       </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="78">
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="77">
         <f>IF(C8="", 0, LEN(C8) - LEN(SUBSTITUTE(C8, ",", "")) + 1)</f>
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="79"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="78"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="81" t="s">
+      <c r="A9" s="78"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="80" t="str" cm="1">
+      <c r="B10" s="78"/>
+      <c r="C10" s="76" t="str" cm="1">
         <f t="array" ref="C10">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47,
   ( (Datasheet!F7:F47=0) +
     (Datasheet!J7:J47=0) +
@@ -8865,72 +8931,36 @@
 ))</f>
         <v>14, 15, 16, 28</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="78">
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77">
         <f>IF(C10="", 0, LEN(C10) - LEN(SUBSTITUTE(C10, ",", "")) + 1)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="81"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="78"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="81"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="78"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="81"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="78"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="81"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="78"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="81" t="s">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="77"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81" t="str" cm="1">
-        <f t="array" ref="C15">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47,
+      <c r="B12" s="75"/>
+      <c r="C12" s="83" t="str" cm="1">
+        <f t="array" ref="C12">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47,
   ( (Datasheet!F7:F47=0) +
     (Datasheet!J7:J47=0) +
     (Datasheet!L7:L47=0) +
@@ -8941,76 +8971,67 @@
 ))</f>
         <v>6, 7, 10, 13, 17, 19, 20, 21, 22, 23, 24, 25, 26, 27, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 41</v>
       </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="78">
-        <f>IF(C15="", 0, LEN(C15) - LEN(SUBSTITUTE(C15, ",", "")) + 1)</f>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="77">
+        <f>IF(C12="", 0, LEN(C12) - LEN(SUBSTITUTE(C12, ",", "")) + 1)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="81"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="78"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="81"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="78"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="78"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="81"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="78"/>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="75"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="77"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="84"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="82"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="84"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="82"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J10:J14"/>
-    <mergeCell ref="J15:J19"/>
-    <mergeCell ref="C10:I14"/>
-    <mergeCell ref="C15:I19"/>
-    <mergeCell ref="A10:B14"/>
-    <mergeCell ref="A15:B19"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
@@ -9018,6 +9039,15 @@
     <mergeCell ref="C6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="C10:I11"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:I13"/>
+    <mergeCell ref="J12:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/result calculation sheet.xlsx
+++ b/result calculation sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdous\Documents\GitHub\result_calculation_excel_sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3A8F4E-B2E7-4D18-9A9C-C2FD5071743B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EF493D-86CA-4795-8A9A-FB972488EC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{86089DA0-2BA1-4133-B16D-0F30CFEF8E2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{86089DA0-2BA1-4133-B16D-0F30CFEF8E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasheet" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
   <si>
     <t>সুমাইয়া খাতুন</t>
   </si>
@@ -366,10 +366,7 @@
     <t>সকল বিষয়ে কৃতকার্য</t>
   </si>
   <si>
-    <t>অভিভাবকের স্বাক্ষর:</t>
-  </si>
-  <si>
-    <t>জমার শেষ তারিখ: ০১/০৮/২০২৫</t>
+    <t>অভিভাবকের স্বাক্ষর</t>
   </si>
 </sst>
 </file>
@@ -450,7 +447,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -565,6 +562,15 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -720,6 +726,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -737,6 +753,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -765,23 +790,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -789,25 +802,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1622,9 +1628,9 @@
   </sheetPr>
   <dimension ref="A1:AP63"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB8" sqref="AB8"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.21875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1657,40 +1663,40 @@
     <col min="28" max="28" width="13.33203125" style="4" customWidth="1"/>
     <col min="29" max="29" width="13.33203125" style="22" customWidth="1"/>
     <col min="30" max="35" width="13.33203125" style="21" customWidth="1"/>
-    <col min="36" max="42" width="21.21875" style="56"/>
+    <col min="36" max="42" width="21.21875" style="60"/>
     <col min="43" max="16384" width="21.21875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="23.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
       <c r="AB1" s="17"/>
       <c r="AD1" s="17"/>
       <c r="AE1" s="17"/>
@@ -1700,35 +1706,35 @@
       <c r="AI1" s="17"/>
     </row>
     <row r="2" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
       <c r="AB2" s="16"/>
       <c r="AD2" s="16"/>
       <c r="AE2" s="16"/>
@@ -1738,35 +1744,35 @@
       <c r="AI2" s="16"/>
     </row>
     <row r="3" spans="1:42" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
       <c r="AB3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="16"/>
@@ -1776,35 +1782,35 @@
       <c r="AI3" s="16"/>
     </row>
     <row r="4" spans="1:42" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
       <c r="AB4" s="16"/>
       <c r="AD4" s="16"/>
       <c r="AE4" s="16"/>
@@ -1903,19 +1909,19 @@
       <c r="AG5" s="20"/>
       <c r="AH5" s="20"/>
       <c r="AI5" s="20"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="56"/>
+      <c r="AJ5" s="60"/>
+      <c r="AK5" s="60"/>
+      <c r="AL5" s="60"/>
+      <c r="AM5" s="60"/>
+      <c r="AN5" s="60"/>
+      <c r="AO5" s="60"/>
+      <c r="AP5" s="60"/>
     </row>
     <row r="6" spans="1:42" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="13">
         <v>100</v>
       </c>
@@ -1994,9 +2000,9 @@
        IF(_xlpm.x&lt;80, 4,
        IF(_xlpm.x&lt;=100, 5, 5))))))),
    _xlpm.adjusted, _xlpm.g - 2,
-   IF(_xlpm.adjusted&lt;=0, 0, _xlpm.adjusted/2)
+   IF(_xlpm.adjusted&lt;=0, 0, _xlpm.adjusted)
  ))</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="W6" s="6">
         <f>SUM(E6,I6,K6,M6,O6,Q6,S6,U6)</f>
@@ -2004,7 +2010,7 @@
       </c>
       <c r="X6" s="6">
         <f>SUM(F6,J6,L6,N6,P6,R6,T6,V6)</f>
-        <v>34</v>
+        <v>35.5</v>
       </c>
       <c r="Y6" s="24">
         <f>IF(MIN(F6,J6,L6,N6,P6,R6,T6)&lt;1, 0, MAX(0, MIN(5, X6/6.5)))</f>
@@ -2015,15 +2021,15 @@
       <c r="AB6" s="22"/>
       <c r="AC6" s="22">
         <f>IF(MIN(F6,J6,L6,N6,P6,R6,T6)&lt;1, 0, MAX(0, X6/6.5))</f>
-        <v>5.2307692307692308</v>
-      </c>
-      <c r="AJ6" s="56"/>
-      <c r="AK6" s="56"/>
-      <c r="AL6" s="56"/>
-      <c r="AM6" s="56"/>
-      <c r="AN6" s="56"/>
-      <c r="AO6" s="56"/>
-      <c r="AP6" s="56"/>
+        <v>5.4615384615384617</v>
+      </c>
+      <c r="AJ6" s="60"/>
+      <c r="AK6" s="60"/>
+      <c r="AL6" s="60"/>
+      <c r="AM6" s="60"/>
+      <c r="AN6" s="60"/>
+      <c r="AO6" s="60"/>
+      <c r="AP6" s="60"/>
     </row>
     <row r="7" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
@@ -2111,9 +2117,9 @@
        IF(_xlpm.x&lt;80, 4,
        IF(_xlpm.x&lt;=100, 5, 5))))))),
    _xlpm.adjusted, _xlpm.g - 2,
-   IF(_xlpm.adjusted&lt;=0, 0, _xlpm.adjusted/2)
+   IF(_xlpm.adjusted&lt;=0, 0, _xlpm.adjusted)
  ))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W7" s="6">
         <f t="shared" ref="W7:W61" si="10">SUM(E7,I7,K7,M7,O7,Q7,S7,U7)</f>
@@ -2121,15 +2127,15 @@
       </c>
       <c r="X7" s="6">
         <f t="shared" ref="X7:X61" si="11">SUM(F7,J7,L7,N7,P7,R7,T7,V7)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y7" s="24">
         <f t="shared" ref="Y7:Y61" si="12">IF(MIN(F7,J7,L7,N7,P7,R7,T7)&lt;1, 0, MAX(0, MIN(5, X7/6.5)))</f>
-        <v>3.5384615384615383</v>
+        <v>3.6923076923076925</v>
       </c>
       <c r="Z7" s="6">
         <f t="shared" ref="Z7:Z43" si="13">IF(AA7&lt;&gt;"", "", RANK(AC7, $AC$7:$AC$61, 0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="6" t="str">
         <f>IF(SUM((F7=0)+(J7=0)+(L7=0)+(N7=0)+(P7=0)+(R7=0)+(T7=0))=0, "", "অকৃতকার্য বিষয়: " &amp; SUM((F7=0)+(J7=0)+(L7=0)+(N7=0)+(P7=0)+(R7=0)+(T7=0)))</f>
@@ -2138,7 +2144,7 @@
       <c r="AB7" s="22"/>
       <c r="AC7" s="22">
         <f t="shared" ref="AC7:AC61" si="14">IF(MIN(F7,J7,L7,N7,P7,R7,T7)&lt;1, 0, MAX(0, X7/6.5))</f>
-        <v>3.5384615384615383</v>
+        <v>3.6923076923076925</v>
       </c>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
@@ -2333,7 +2339,7 @@
       </c>
       <c r="V9" s="26">
         <f t="shared" si="9"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W9" s="6">
         <f t="shared" si="10"/>
@@ -2341,7 +2347,7 @@
       </c>
       <c r="X9" s="6">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y9" s="24">
         <f t="shared" si="12"/>
@@ -2443,7 +2449,7 @@
       </c>
       <c r="V10" s="26">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="W10" s="6">
         <f t="shared" si="10"/>
@@ -2451,11 +2457,11 @@
       </c>
       <c r="X10" s="6">
         <f t="shared" si="11"/>
-        <v>18.75</v>
+        <v>19.5</v>
       </c>
       <c r="Y10" s="24">
         <f t="shared" si="12"/>
-        <v>2.8846153846153846</v>
+        <v>3</v>
       </c>
       <c r="Z10" s="6">
         <f t="shared" si="13"/>
@@ -2468,7 +2474,7 @@
       <c r="AB10" s="22"/>
       <c r="AC10" s="22">
         <f t="shared" si="14"/>
-        <v>2.8846153846153846</v>
+        <v>3</v>
       </c>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
@@ -2553,7 +2559,7 @@
       </c>
       <c r="V11" s="26">
         <f t="shared" si="9"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W11" s="6">
         <f t="shared" si="10"/>
@@ -2561,11 +2567,11 @@
       </c>
       <c r="X11" s="6">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y11" s="24">
         <f t="shared" si="12"/>
-        <v>2.6153846153846154</v>
+        <v>2.6923076923076925</v>
       </c>
       <c r="Z11" s="6">
         <f t="shared" si="13"/>
@@ -2578,7 +2584,7 @@
       <c r="AB11" s="22"/>
       <c r="AC11" s="22">
         <f t="shared" si="14"/>
-        <v>2.6153846153846154</v>
+        <v>2.6923076923076925</v>
       </c>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
@@ -2993,7 +2999,7 @@
       </c>
       <c r="V15" s="26">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="W15" s="6">
         <f t="shared" si="10"/>
@@ -3001,11 +3007,11 @@
       </c>
       <c r="X15" s="6">
         <f t="shared" si="11"/>
-        <v>16.25</v>
+        <v>17</v>
       </c>
       <c r="Y15" s="24">
         <f t="shared" si="12"/>
-        <v>2.5</v>
+        <v>2.6153846153846154</v>
       </c>
       <c r="Z15" s="6">
         <f t="shared" si="13"/>
@@ -3018,7 +3024,7 @@
       <c r="AB15" s="22"/>
       <c r="AC15" s="22">
         <f t="shared" si="14"/>
-        <v>2.5</v>
+        <v>2.6153846153846154</v>
       </c>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
@@ -3213,7 +3219,7 @@
       </c>
       <c r="V17" s="26">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" si="10"/>
@@ -3221,11 +3227,11 @@
       </c>
       <c r="X17" s="6">
         <f t="shared" si="11"/>
-        <v>15.25</v>
+        <v>16</v>
       </c>
       <c r="Y17" s="24">
         <f t="shared" si="12"/>
-        <v>2.3461538461538463</v>
+        <v>2.4615384615384617</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" si="13"/>
@@ -3238,7 +3244,7 @@
       <c r="AB17" s="22"/>
       <c r="AC17" s="22">
         <f t="shared" si="14"/>
-        <v>2.3461538461538463</v>
+        <v>2.4615384615384617</v>
       </c>
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
@@ -3543,7 +3549,7 @@
       </c>
       <c r="V20" s="26">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="W20" s="6">
         <f t="shared" si="10"/>
@@ -3551,7 +3557,7 @@
       </c>
       <c r="X20" s="6">
         <f t="shared" si="11"/>
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="Y20" s="24">
         <f t="shared" si="12"/>
@@ -6180,19 +6186,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="26">
-        <f>IF(OR(U44="", NOT(ISNUMBER(U44))), "",
- _xlfn.LET(
-   _xlpm.x, U44*2,
-   _xlpm.g, IF(_xlpm.x&lt;33, 0,
-       IF(_xlpm.x&lt;40, 1,
-       IF(_xlpm.x&lt;50, 2,
-       IF(_xlpm.x&lt;60, 3,
-       IF(_xlpm.x&lt;70, 3.5,
-       IF(_xlpm.x&lt;80, 4,
-       IF(_xlpm.x&lt;=100, 5, 5))))))),
-   _xlpm.adjusted, _xlpm.g - 2,
-   IF(_xlpm.adjusted&lt;=0, 0, _xlpm.adjusted/2)
- ))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W44" s="6">
@@ -6413,7 +6407,7 @@
       </c>
       <c r="V46" s="26">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="W46" s="6">
         <f t="shared" si="10"/>
@@ -6421,15 +6415,14 @@
       </c>
       <c r="X46" s="6">
         <f t="shared" si="11"/>
-        <v>23.25</v>
+        <v>24</v>
       </c>
       <c r="Y46" s="24">
         <f t="shared" si="12"/>
-        <v>3.5769230769230771</v>
+        <v>3.6923076923076925</v>
       </c>
       <c r="Z46" s="6">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA46" s="6" t="str">
         <f t="shared" si="16"/>
@@ -6438,7 +6431,7 @@
       <c r="AB46" s="22"/>
       <c r="AC46" s="22">
         <f t="shared" si="14"/>
-        <v>3.5769230769230771</v>
+        <v>3.6923076923076925</v>
       </c>
       <c r="AD46" s="7"/>
       <c r="AE46" s="7"/>
@@ -6447,7 +6440,7 @@
       <c r="AH46" s="7"/>
       <c r="AI46" s="7"/>
     </row>
-    <row r="47" spans="1:35" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:35" ht="56.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="10">
         <f t="shared" si="15"/>
         <v>41</v>
@@ -7735,7 +7728,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8183,8 +8176,8 @@
   </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -8199,85 +8192,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
       <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
       <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
       <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
       <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="65">
-        <v>1</v>
-      </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="72">
+        <v>41</v>
+      </c>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="66" t="str">
+      <c r="G5" s="73" t="str">
         <f>IFERROR(VLOOKUP(B5, Datasheet!A7:AA61, 2, FALSE), "Not found")</f>
-        <v>সুমাইয়া খাতুন</v>
-      </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
+        <v>আয়শা আক্তার লতা</v>
+      </c>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" s="29"/>
@@ -8329,16 +8322,16 @@
       </c>
       <c r="C8" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 3, FALSE), "Not found")</f>
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D8" s="31">
         <v>100</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="67">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 6, FALSE), "Not found")</f>
-        <v>4</v>
-      </c>
-      <c r="F8" s="71" t="str">
+        <v>0</v>
+      </c>
+      <c r="F8" s="67" t="str">
         <f>IF(OR(E8="",NOT(ISNUMBER(E8))),"",
 IF(E8&lt;1,"Fail",
 IF(E8&lt;2,"D",
@@ -8346,13 +8339,13 @@
 IF(E8&lt;3.5,"B",
 IF(E8&lt;5,"A-",
 "A+"))))))</f>
-        <v>A-</v>
-      </c>
-      <c r="G8" s="67">
+        <v>Fail</v>
+      </c>
+      <c r="G8" s="74">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 25, FALSE), "Not found")</f>
-        <v>3.5384615384615383</v>
-      </c>
-      <c r="H8" s="68" t="str">
+        <v>0</v>
+      </c>
+      <c r="H8" s="75" t="str">
         <f>IF(OR(G8="",NOT(ISNUMBER(G8))),"",
 IF(G8&lt;1,"Fail",
 IF(G8&lt;2,"D",
@@ -8360,15 +8353,15 @@
 IF(G8&lt;3.5,"B",
 IF(G8&lt;4,"A-",
 IF(G8&lt;5,"A","A+")))))))</f>
-        <v>A-</v>
-      </c>
-      <c r="I8" s="71">
+        <v>Fail</v>
+      </c>
+      <c r="I8" s="67" t="str">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 26, FALSE), "Not found")</f>
-        <v>2</v>
-      </c>
-      <c r="J8" s="70" t="str">
+        <v/>
+      </c>
+      <c r="J8" s="77" t="str">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 27, FALSE), "Not found")</f>
-        <v/>
+        <v>অকৃতকার্য বিষয়: 7</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
@@ -8380,17 +8373,17 @@
       </c>
       <c r="C9" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 4, FALSE), "Not found")</f>
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D9" s="31">
         <v>50</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="70"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="77"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="31">
@@ -8401,16 +8394,16 @@
       </c>
       <c r="C10" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 7, FALSE), "Not found")</f>
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D10" s="31">
         <v>100</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="67">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 10, FALSE), "Not found")</f>
-        <v>2</v>
-      </c>
-      <c r="F10" s="71" t="str">
+        <v>0</v>
+      </c>
+      <c r="F10" s="67" t="str">
         <f>IF(OR(E10="",NOT(ISNUMBER(E10))),"",
 IF(E10&lt;1,"Fail",
 IF(E10&lt;2,"D",
@@ -8418,12 +8411,12 @@
 IF(E10&lt;3.5,"B",
 IF(E10&lt;5,"A-",
 "A+"))))))</f>
-        <v>C</v>
-      </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="70"/>
+        <v>Fail</v>
+      </c>
+      <c r="G10" s="74"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="77"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="31">
@@ -8434,17 +8427,17 @@
       </c>
       <c r="C11" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 8, FALSE), "Not found")</f>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D11" s="31">
         <v>50</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="70"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="77"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="32">
@@ -8455,14 +8448,14 @@
       </c>
       <c r="C12" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 11, FALSE), "Not found")</f>
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D12" s="31">
         <v>100</v>
       </c>
       <c r="E12" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 12, FALSE), "Not found")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12" s="34" t="str">
         <f>IF(OR(E12="",NOT(ISNUMBER(E12))),"",
@@ -8472,12 +8465,12 @@
 IF(E12&lt;3.5,"B",
 IF(E12&lt;5,"A-",
 "A+"))))))</f>
-        <v>B</v>
-      </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="70"/>
+        <v>Fail</v>
+      </c>
+      <c r="G12" s="74"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="32">
@@ -8488,14 +8481,14 @@
       </c>
       <c r="C13" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 13, FALSE), "Not found")</f>
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D13" s="31">
         <v>100</v>
       </c>
       <c r="E13" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 14, FALSE), "Not found")</f>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F13" s="34" t="str">
         <f>IF(OR(E13="",NOT(ISNUMBER(E13))),"",
@@ -8505,12 +8498,12 @@
 IF(E13&lt;3.5,"B",
 IF(E13&lt;5,"A-",
 "A+"))))))</f>
-        <v>A-</v>
-      </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="70"/>
+        <v>Fail</v>
+      </c>
+      <c r="G13" s="74"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="77"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="32">
@@ -8521,14 +8514,14 @@
       </c>
       <c r="C14" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 15, FALSE), "Not found")</f>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D14" s="31">
         <v>50</v>
       </c>
       <c r="E14" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 16, FALSE), "Not found")</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F14" s="34" t="str">
         <f>IF(OR(E14="",NOT(ISNUMBER(E14))),"",
@@ -8538,12 +8531,12 @@
 IF(E14&lt;3.5,"B",
 IF(E14&lt;5,"A-",
 "A+"))))))</f>
-        <v>C</v>
-      </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="70"/>
+        <v>Fail</v>
+      </c>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="77"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="32">
@@ -8554,14 +8547,14 @@
       </c>
       <c r="C15" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 17, FALSE), "Not found")</f>
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="D15" s="31">
         <v>100</v>
       </c>
       <c r="E15" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 18, FALSE), "Not found")</f>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F15" s="34" t="str">
         <f>IF(OR(E15="",NOT(ISNUMBER(E15))),"",
@@ -8571,12 +8564,12 @@
 IF(E15&lt;3.5,"B",
 IF(E15&lt;5,"A-",
 "A+"))))))</f>
-        <v>A-</v>
-      </c>
-      <c r="G15" s="67"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="70"/>
+        <v>Fail</v>
+      </c>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="77"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="32">
@@ -8587,14 +8580,14 @@
       </c>
       <c r="C16" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 19, FALSE), "Not found")</f>
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="D16" s="31">
         <v>100</v>
       </c>
       <c r="E16" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 20, FALSE), "Not found")</f>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F16" s="34" t="str">
         <f>IF(OR(E16="",NOT(ISNUMBER(E16))),"",
@@ -8604,12 +8597,12 @@
 IF(E16&lt;3.5,"B",
 IF(E16&lt;5,"A-",
 "A+"))))))</f>
-        <v>A-</v>
-      </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="70"/>
+        <v>Fail</v>
+      </c>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="77"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="32">
@@ -8620,32 +8613,32 @@
       </c>
       <c r="C17" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 21, FALSE), "Not found")</f>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D17" s="31">
         <v>50</v>
       </c>
       <c r="E17" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 22, FALSE), "Not found")</f>
-        <v>1</v>
-      </c>
-      <c r="F17" s="81" t="str">
+        <v>0</v>
+      </c>
+      <c r="F17" s="34">
         <f>IF(C17&gt;=40, "A+", IF(C17&gt;=35, "A", IF(O30&gt;=34, 1.75, IF(O30&gt;=30, 1.5, IF(O30&gt;=25, 1, IF(O30&gt;=20, 0.5, 0))))))</f>
-        <v>A</v>
-      </c>
-      <c r="G17" s="67"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="70"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="77"/>
     </row>
     <row r="18" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="69"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="35">
         <f>SUM(C8:C17)</f>
-        <v>512</v>
+        <v>164</v>
       </c>
       <c r="D18" s="37">
         <f>SUM(D8:D17)</f>
@@ -8653,13 +8646,13 @@
       </c>
       <c r="E18" s="36">
         <f>SUM(E8:E17)</f>
-        <v>23</v>
-      </c>
-      <c r="F18" s="80"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="56"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="71"/>
     </row>
     <row r="19" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="28" t="s">
@@ -8668,51 +8661,43 @@
     </row>
     <row r="20" spans="1:10" ht="8.4" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="74"/>
-      <c r="H21" s="74" t="s">
+      <c r="C21" s="66"/>
+      <c r="H21" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="74"/>
-      <c r="H22" s="74" t="s">
+      <c r="C22" s="66"/>
+      <c r="H22" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="74"/>
+      <c r="C23" s="66"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="28" t="s">
+      <c r="E25" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="H25" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="I25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="I25" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
+  <mergeCells count="22">
+    <mergeCell ref="E25:F25"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
@@ -8727,6 +8712,13 @@
     <mergeCell ref="I8:I17"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <conditionalFormatting sqref="E8:E16">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
@@ -8765,7 +8757,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.31496062992125984" bottom="0.31496062992125984" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -8775,7 +8767,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -8786,67 +8778,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
     </row>
     <row r="5" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="78"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="79" t="str" cm="1">
         <f t="array" ref="C6">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47, Datasheet!AA7:AA47=""))</f>
         <v>1, 4, 5, 8, 9, 11, 40</v>
@@ -8857,14 +8849,14 @@
       <c r="G6" s="79"/>
       <c r="H6" s="79"/>
       <c r="I6" s="79"/>
-      <c r="J6" s="77">
+      <c r="J6" s="80">
         <f>IF(C6="", 0, LEN(C6) - LEN(SUBSTITUTE(C6, ",", "")) + 1)</f>
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="79"/>
       <c r="D7" s="79"/>
       <c r="E7" s="79"/>
@@ -8872,14 +8864,14 @@
       <c r="G7" s="79"/>
       <c r="H7" s="79"/>
       <c r="I7" s="79"/>
-      <c r="J7" s="77"/>
+      <c r="J7" s="80"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="76" t="str" cm="1">
+      <c r="B8" s="81"/>
+      <c r="C8" s="82" t="str" cm="1">
         <f t="array" ref="C8">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47,
   ( (Datasheet!F7:F47=0) +
     (Datasheet!J7:J47=0) +
@@ -8891,35 +8883,35 @@
 ))</f>
         <v>2, 3, 12, 18</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77">
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="80">
         <f>IF(C8="", 0, LEN(C8) - LEN(SUBSTITUTE(C8, ",", "")) + 1)</f>
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="78"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="80"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="76" t="str" cm="1">
+      <c r="B10" s="81"/>
+      <c r="C10" s="82" t="str" cm="1">
         <f t="array" ref="C10">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47,
   ( (Datasheet!F7:F47=0) +
     (Datasheet!J7:J47=0) +
@@ -8931,35 +8923,35 @@
 ))</f>
         <v>14, 15, 16, 28</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="77">
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="80">
         <f>IF(C10="", 0, LEN(C10) - LEN(SUBSTITUTE(C10, ",", "")) + 1)</f>
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="77"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="80"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="83" t="str" cm="1">
+      <c r="B12" s="83"/>
+      <c r="C12" s="84" t="str" cm="1">
         <f t="array" ref="C12">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47,
   ( (Datasheet!F7:F47=0) +
     (Datasheet!J7:J47=0) +
@@ -8971,67 +8963,76 @@
 ))</f>
         <v>6, 7, 10, 13, 17, 19, 20, 21, 22, 23, 24, 25, 26, 27, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 41</v>
       </c>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="77">
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="80">
         <f>IF(C12="", 0, LEN(C12) - LEN(SUBSTITUTE(C12, ",", "")) + 1)</f>
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="75"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="77"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="80"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="84"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="58"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="84"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="84"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="C10:I11"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="J10:J11"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
@@ -9039,15 +9040,6 @@
     <mergeCell ref="C6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="C10:I11"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:I13"/>
-    <mergeCell ref="J12:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/result calculation sheet.xlsx
+++ b/result calculation sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdous\Documents\GitHub\result_calculation_excel_sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EF493D-86CA-4795-8A9A-FB972488EC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9D779B-133D-4481-ACBC-F3262CCDB0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{86089DA0-2BA1-4133-B16D-0F30CFEF8E2B}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Top_sheet" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Datasheet!$A$1:$AA$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Datasheet!$A$1:$AA$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Progress_report!$A:$J</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A:$AC</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Datasheet!$1:$6</definedName>
@@ -754,14 +754,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -790,10 +784,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -805,14 +811,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1629,8 +1629,8 @@
   <dimension ref="A1:AP63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48:XFD48"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.21875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -6440,7 +6440,7 @@
       <c r="AH46" s="7"/>
       <c r="AI46" s="7"/>
     </row>
-    <row r="47" spans="1:35" ht="56.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:35" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A47" s="10">
         <f t="shared" si="15"/>
         <v>41</v>
@@ -8255,22 +8255,22 @@
       <c r="A5" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="72">
+      <c r="B5" s="70">
         <v>41</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="73" t="str">
+      <c r="G5" s="71" t="str">
         <f>IFERROR(VLOOKUP(B5, Datasheet!A7:AA61, 2, FALSE), "Not found")</f>
         <v>আয়শা আক্তার লতা</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" s="29"/>
@@ -8327,11 +8327,11 @@
       <c r="D8" s="31">
         <v>100</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8" s="76">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 6, FALSE), "Not found")</f>
         <v>0</v>
       </c>
-      <c r="F8" s="67" t="str">
+      <c r="F8" s="76" t="str">
         <f>IF(OR(E8="",NOT(ISNUMBER(E8))),"",
 IF(E8&lt;1,"Fail",
 IF(E8&lt;2,"D",
@@ -8341,11 +8341,11 @@
 "A+"))))))</f>
         <v>Fail</v>
       </c>
-      <c r="G8" s="74">
+      <c r="G8" s="72">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 25, FALSE), "Not found")</f>
         <v>0</v>
       </c>
-      <c r="H8" s="75" t="str">
+      <c r="H8" s="73" t="str">
         <f>IF(OR(G8="",NOT(ISNUMBER(G8))),"",
 IF(G8&lt;1,"Fail",
 IF(G8&lt;2,"D",
@@ -8355,11 +8355,11 @@
 IF(G8&lt;5,"A","A+")))))))</f>
         <v>Fail</v>
       </c>
-      <c r="I8" s="67" t="str">
+      <c r="I8" s="76" t="str">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 26, FALSE), "Not found")</f>
         <v/>
       </c>
-      <c r="J8" s="77" t="str">
+      <c r="J8" s="75" t="str">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 27, FALSE), "Not found")</f>
         <v>অকৃতকার্য বিষয়: 7</v>
       </c>
@@ -8378,12 +8378,12 @@
       <c r="D9" s="31">
         <v>50</v>
       </c>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="77"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="75"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="31">
@@ -8399,11 +8399,11 @@
       <c r="D10" s="31">
         <v>100</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="76">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 10, FALSE), "Not found")</f>
         <v>0</v>
       </c>
-      <c r="F10" s="67" t="str">
+      <c r="F10" s="76" t="str">
         <f>IF(OR(E10="",NOT(ISNUMBER(E10))),"",
 IF(E10&lt;1,"Fail",
 IF(E10&lt;2,"D",
@@ -8413,10 +8413,10 @@
 "A+"))))))</f>
         <v>Fail</v>
       </c>
-      <c r="G10" s="74"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="77"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="75"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="31">
@@ -8432,12 +8432,12 @@
       <c r="D11" s="31">
         <v>50</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="77"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="75"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="32">
@@ -8467,10 +8467,10 @@
 "A+"))))))</f>
         <v>Fail</v>
       </c>
-      <c r="G12" s="74"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="77"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="75"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="32">
@@ -8500,10 +8500,10 @@
 "A+"))))))</f>
         <v>Fail</v>
       </c>
-      <c r="G13" s="74"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="77"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="75"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="32">
@@ -8533,10 +8533,10 @@
 "A+"))))))</f>
         <v>Fail</v>
       </c>
-      <c r="G14" s="74"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="77"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="75"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="32">
@@ -8566,10 +8566,10 @@
 "A+"))))))</f>
         <v>Fail</v>
       </c>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="77"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="75"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="32">
@@ -8599,10 +8599,10 @@
 "A+"))))))</f>
         <v>Fail</v>
       </c>
-      <c r="G16" s="74"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="77"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="75"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="32">
@@ -8626,16 +8626,16 @@
         <f>IF(C17&gt;=40, "A+", IF(C17&gt;=35, "A", IF(O30&gt;=34, 1.75, IF(O30&gt;=30, 1.5, IF(O30&gt;=25, 1, IF(O30&gt;=20, 0.5, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="G17" s="74"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="77"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="75"/>
     </row>
     <row r="18" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="76"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="35">
         <f>SUM(C8:C17)</f>
         <v>164</v>
@@ -8649,10 +8649,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="56"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="71"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="69"/>
     </row>
     <row r="19" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="28" t="s">
@@ -8661,42 +8661,48 @@
     </row>
     <row r="20" spans="1:10" ht="8.4" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="H21" s="66" t="s">
+      <c r="C21" s="79"/>
+      <c r="H21" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="H22" s="66" t="s">
+      <c r="C22" s="79"/>
+      <c r="H22" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="66"/>
+      <c r="C23" s="79"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="E25" s="85" t="s">
+      <c r="E25" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="85"/>
+      <c r="F25" s="66"/>
       <c r="I25" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -8713,12 +8719,6 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <conditionalFormatting sqref="E8:E16">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
@@ -8835,43 +8835,43 @@
     </row>
     <row r="5" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="79" t="str" cm="1">
+      <c r="B6" s="83"/>
+      <c r="C6" s="85" t="str" cm="1">
         <f t="array" ref="C6">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47, Datasheet!AA7:AA47=""))</f>
         <v>1, 4, 5, 8, 9, 11, 40</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="80">
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="82">
         <f>IF(C6="", 0, LEN(C6) - LEN(SUBSTITUTE(C6, ",", "")) + 1)</f>
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="82"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="82" t="str" cm="1">
+      <c r="B8" s="83"/>
+      <c r="C8" s="84" t="str" cm="1">
         <f t="array" ref="C8">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47,
   ( (Datasheet!F7:F47=0) +
     (Datasheet!J7:J47=0) +
@@ -8883,35 +8883,35 @@
 ))</f>
         <v>2, 3, 12, 18</v>
       </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="80">
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="82">
         <f>IF(C8="", 0, LEN(C8) - LEN(SUBSTITUTE(C8, ",", "")) + 1)</f>
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="80"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="82"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="82" t="str" cm="1">
+      <c r="B10" s="83"/>
+      <c r="C10" s="84" t="str" cm="1">
         <f t="array" ref="C10">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47,
   ( (Datasheet!F7:F47=0) +
     (Datasheet!J7:J47=0) +
@@ -8923,35 +8923,35 @@
 ))</f>
         <v>14, 15, 16, 28</v>
       </c>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="80">
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="82">
         <f>IF(C10="", 0, LEN(C10) - LEN(SUBSTITUTE(C10, ",", "")) + 1)</f>
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="81"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="80"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="82"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="84" t="str" cm="1">
+      <c r="B12" s="80"/>
+      <c r="C12" s="81" t="str" cm="1">
         <f t="array" ref="C12">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47,
   ( (Datasheet!F7:F47=0) +
     (Datasheet!J7:J47=0) +
@@ -8963,28 +8963,28 @@
 ))</f>
         <v>6, 7, 10, 13, 17, 19, 20, 21, 22, 23, 24, 25, 26, 27, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 41</v>
       </c>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="80">
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="82">
         <f>IF(C12="", 0, LEN(C12) - LEN(SUBSTITUTE(C12, ",", "")) + 1)</f>
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="83"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="80"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="82"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="57"/>
@@ -9024,6 +9024,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A6:B7"/>
     <mergeCell ref="A12:B13"/>
     <mergeCell ref="C12:I13"/>
     <mergeCell ref="J12:J13"/>
@@ -9033,13 +9040,6 @@
     <mergeCell ref="C10:I11"/>
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A6:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/result calculation sheet.xlsx
+++ b/result calculation sheet.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdous\Documents\GitHub\result_calculation_excel_sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9D779B-133D-4481-ACBC-F3262CCDB0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4686A8-2B5B-4F67-8E99-A4D03FDB50D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{86089DA0-2BA1-4133-B16D-0F30CFEF8E2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{86089DA0-2BA1-4133-B16D-0F30CFEF8E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Progress_report" sheetId="2" r:id="rId3"/>
-    <sheet name="Top_sheet" sheetId="4" r:id="rId4"/>
+    <sheet name="Progress_report" sheetId="2" r:id="rId2"/>
+    <sheet name="Top_sheet" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Datasheet!$A$1:$AA$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Progress_report!$A:$J</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A:$AC</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Progress_report!$A:$J</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Top_sheet!$A:$J</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Datasheet!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="123">
   <si>
     <t>সুমাইয়া খাতুন</t>
   </si>
@@ -315,9 +314,6 @@
     <t>মন্তব্য</t>
   </si>
   <si>
-    <t>মোট GPA</t>
-  </si>
-  <si>
     <t>Grade</t>
   </si>
   <si>
@@ -367,6 +363,81 @@
   </si>
   <si>
     <t>অভিভাবকের স্বাক্ষর</t>
+  </si>
+  <si>
+    <t>GPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Sub</t>
+  </si>
+  <si>
+    <t>১ম</t>
+  </si>
+  <si>
+    <t>২য়</t>
+  </si>
+  <si>
+    <t>৩য়</t>
+  </si>
+  <si>
+    <t>4র্থ</t>
+  </si>
+  <si>
+    <t>৫ম</t>
+  </si>
+  <si>
+    <t>৬ষ্ঠ</t>
+  </si>
+  <si>
+    <t>৭ম</t>
+  </si>
+  <si>
+    <t>ক্রমিক নম্বর</t>
+  </si>
+  <si>
+    <t>নাম</t>
+  </si>
+  <si>
+    <t>জিপিএ</t>
+  </si>
+  <si>
+    <t>বাংলা</t>
+  </si>
+  <si>
+    <t>ইংরেজি</t>
+  </si>
+  <si>
+    <t>ইসলাম</t>
+  </si>
+  <si>
+    <t>আইসিটি</t>
+  </si>
+  <si>
+    <t>বাংলা. ও বিশ্ব.</t>
+  </si>
+  <si>
+    <t>পাশ</t>
+  </si>
+  <si>
+    <t>কৃতকার্য</t>
+  </si>
+  <si>
+    <t>অকৃতকার্য</t>
+  </si>
+  <si>
+    <t>অনুপস্থিত</t>
+  </si>
+  <si>
+    <t>ফেল</t>
+  </si>
+  <si>
+    <t>জি. এম. জামাল হোসেন</t>
+  </si>
+  <si>
+    <t>নম্বর (৮০০)</t>
   </si>
 </sst>
 </file>
@@ -577,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
@@ -678,54 +749,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -796,29 +819,45 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -826,156 +865,6 @@
       <fill>
         <patternFill>
           <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1202,6 +1091,1894 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Top_sheet!$R$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>পাশ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="NikoshBAN" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="NikoshBAN" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Top_sheet!$Q$11:$Q$17</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>বাংলা</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ইংরেজি</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>গণিত</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ইসলাম</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>আইসিটি</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>বিজ্ঞান</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>বাংলা. ও বিশ্ব.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Top_sheet!$R$11:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-778A-4B3A-9916-758F9724A378}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Top_sheet!$S$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ফেল</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="NikoshBAN" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="NikoshBAN" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Top_sheet!$Q$11:$Q$17</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>বাংলা</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ইংরেজি</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>গণিত</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ইসলাম</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>আইসিটি</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>বিজ্ঞান</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>বাংলা. ও বিশ্ব.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Top_sheet!$S$11:$S$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-778A-4B3A-9916-758F9724A378}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="803629199"/>
+        <c:axId val="803631599"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="803629199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="NikoshBAN" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="NikoshBAN" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803631599"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="803631599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="NikoshBAN" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="NikoshBAN" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803629199"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="NikoshBAN" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="NikoshBAN" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1050">
+          <a:latin typeface="NikoshBAN" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="NikoshBAN" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="NikoshBAN" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="NikoshBAN" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Top_sheet!$R$4:$R$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>কৃতকার্য</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>অকৃতকার্য</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>অনুপস্থিত</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Top_sheet!$S$4:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>[$-5000445]0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3017-44CE-9454-A29381DADBC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="NikoshBAN" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="NikoshBAN" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="NikoshBAN" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="NikoshBAN" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="255">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1252,6 +3029,83 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2957E23A-C91B-B169-5098-44FBEFE458B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>186690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{462A6F98-641A-A897-2A20-06309A085A51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1628,9 +3482,9 @@
   </sheetPr>
   <dimension ref="A1:AP63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB9" sqref="AB9"/>
+      <selection pane="bottomLeft" sqref="A1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.21875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1663,40 +3517,40 @@
     <col min="28" max="28" width="13.33203125" style="4" customWidth="1"/>
     <col min="29" max="29" width="13.33203125" style="22" customWidth="1"/>
     <col min="30" max="35" width="13.33203125" style="21" customWidth="1"/>
-    <col min="36" max="42" width="21.21875" style="60"/>
+    <col min="36" max="42" width="21.21875" style="44"/>
     <col min="43" max="16384" width="21.21875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="23.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
       <c r="AB1" s="17"/>
       <c r="AD1" s="17"/>
       <c r="AE1" s="17"/>
@@ -1706,35 +3560,35 @@
       <c r="AI1" s="17"/>
     </row>
     <row r="2" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
       <c r="AB2" s="16"/>
       <c r="AD2" s="16"/>
       <c r="AE2" s="16"/>
@@ -1744,35 +3598,35 @@
       <c r="AI2" s="16"/>
     </row>
     <row r="3" spans="1:42" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
       <c r="AB3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="16"/>
@@ -1782,35 +3636,35 @@
       <c r="AI3" s="16"/>
     </row>
     <row r="4" spans="1:42" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
       <c r="AB4" s="16"/>
       <c r="AD4" s="16"/>
       <c r="AE4" s="16"/>
@@ -1909,19 +3763,19 @@
       <c r="AG5" s="20"/>
       <c r="AH5" s="20"/>
       <c r="AI5" s="20"/>
-      <c r="AJ5" s="60"/>
-      <c r="AK5" s="60"/>
-      <c r="AL5" s="60"/>
-      <c r="AM5" s="60"/>
-      <c r="AN5" s="60"/>
-      <c r="AO5" s="60"/>
-      <c r="AP5" s="60"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="44"/>
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="44"/>
+      <c r="AO5" s="44"/>
+      <c r="AP5" s="44"/>
     </row>
     <row r="6" spans="1:42" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="13">
         <v>100</v>
       </c>
@@ -1968,8 +3822,8 @@
         <v>50</v>
       </c>
       <c r="P6" s="24">
-        <f>IF(O6&gt;=40, 2.5, IF(O6&gt;=35, 2, IF(O6&gt;=30, 1.75, IF(O6&gt;=25, 1.5, IF(O6&gt;=20, 1, IF(O6&gt;=16.5, 0.5, 0))))))</f>
-        <v>2.5</v>
+        <f>(IF(O6&gt;=40, 2.5, IF(O6&gt;=35, 2, IF(O6&gt;=30, 1.75, IF(O6&gt;=25, 1.5, IF(O6&gt;=20, 1, IF(O6&gt;=16.5, 0.5, 0)))))))*2</f>
+        <v>5</v>
       </c>
       <c r="Q6" s="6">
         <v>100</v>
@@ -2010,26 +3864,26 @@
       </c>
       <c r="X6" s="6">
         <f>SUM(F6,J6,L6,N6,P6,R6,T6,V6)</f>
-        <v>35.5</v>
+        <v>38</v>
       </c>
       <c r="Y6" s="24">
-        <f>IF(MIN(F6,J6,L6,N6,P6,R6,T6)&lt;1, 0, MAX(0, MIN(5, X6/6.5)))</f>
+        <f>IF(MIN(F6,J6,L6,N6,P6,R6,T6)&lt;1, 0, MAX(0, MIN(5, X6/7)))</f>
         <v>5</v>
       </c>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="22"/>
       <c r="AC6" s="22">
-        <f>IF(MIN(F6,J6,L6,N6,P6,R6,T6)&lt;1, 0, MAX(0, X6/6.5))</f>
-        <v>5.4615384615384617</v>
-      </c>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="60"/>
-      <c r="AL6" s="60"/>
-      <c r="AM6" s="60"/>
-      <c r="AN6" s="60"/>
-      <c r="AO6" s="60"/>
-      <c r="AP6" s="60"/>
+        <f>IF(MIN(F6,J6,L6,N6,P6,R6,T6)&lt;1, 0, MAX(0, X6/7))</f>
+        <v>5.4285714285714288</v>
+      </c>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="44"/>
+      <c r="AL6" s="44"/>
+      <c r="AM6" s="44"/>
+      <c r="AN6" s="44"/>
+      <c r="AO6" s="44"/>
+      <c r="AP6" s="44"/>
     </row>
     <row r="7" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
@@ -2085,8 +3939,8 @@
         <v>46</v>
       </c>
       <c r="P7" s="24">
-        <f t="shared" ref="P7:P61" si="6">IF(O7&gt;=40, 2.5, IF(O7&gt;=35, 2, IF(O7&gt;=30, 1.75, IF(O7&gt;=25, 1.5, IF(O7&gt;=20, 1, IF(O7&gt;=16.5, 0.5, 0))))))</f>
-        <v>2.5</v>
+        <f t="shared" ref="P7:P61" si="6">(IF(O7&gt;=40, 2.5, IF(O7&gt;=35, 2, IF(O7&gt;=30, 1.75, IF(O7&gt;=25, 1.5, IF(O7&gt;=20, 1, IF(O7&gt;=16.5, 0.5, 0)))))))*2</f>
+        <v>5</v>
       </c>
       <c r="Q7" s="8">
         <v>66</v>
@@ -2127,14 +3981,14 @@
       </c>
       <c r="X7" s="6">
         <f t="shared" ref="X7:X61" si="11">SUM(F7,J7,L7,N7,P7,R7,T7,V7)</f>
-        <v>24</v>
+        <v>26.5</v>
       </c>
       <c r="Y7" s="24">
-        <f t="shared" ref="Y7:Y61" si="12">IF(MIN(F7,J7,L7,N7,P7,R7,T7)&lt;1, 0, MAX(0, MIN(5, X7/6.5)))</f>
-        <v>3.6923076923076925</v>
+        <f t="shared" ref="Y7:Y61" si="12">IF(MIN(F7,J7,L7,N7,P7,R7,T7)&lt;1, 0, MAX(0, MIN(5, X7/7)))</f>
+        <v>3.7857142857142856</v>
       </c>
       <c r="Z7" s="6">
-        <f t="shared" ref="Z7:Z43" si="13">IF(AA7&lt;&gt;"", "", RANK(AC7, $AC$7:$AC$61, 0))</f>
+        <f>IF(AA7&lt;&gt;"", "", RANK(AC7, $AC$7:$AC$61, 0))</f>
         <v>1</v>
       </c>
       <c r="AA7" s="6" t="str">
@@ -2143,8 +3997,8 @@
       </c>
       <c r="AB7" s="22"/>
       <c r="AC7" s="22">
-        <f t="shared" ref="AC7:AC61" si="14">IF(MIN(F7,J7,L7,N7,P7,R7,T7)&lt;1, 0, MAX(0, X7/6.5))</f>
-        <v>3.6923076923076925</v>
+        <f t="shared" ref="AC7:AC61" si="13">IF(MIN(F7,J7,L7,N7,P7,R7,T7)&lt;1, 0, MAX(0, X7/7))</f>
+        <v>3.7857142857142856</v>
       </c>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
@@ -2155,7 +4009,7 @@
     </row>
     <row r="8" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
-        <f t="shared" ref="A8:A61" si="15">ROW()-6</f>
+        <f t="shared" ref="A8:A61" si="14">ROW()-6</f>
         <v>2</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -2208,7 +4062,7 @@
       </c>
       <c r="P8" s="24">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="8">
         <v>70</v>
@@ -2237,14 +4091,14 @@
       </c>
       <c r="X8" s="6">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="Y8" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z8" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="Z7:Z61" si="15">IF(AA8&lt;&gt;"", "", RANK(AC8, $AC$7:$AC$61, 0))</f>
         <v/>
       </c>
       <c r="AA8" s="6" t="str">
@@ -2253,7 +4107,7 @@
       </c>
       <c r="AB8" s="22"/>
       <c r="AC8" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD8" s="7"/>
@@ -2265,7 +4119,7 @@
     </row>
     <row r="9" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -2318,7 +4172,7 @@
       </c>
       <c r="P9" s="24">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q9" s="8">
         <v>50</v>
@@ -2347,14 +4201,14 @@
       </c>
       <c r="X9" s="6">
         <f t="shared" si="11"/>
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="Y9" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z9" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA9" s="6" t="str">
@@ -2363,7 +4217,7 @@
       </c>
       <c r="AB9" s="22"/>
       <c r="AC9" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD9" s="7"/>
@@ -2375,7 +4229,7 @@
     </row>
     <row r="10" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -2428,7 +4282,7 @@
       </c>
       <c r="P10" s="24">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="8">
         <v>56</v>
@@ -2457,14 +4311,14 @@
       </c>
       <c r="X10" s="6">
         <f t="shared" si="11"/>
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Y10" s="24">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>3.1428571428571428</v>
       </c>
       <c r="Z10" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="AA10" s="6" t="str">
@@ -2473,8 +4327,8 @@
       </c>
       <c r="AB10" s="22"/>
       <c r="AC10" s="22">
-        <f t="shared" si="14"/>
-        <v>3</v>
+        <f t="shared" si="13"/>
+        <v>3.1428571428571428</v>
       </c>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
@@ -2485,7 +4339,7 @@
     </row>
     <row r="11" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -2538,7 +4392,7 @@
       </c>
       <c r="P11" s="24">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q11" s="8">
         <v>50</v>
@@ -2567,14 +4421,14 @@
       </c>
       <c r="X11" s="6">
         <f t="shared" si="11"/>
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="Y11" s="24">
         <f t="shared" si="12"/>
-        <v>2.6923076923076925</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="Z11" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AA11" s="6" t="str">
@@ -2583,8 +4437,8 @@
       </c>
       <c r="AB11" s="22"/>
       <c r="AC11" s="22">
-        <f t="shared" si="14"/>
-        <v>2.6923076923076925</v>
+        <f t="shared" si="13"/>
+        <v>2.8571428571428572</v>
       </c>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
@@ -2595,7 +4449,7 @@
     </row>
     <row r="12" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -2684,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA12" s="6" t="str">
@@ -2693,7 +4547,7 @@
       </c>
       <c r="AB12" s="22"/>
       <c r="AC12" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD12" s="7"/>
@@ -2705,7 +4559,7 @@
     </row>
     <row r="13" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -2794,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA13" s="6" t="str">
@@ -2803,7 +4657,7 @@
       </c>
       <c r="AB13" s="22"/>
       <c r="AC13" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD13" s="7"/>
@@ -2815,7 +4669,7 @@
     </row>
     <row r="14" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -2868,7 +4722,7 @@
       </c>
       <c r="P14" s="24">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="8">
         <v>70</v>
@@ -2897,14 +4751,14 @@
       </c>
       <c r="X14" s="6">
         <f t="shared" si="11"/>
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="Y14" s="24">
         <f t="shared" si="12"/>
-        <v>2.8461538461538463</v>
+        <v>3</v>
       </c>
       <c r="Z14" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="AA14" s="6" t="str">
@@ -2913,8 +4767,8 @@
       </c>
       <c r="AB14" s="22"/>
       <c r="AC14" s="22">
-        <f t="shared" si="14"/>
-        <v>2.8461538461538463</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
@@ -2925,7 +4779,7 @@
     </row>
     <row r="15" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -2978,7 +4832,7 @@
       </c>
       <c r="P15" s="24">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q15" s="8">
         <v>50</v>
@@ -3007,14 +4861,14 @@
       </c>
       <c r="X15" s="6">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="Y15" s="24">
         <f t="shared" si="12"/>
-        <v>2.6153846153846154</v>
+        <v>2.7857142857142856</v>
       </c>
       <c r="Z15" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="AA15" s="6" t="str">
@@ -3023,8 +4877,8 @@
       </c>
       <c r="AB15" s="22"/>
       <c r="AC15" s="22">
-        <f t="shared" si="14"/>
-        <v>2.6153846153846154</v>
+        <f t="shared" si="13"/>
+        <v>2.7857142857142856</v>
       </c>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
@@ -3035,7 +4889,7 @@
     </row>
     <row r="16" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -3124,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA16" s="6" t="str">
@@ -3133,7 +4987,7 @@
       </c>
       <c r="AB16" s="22"/>
       <c r="AC16" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD16" s="7"/>
@@ -3145,7 +4999,7 @@
     </row>
     <row r="17" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="B17" s="14" t="s">
@@ -3198,7 +5052,7 @@
       </c>
       <c r="P17" s="24">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q17" s="8">
         <v>44</v>
@@ -3227,14 +5081,14 @@
       </c>
       <c r="X17" s="6">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="Y17" s="24">
         <f t="shared" si="12"/>
-        <v>2.4615384615384617</v>
+        <v>2.6428571428571428</v>
       </c>
       <c r="Z17" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="AA17" s="6" t="str">
@@ -3243,8 +5097,8 @@
       </c>
       <c r="AB17" s="22"/>
       <c r="AC17" s="22">
-        <f t="shared" si="14"/>
-        <v>2.4615384615384617</v>
+        <f t="shared" si="13"/>
+        <v>2.6428571428571428</v>
       </c>
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
@@ -3255,7 +5109,7 @@
     </row>
     <row r="18" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -3344,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="Z18" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA18" s="6" t="str">
@@ -3353,7 +5207,7 @@
       </c>
       <c r="AB18" s="22"/>
       <c r="AC18" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD18" s="7"/>
@@ -3365,7 +5219,7 @@
     </row>
     <row r="19" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="B19" s="14" t="s">
@@ -3418,7 +5272,7 @@
       </c>
       <c r="P19" s="24">
         <f t="shared" si="6"/>
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q19" s="8">
         <v>36</v>
@@ -3447,14 +5301,14 @@
       </c>
       <c r="X19" s="6">
         <f t="shared" si="11"/>
-        <v>6.75</v>
+        <v>8.5</v>
       </c>
       <c r="Y19" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z19" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA19" s="6" t="str">
@@ -3463,7 +5317,7 @@
       </c>
       <c r="AB19" s="22"/>
       <c r="AC19" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD19" s="7"/>
@@ -3475,7 +5329,7 @@
     </row>
     <row r="20" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -3528,7 +5382,7 @@
       </c>
       <c r="P20" s="24">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q20" s="8">
         <v>40</v>
@@ -3557,14 +5411,14 @@
       </c>
       <c r="X20" s="6">
         <f t="shared" si="11"/>
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y20" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z20" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA20" s="6" t="str">
@@ -3573,7 +5427,7 @@
       </c>
       <c r="AB20" s="22"/>
       <c r="AC20" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD20" s="7"/>
@@ -3585,7 +5439,7 @@
     </row>
     <row r="21" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -3638,7 +5492,7 @@
       </c>
       <c r="P21" s="24">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q21" s="8">
         <v>33</v>
@@ -3667,14 +5521,14 @@
       </c>
       <c r="X21" s="6">
         <f t="shared" si="11"/>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="Y21" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z21" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA21" s="6" t="str">
@@ -3683,7 +5537,7 @@
       </c>
       <c r="AB21" s="22"/>
       <c r="AC21" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD21" s="7"/>
@@ -3695,7 +5549,7 @@
     </row>
     <row r="22" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -3748,7 +5602,7 @@
       </c>
       <c r="P22" s="24">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q22" s="8">
         <v>26</v>
@@ -3777,14 +5631,14 @@
       </c>
       <c r="X22" s="6">
         <f t="shared" si="11"/>
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Y22" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z22" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA22" s="6" t="str">
@@ -3793,7 +5647,7 @@
       </c>
       <c r="AB22" s="22"/>
       <c r="AC22" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD22" s="7"/>
@@ -3805,7 +5659,7 @@
     </row>
     <row r="23" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -3858,7 +5712,7 @@
       </c>
       <c r="P23" s="24">
         <f t="shared" si="6"/>
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q23" s="8">
         <v>18</v>
@@ -3887,14 +5741,14 @@
       </c>
       <c r="X23" s="6">
         <f t="shared" si="11"/>
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y23" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z23" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA23" s="6" t="str">
@@ -3903,7 +5757,7 @@
       </c>
       <c r="AB23" s="22"/>
       <c r="AC23" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD23" s="7"/>
@@ -3915,7 +5769,7 @@
     </row>
     <row r="24" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -3968,7 +5822,7 @@
       </c>
       <c r="P24" s="24">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q24" s="8">
         <v>40</v>
@@ -3997,14 +5851,14 @@
       </c>
       <c r="X24" s="6">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y24" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z24" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA24" s="6" t="str">
@@ -4013,7 +5867,7 @@
       </c>
       <c r="AB24" s="22"/>
       <c r="AC24" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD24" s="7"/>
@@ -4025,7 +5879,7 @@
     </row>
     <row r="25" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -4078,7 +5932,7 @@
       </c>
       <c r="P25" s="24">
         <f t="shared" si="6"/>
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q25" s="8">
         <v>10</v>
@@ -4107,14 +5961,14 @@
       </c>
       <c r="X25" s="6">
         <f t="shared" si="11"/>
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y25" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z25" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA25" s="6" t="str">
@@ -4123,7 +5977,7 @@
       </c>
       <c r="AB25" s="22"/>
       <c r="AC25" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD25" s="7"/>
@@ -4135,7 +5989,7 @@
     </row>
     <row r="26" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -4188,7 +6042,7 @@
       </c>
       <c r="P26" s="24">
         <f t="shared" si="6"/>
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q26" s="8">
         <v>21</v>
@@ -4217,14 +6071,14 @@
       </c>
       <c r="X26" s="6">
         <f t="shared" si="11"/>
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Y26" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z26" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA26" s="6" t="str">
@@ -4233,7 +6087,7 @@
       </c>
       <c r="AB26" s="22"/>
       <c r="AC26" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD26" s="7"/>
@@ -4245,7 +6099,7 @@
     </row>
     <row r="27" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="B27" s="14" t="s">
@@ -4298,7 +6152,7 @@
       </c>
       <c r="P27" s="24">
         <f t="shared" si="6"/>
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q27" s="8">
         <v>33</v>
@@ -4327,14 +6181,14 @@
       </c>
       <c r="X27" s="6">
         <f t="shared" si="11"/>
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Y27" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z27" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA27" s="6" t="str">
@@ -4343,7 +6197,7 @@
       </c>
       <c r="AB27" s="22"/>
       <c r="AC27" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD27" s="7"/>
@@ -4355,7 +6209,7 @@
     </row>
     <row r="28" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -4408,7 +6262,7 @@
       </c>
       <c r="P28" s="24">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="Q28" s="8">
         <v>21</v>
@@ -4437,14 +6291,14 @@
       </c>
       <c r="X28" s="6">
         <f t="shared" si="11"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="Y28" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z28" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA28" s="6" t="str">
@@ -4453,7 +6307,7 @@
       </c>
       <c r="AB28" s="22"/>
       <c r="AC28" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD28" s="7"/>
@@ -4465,7 +6319,7 @@
     </row>
     <row r="29" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="B29" s="14" t="s">
@@ -4554,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="Z29" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA29" s="6" t="str">
@@ -4563,7 +6417,7 @@
       </c>
       <c r="AB29" s="22"/>
       <c r="AC29" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD29" s="7"/>
@@ -4575,7 +6429,7 @@
     </row>
     <row r="30" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="B30" s="14" t="s">
@@ -4628,7 +6482,7 @@
       </c>
       <c r="P30" s="24">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q30" s="8">
         <v>38</v>
@@ -4657,14 +6511,14 @@
       </c>
       <c r="X30" s="6">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y30" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z30" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA30" s="6" t="str">
@@ -4673,7 +6527,7 @@
       </c>
       <c r="AB30" s="22"/>
       <c r="AC30" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD30" s="7"/>
@@ -4685,7 +6539,7 @@
     </row>
     <row r="31" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="B31" s="14" t="s">
@@ -4738,7 +6592,7 @@
       </c>
       <c r="P31" s="24">
         <f t="shared" si="6"/>
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q31" s="8">
         <v>14</v>
@@ -4767,14 +6621,14 @@
       </c>
       <c r="X31" s="6">
         <f t="shared" si="11"/>
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y31" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z31" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA31" s="6" t="str">
@@ -4783,7 +6637,7 @@
       </c>
       <c r="AB31" s="22"/>
       <c r="AC31" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD31" s="7"/>
@@ -4795,7 +6649,7 @@
     </row>
     <row r="32" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>26</v>
       </c>
       <c r="B32" s="14" t="s">
@@ -4884,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="Z32" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA32" s="6" t="str">
@@ -4893,7 +6747,7 @@
       </c>
       <c r="AB32" s="22"/>
       <c r="AC32" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD32" s="7"/>
@@ -4905,7 +6759,7 @@
     </row>
     <row r="33" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>27</v>
       </c>
       <c r="B33" s="14" t="s">
@@ -4994,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="Z33" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA33" s="6" t="str">
@@ -5003,7 +6857,7 @@
       </c>
       <c r="AB33" s="22"/>
       <c r="AC33" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD33" s="7"/>
@@ -5015,7 +6869,7 @@
     </row>
     <row r="34" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="B34" s="14" t="s">
@@ -5068,7 +6922,7 @@
       </c>
       <c r="P34" s="24">
         <f t="shared" si="6"/>
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q34" s="8">
         <v>37</v>
@@ -5097,14 +6951,14 @@
       </c>
       <c r="X34" s="6">
         <f t="shared" si="11"/>
-        <v>6.75</v>
+        <v>8.5</v>
       </c>
       <c r="Y34" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z34" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA34" s="6" t="str">
@@ -5113,7 +6967,7 @@
       </c>
       <c r="AB34" s="22"/>
       <c r="AC34" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD34" s="7"/>
@@ -5125,7 +6979,7 @@
     </row>
     <row r="35" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>29</v>
       </c>
       <c r="B35" s="14" t="s">
@@ -5178,7 +7032,7 @@
       </c>
       <c r="P35" s="24">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="Q35" s="8">
         <v>18</v>
@@ -5207,14 +7061,14 @@
       </c>
       <c r="X35" s="6">
         <f t="shared" si="11"/>
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Y35" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z35" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA35" s="6" t="str">
@@ -5223,7 +7077,7 @@
       </c>
       <c r="AB35" s="22"/>
       <c r="AC35" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD35" s="7"/>
@@ -5235,7 +7089,7 @@
     </row>
     <row r="36" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="B36" s="14" t="s">
@@ -5288,7 +7142,7 @@
       </c>
       <c r="P36" s="24">
         <f t="shared" si="6"/>
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q36" s="8">
         <v>28</v>
@@ -5317,14 +7171,14 @@
       </c>
       <c r="X36" s="6">
         <f t="shared" si="11"/>
-        <v>6.75</v>
+        <v>8.5</v>
       </c>
       <c r="Y36" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z36" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA36" s="6" t="str">
@@ -5333,7 +7187,7 @@
       </c>
       <c r="AB36" s="22"/>
       <c r="AC36" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD36" s="7"/>
@@ -5345,7 +7199,7 @@
     </row>
     <row r="37" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>31</v>
       </c>
       <c r="B37" s="14" t="s">
@@ -5434,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="Z37" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA37" s="6" t="str">
@@ -5443,7 +7297,7 @@
       </c>
       <c r="AB37" s="22"/>
       <c r="AC37" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD37" s="7"/>
@@ -5455,7 +7309,7 @@
     </row>
     <row r="38" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
       <c r="B38" s="14" t="s">
@@ -5508,7 +7362,7 @@
       </c>
       <c r="P38" s="24">
         <f t="shared" si="6"/>
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q38" s="8">
         <v>15</v>
@@ -5537,14 +7391,14 @@
       </c>
       <c r="X38" s="6">
         <f t="shared" si="11"/>
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y38" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z38" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA38" s="6" t="str">
@@ -5553,7 +7407,7 @@
       </c>
       <c r="AB38" s="22"/>
       <c r="AC38" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD38" s="7"/>
@@ -5565,7 +7419,7 @@
     </row>
     <row r="39" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>33</v>
       </c>
       <c r="B39" s="14" t="s">
@@ -5654,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="Z39" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA39" s="6" t="str">
@@ -5663,7 +7517,7 @@
       </c>
       <c r="AB39" s="22"/>
       <c r="AC39" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD39" s="7"/>
@@ -5675,7 +7529,7 @@
     </row>
     <row r="40" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>34</v>
       </c>
       <c r="B40" s="14" t="s">
@@ -5764,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="Z40" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA40" s="6" t="str">
@@ -5773,7 +7627,7 @@
       </c>
       <c r="AB40" s="22"/>
       <c r="AC40" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD40" s="7"/>
@@ -5785,7 +7639,7 @@
     </row>
     <row r="41" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>35</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -5874,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="Z41" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA41" s="6" t="str">
@@ -5883,7 +7737,7 @@
       </c>
       <c r="AB41" s="22"/>
       <c r="AC41" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD41" s="7"/>
@@ -5895,7 +7749,7 @@
     </row>
     <row r="42" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>36</v>
       </c>
       <c r="B42" s="14" t="s">
@@ -5984,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="Z42" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA42" s="6" t="str">
@@ -5993,7 +7847,7 @@
       </c>
       <c r="AB42" s="22"/>
       <c r="AC42" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD42" s="7"/>
@@ -6005,7 +7859,7 @@
     </row>
     <row r="43" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
       <c r="B43" s="14" t="s">
@@ -6094,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="Z43" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA43" s="6" t="str">
@@ -6103,7 +7957,7 @@
       </c>
       <c r="AB43" s="22"/>
       <c r="AC43" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD43" s="7"/>
@@ -6115,7 +7969,7 @@
     </row>
     <row r="44" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>38</v>
       </c>
       <c r="B44" s="14"/>
@@ -6202,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="Z44" s="6" t="str">
-        <f t="shared" ref="Z44" si="17">IF(AA44&lt;&gt;"", "", RANK(AC44, $AC$7:$AC$61, 0))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA44" s="6" t="str">
@@ -6211,7 +8065,7 @@
       </c>
       <c r="AB44" s="22"/>
       <c r="AC44" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD44" s="7"/>
@@ -6223,7 +8077,7 @@
     </row>
     <row r="45" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>39</v>
       </c>
       <c r="B45" s="14" t="s">
@@ -6312,7 +8166,7 @@
         <v>0</v>
       </c>
       <c r="Z45" s="6" t="str">
-        <f t="shared" ref="Z45:Z61" si="18">IF(AA45&lt;&gt;"", "", RANK(AC45, $AC$7:$AC$61, 0))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA45" s="6" t="str">
@@ -6321,7 +8175,7 @@
       </c>
       <c r="AB45" s="22"/>
       <c r="AC45" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD45" s="7"/>
@@ -6333,7 +8187,7 @@
     </row>
     <row r="46" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
       <c r="B46" s="14" t="s">
@@ -6386,7 +8240,7 @@
       </c>
       <c r="P46" s="24">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q46" s="8">
         <v>57</v>
@@ -6415,11 +8269,11 @@
       </c>
       <c r="X46" s="6">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>26.5</v>
       </c>
       <c r="Y46" s="24">
         <f t="shared" si="12"/>
-        <v>3.6923076923076925</v>
+        <v>3.7857142857142856</v>
       </c>
       <c r="Z46" s="6">
         <v>2</v>
@@ -6430,8 +8284,8 @@
       </c>
       <c r="AB46" s="22"/>
       <c r="AC46" s="22">
-        <f t="shared" si="14"/>
-        <v>3.6923076923076925</v>
+        <f t="shared" si="13"/>
+        <v>3.7857142857142856</v>
       </c>
       <c r="AD46" s="7"/>
       <c r="AE46" s="7"/>
@@ -6442,7 +8296,7 @@
     </row>
     <row r="47" spans="1:35" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A47" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>41</v>
       </c>
       <c r="B47" s="15" t="s">
@@ -6531,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA47" s="6" t="str">
@@ -6540,7 +8394,7 @@
       </c>
       <c r="AB47" s="22"/>
       <c r="AC47" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD47" s="7"/>
@@ -6552,7 +8406,7 @@
     </row>
     <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>42</v>
       </c>
       <c r="E48" s="6">
@@ -6608,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="Z48" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA48" s="6" t="str">
@@ -6617,7 +8471,7 @@
       </c>
       <c r="AB48" s="22"/>
       <c r="AC48" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD48" s="7"/>
@@ -6629,7 +8483,7 @@
     </row>
     <row r="49" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43</v>
       </c>
       <c r="E49" s="6">
@@ -6685,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="Z49" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA49" s="6" t="str">
@@ -6694,7 +8548,7 @@
       </c>
       <c r="AB49" s="22"/>
       <c r="AC49" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD49" s="7"/>
@@ -6706,7 +8560,7 @@
     </row>
     <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>44</v>
       </c>
       <c r="E50" s="6">
@@ -6762,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="Z50" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA50" s="6" t="str">
@@ -6771,7 +8625,7 @@
       </c>
       <c r="AB50" s="22"/>
       <c r="AC50" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD50" s="7"/>
@@ -6783,7 +8637,7 @@
     </row>
     <row r="51" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>45</v>
       </c>
       <c r="E51" s="6">
@@ -6839,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="Z51" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA51" s="6" t="str">
@@ -6848,7 +8702,7 @@
       </c>
       <c r="AB51" s="22"/>
       <c r="AC51" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD51" s="7"/>
@@ -6860,7 +8714,7 @@
     </row>
     <row r="52" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>46</v>
       </c>
       <c r="E52" s="6">
@@ -6916,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="Z52" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA52" s="6" t="str">
@@ -6925,7 +8779,7 @@
       </c>
       <c r="AB52" s="22"/>
       <c r="AC52" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD52" s="7"/>
@@ -6937,7 +8791,7 @@
     </row>
     <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>47</v>
       </c>
       <c r="E53" s="6">
@@ -6993,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="Z53" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA53" s="6" t="str">
@@ -7002,7 +8856,7 @@
       </c>
       <c r="AB53" s="22"/>
       <c r="AC53" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD53" s="7"/>
@@ -7014,7 +8868,7 @@
     </row>
     <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>48</v>
       </c>
       <c r="E54" s="6">
@@ -7070,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="Z54" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA54" s="6" t="str">
@@ -7079,7 +8933,7 @@
       </c>
       <c r="AB54" s="22"/>
       <c r="AC54" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD54" s="7"/>
@@ -7091,7 +8945,7 @@
     </row>
     <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="E55" s="6">
@@ -7147,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="Z55" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA55" s="6" t="str">
@@ -7156,7 +9010,7 @@
       </c>
       <c r="AB55" s="22"/>
       <c r="AC55" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD55" s="7"/>
@@ -7168,7 +9022,7 @@
     </row>
     <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="E56" s="6">
@@ -7224,7 +9078,7 @@
         <v>0</v>
       </c>
       <c r="Z56" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA56" s="6" t="str">
@@ -7233,7 +9087,7 @@
       </c>
       <c r="AB56" s="22"/>
       <c r="AC56" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD56" s="7"/>
@@ -7245,7 +9099,7 @@
     </row>
     <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>51</v>
       </c>
       <c r="E57" s="6">
@@ -7301,7 +9155,7 @@
         <v>0</v>
       </c>
       <c r="Z57" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA57" s="6" t="str">
@@ -7310,7 +9164,7 @@
       </c>
       <c r="AB57" s="22"/>
       <c r="AC57" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD57" s="7"/>
@@ -7322,7 +9176,7 @@
     </row>
     <row r="58" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>52</v>
       </c>
       <c r="E58" s="6">
@@ -7378,7 +9232,7 @@
         <v>0</v>
       </c>
       <c r="Z58" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA58" s="6" t="str">
@@ -7387,7 +9241,7 @@
       </c>
       <c r="AB58" s="22"/>
       <c r="AC58" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD58" s="7"/>
@@ -7399,7 +9253,7 @@
     </row>
     <row r="59" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>53</v>
       </c>
       <c r="E59" s="6">
@@ -7455,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="Z59" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA59" s="6" t="str">
@@ -7464,7 +9318,7 @@
       </c>
       <c r="AB59" s="22"/>
       <c r="AC59" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD59" s="7"/>
@@ -7476,7 +9330,7 @@
     </row>
     <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>54</v>
       </c>
       <c r="E60" s="6">
@@ -7532,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="Z60" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA60" s="6" t="str">
@@ -7541,7 +9395,7 @@
       </c>
       <c r="AB60" s="22"/>
       <c r="AC60" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD60" s="7"/>
@@ -7553,7 +9407,7 @@
     </row>
     <row r="61" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>55</v>
       </c>
       <c r="E61" s="6">
@@ -7609,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="Z61" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA61" s="6" t="str">
@@ -7618,7 +9472,7 @@
       </c>
       <c r="AB61" s="22"/>
       <c r="AC61" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD61" s="7"/>
@@ -7652,77 +9506,77 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="35" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="33" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
       <formula>33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="31" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="lessThan">
       <formula>33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
       <formula>17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="27" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
       <formula>33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AI1 AA2:AB1048576 AD2:AI1048576">
-    <cfRule type="cellIs" dxfId="22" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7733,443 +9587,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A81ABB-B8C2-497D-BE5A-1E98B7CBB0B4}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AP3"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="29" width="8.88671875" style="55"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:42" s="5" customFormat="1" ht="67.8" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="U1" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="V1" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="W1" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="X1" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y1" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z1" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA1" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1"/>
-      <c r="AK1"/>
-      <c r="AL1"/>
-      <c r="AM1"/>
-      <c r="AN1"/>
-      <c r="AO1"/>
-      <c r="AP1"/>
-    </row>
-    <row r="2" spans="1:42" s="4" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.35">
-      <c r="A2" s="47">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="48">
-        <v>70</v>
-      </c>
-      <c r="D2" s="49">
-        <v>38</v>
-      </c>
-      <c r="E2" s="50">
-        <f t="shared" ref="E2:E3" si="0">D2+C2</f>
-        <v>108</v>
-      </c>
-      <c r="F2" s="51">
-        <f t="shared" ref="F2:F3" si="1">IF(E2&lt;50,0,IF(E2&lt;60,1,IF(E2&lt;75,2,IF(E2&lt;90,3,IF(E2&lt;105,3.5,IF(E2&lt;120,4,5))))))</f>
-        <v>4</v>
-      </c>
-      <c r="G2" s="52">
-        <v>60</v>
-      </c>
-      <c r="H2" s="49">
-        <v>13</v>
-      </c>
-      <c r="I2" s="50">
-        <f t="shared" ref="I2:I3" si="2">G2+H2</f>
-        <v>73</v>
-      </c>
-      <c r="J2" s="51">
-        <f t="shared" ref="J2:J3" si="3">IF(I2&lt;50,0,IF(I2&lt;60,1,IF(I2&lt;75,2,IF(I2&lt;90,3,IF(I2&lt;105,3.5,IF(I2&lt;120,4,5))))))</f>
-        <v>2</v>
-      </c>
-      <c r="K2" s="49">
-        <v>57</v>
-      </c>
-      <c r="L2" s="51">
-        <f t="shared" ref="L2:L3" si="4">IF(K2&lt;33,0,IF(K2&lt;40,1,IF(K2&lt;50,2,IF(K2&lt;60,3,IF(K2&lt;70,3.5,IF(K2&lt;80,4,5))))))</f>
-        <v>3</v>
-      </c>
-      <c r="M2" s="49">
-        <v>60</v>
-      </c>
-      <c r="N2" s="51">
-        <f t="shared" ref="N2:N3" si="5">IF(M2&lt;33,0,IF(M2&lt;40,1,IF(M2&lt;50,2,IF(M2&lt;60,3,IF(M2&lt;70,3.5,IF(M2&lt;80,4,5))))))</f>
-        <v>3.5</v>
-      </c>
-      <c r="O2" s="49">
-        <v>46</v>
-      </c>
-      <c r="P2" s="51">
-        <f t="shared" ref="P2:P3" si="6">IF(O2&gt;=40, 2.5, IF(O2&gt;=35, 2, IF(O2&gt;=34, 1.75, IF(O2&gt;=30, 1.5, IF(O2&gt;=25, 1, IF(O2&gt;=20, 0.5, 0))))))</f>
-        <v>2.5</v>
-      </c>
-      <c r="Q2" s="49">
-        <v>66</v>
-      </c>
-      <c r="R2" s="51">
-        <f t="shared" ref="R2:R3" si="7">IF(Q2&lt;33,0,IF(Q2&lt;40,1,IF(Q2&lt;50,2,IF(Q2&lt;60,3,IF(Q2&lt;70,3.5,IF(Q2&lt;80,4,5))))))</f>
-        <v>3.5</v>
-      </c>
-      <c r="S2" s="49">
-        <v>66</v>
-      </c>
-      <c r="T2" s="51">
-        <f t="shared" ref="T2:T3" si="8">IF(S2&lt;33,0,IF(S2&lt;40,1,IF(S2&lt;50,2,IF(S2&lt;60,3,IF(S2&lt;70,3.5,IF(S2&lt;80,4,5))))))</f>
-        <v>3.5</v>
-      </c>
-      <c r="U2" s="49">
-        <v>36</v>
-      </c>
-      <c r="V2" s="53">
-        <f t="shared" ref="V2:V3" si="9">IF(OR(U2="", NOT(ISNUMBER(U2))), "",
- _xlfn.LET(
-   _xlpm.x, U2*2,
-   _xlpm.g, IF(_xlpm.x&lt;33, 0,
-       IF(_xlpm.x&lt;40, 1,
-       IF(_xlpm.x&lt;50, 2,
-       IF(_xlpm.x&lt;60, 3,
-       IF(_xlpm.x&lt;70, 3.5,
-       IF(_xlpm.x&lt;80, 4,
-       IF(_xlpm.x&lt;=100, 5, 5))))))),
-   _xlpm.adjusted, _xlpm.g - 2,
-   IF(_xlpm.adjusted&lt;=0, 0, _xlpm.adjusted/2)
- ))</f>
-        <v>1</v>
-      </c>
-      <c r="W2" s="50">
-        <f t="shared" ref="W2:X3" si="10">SUM(E2,I2,K2,M2,O2,Q2,S2,U2)</f>
-        <v>512</v>
-      </c>
-      <c r="X2" s="50">
-        <f t="shared" si="10"/>
-        <v>23</v>
-      </c>
-      <c r="Y2" s="51">
-        <f t="shared" ref="Y2:Y3" si="11">IF(MIN(F2,J2,L2,N2,P2,R2,T2)&lt;1, 0, MAX(0, MIN(5, X2/6.5)))</f>
-        <v>3.5384615384615383</v>
-      </c>
-      <c r="Z2" s="50">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="50" t="str">
-        <f>IF(SUM((F2=0)+(J2=0)+(L2=0)+(N2=0)+(P2=0)+(R2=0)+(T2=0))=0, "", "অকৃতকার্য বিষয়: " &amp; SUM((F2=0)+(J2=0)+(L2=0)+(N2=0)+(P2=0)+(R2=0)+(T2=0)))</f>
-        <v/>
-      </c>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54">
-        <f t="shared" ref="AC2:AC3" si="12">IF(MIN(F2,J2,L2,N2,P2,R2,T2)&lt;1, 0, MAX(0, X2/6.5))</f>
-        <v>3.5384615384615383</v>
-      </c>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2"/>
-      <c r="AK2"/>
-      <c r="AL2"/>
-      <c r="AM2"/>
-      <c r="AN2"/>
-      <c r="AO2"/>
-      <c r="AP2"/>
-    </row>
-    <row r="3" spans="1:42" s="4" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.35">
-      <c r="A3" s="47">
-        <v>40</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="48">
-        <v>65</v>
-      </c>
-      <c r="D3" s="49">
-        <v>40</v>
-      </c>
-      <c r="E3" s="50">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="F3" s="51">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G3" s="49">
-        <v>46</v>
-      </c>
-      <c r="H3" s="49">
-        <v>48</v>
-      </c>
-      <c r="I3" s="50">
-        <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-      <c r="J3" s="51">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="K3" s="49">
-        <v>34</v>
-      </c>
-      <c r="L3" s="51">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M3" s="49">
-        <v>65</v>
-      </c>
-      <c r="N3" s="51">
-        <f t="shared" si="5"/>
-        <v>3.5</v>
-      </c>
-      <c r="O3" s="49">
-        <v>43</v>
-      </c>
-      <c r="P3" s="51">
-        <f t="shared" si="6"/>
-        <v>2.5</v>
-      </c>
-      <c r="Q3" s="49">
-        <v>57</v>
-      </c>
-      <c r="R3" s="51">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="S3" s="49">
-        <v>80</v>
-      </c>
-      <c r="T3" s="51">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="U3" s="49">
-        <v>31</v>
-      </c>
-      <c r="V3" s="53">
-        <f t="shared" si="9"/>
-        <v>0.75</v>
-      </c>
-      <c r="W3" s="50">
-        <f t="shared" si="10"/>
-        <v>509</v>
-      </c>
-      <c r="X3" s="50">
-        <f t="shared" si="10"/>
-        <v>23.25</v>
-      </c>
-      <c r="Y3" s="51">
-        <f t="shared" si="11"/>
-        <v>3.5769230769230771</v>
-      </c>
-      <c r="Z3" s="50">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="50" t="str">
-        <f t="shared" ref="AA3" si="13">IF(SUM((F3=0)+(J3=0)+(L3=0)+(N3=0)+(P3=0)+(R3=0)+(T3=0))=0, "", "অকৃতকার্য বিষয়: " &amp; SUM((F3=0)+(J3=0)+(L3=0)+(N3=0)+(P3=0)+(R3=0)+(T3=0)))</f>
-        <v/>
-      </c>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54">
-        <f t="shared" si="12"/>
-        <v>3.5769230769230771</v>
-      </c>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3"/>
-      <c r="AK3"/>
-      <c r="AL3"/>
-      <c r="AM3"/>
-      <c r="AN3"/>
-      <c r="AO3"/>
-      <c r="AP3"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="E1:E3">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="lessThan">
-      <formula>50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F3">
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I3">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
-      <formula>50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J3">
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
-      <formula>33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L3">
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M3">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="lessThan">
-      <formula>33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N3">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O3">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
-      <formula>17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P3">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q3">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
-      <formula>33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R3">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S3">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
-      <formula>33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T3">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA1:AB3 AD1:AI3">
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="notEqual">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E17F75-0EB3-4305-B0F1-3B06BCF2004B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -8192,85 +9609,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
       <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
       <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="70">
-        <v>41</v>
-      </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
+      <c r="B5" s="54">
+        <v>1</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="71" t="str">
+      <c r="G5" s="55" t="str">
         <f>IFERROR(VLOOKUP(B5, Datasheet!A7:AA61, 2, FALSE), "Not found")</f>
-        <v>আয়শা আক্তার লতা</v>
-      </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
+        <v>সুমাইয়া খাতুন</v>
+      </c>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" s="29"/>
@@ -8292,7 +9709,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="36" t="s">
         <v>75</v>
@@ -8301,10 +9718,10 @@
         <v>78</v>
       </c>
       <c r="G7" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="36" t="s">
         <v>81</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>82</v>
       </c>
       <c r="I7" s="36" t="s">
         <v>79</v>
@@ -8318,20 +9735,20 @@
         <v>101</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 3, FALSE), "Not found")</f>
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D8" s="31">
         <v>100</v>
       </c>
-      <c r="E8" s="76">
+      <c r="E8" s="60">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 6, FALSE), "Not found")</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="76" t="str">
+        <v>4</v>
+      </c>
+      <c r="F8" s="60" t="str">
         <f>IF(OR(E8="",NOT(ISNUMBER(E8))),"",
 IF(E8&lt;1,"Fail",
 IF(E8&lt;2,"D",
@@ -8339,13 +9756,13 @@
 IF(E8&lt;3.5,"B",
 IF(E8&lt;5,"A-",
 "A+"))))))</f>
-        <v>Fail</v>
-      </c>
-      <c r="G8" s="72">
+        <v>A-</v>
+      </c>
+      <c r="G8" s="56">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 25, FALSE), "Not found")</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="73" t="str">
+        <v>3.7857142857142856</v>
+      </c>
+      <c r="H8" s="57" t="str">
         <f>IF(OR(G8="",NOT(ISNUMBER(G8))),"",
 IF(G8&lt;1,"Fail",
 IF(G8&lt;2,"D",
@@ -8353,15 +9770,15 @@
 IF(G8&lt;3.5,"B",
 IF(G8&lt;4,"A-",
 IF(G8&lt;5,"A","A+")))))))</f>
-        <v>Fail</v>
-      </c>
-      <c r="I8" s="76" t="str">
+        <v>A-</v>
+      </c>
+      <c r="I8" s="60">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 26, FALSE), "Not found")</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="59" t="str">
+        <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 27, FALSE), "Not found")</f>
         <v/>
-      </c>
-      <c r="J8" s="75" t="str">
-        <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 27, FALSE), "Not found")</f>
-        <v>অকৃতকার্য বিষয়: 7</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
@@ -8373,17 +9790,17 @@
       </c>
       <c r="C9" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 4, FALSE), "Not found")</f>
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D9" s="31">
         <v>50</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="75"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="31">
@@ -8394,16 +9811,16 @@
       </c>
       <c r="C10" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 7, FALSE), "Not found")</f>
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D10" s="31">
         <v>100</v>
       </c>
-      <c r="E10" s="76">
+      <c r="E10" s="60">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 10, FALSE), "Not found")</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="76" t="str">
+        <v>2</v>
+      </c>
+      <c r="F10" s="60" t="str">
         <f>IF(OR(E10="",NOT(ISNUMBER(E10))),"",
 IF(E10&lt;1,"Fail",
 IF(E10&lt;2,"D",
@@ -8411,12 +9828,12 @@
 IF(E10&lt;3.5,"B",
 IF(E10&lt;5,"A-",
 "A+"))))))</f>
-        <v>Fail</v>
-      </c>
-      <c r="G10" s="72"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="75"/>
+        <v>C</v>
+      </c>
+      <c r="G10" s="56"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="59"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="31">
@@ -8427,17 +9844,17 @@
       </c>
       <c r="C11" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 8, FALSE), "Not found")</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D11" s="31">
         <v>50</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="75"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="59"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="32">
@@ -8448,14 +9865,14 @@
       </c>
       <c r="C12" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 11, FALSE), "Not found")</f>
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D12" s="31">
         <v>100</v>
       </c>
       <c r="E12" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 12, FALSE), "Not found")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" s="34" t="str">
         <f>IF(OR(E12="",NOT(ISNUMBER(E12))),"",
@@ -8465,30 +9882,30 @@
 IF(E12&lt;3.5,"B",
 IF(E12&lt;5,"A-",
 "A+"))))))</f>
-        <v>Fail</v>
-      </c>
-      <c r="G12" s="72"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="75"/>
+        <v>B</v>
+      </c>
+      <c r="G12" s="56"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="59"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="32">
         <v>111</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 13, FALSE), "Not found")</f>
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D13" s="31">
         <v>100</v>
       </c>
       <c r="E13" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 14, FALSE), "Not found")</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F13" s="34" t="str">
         <f>IF(OR(E13="",NOT(ISNUMBER(E13))),"",
@@ -8498,12 +9915,12 @@
 IF(E13&lt;3.5,"B",
 IF(E13&lt;5,"A-",
 "A+"))))))</f>
-        <v>Fail</v>
-      </c>
-      <c r="G13" s="72"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="75"/>
+        <v>A-</v>
+      </c>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="32">
@@ -8514,14 +9931,14 @@
       </c>
       <c r="C14" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 15, FALSE), "Not found")</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D14" s="31">
         <v>50</v>
       </c>
       <c r="E14" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 16, FALSE), "Not found")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14" s="34" t="str">
         <f>IF(OR(E14="",NOT(ISNUMBER(E14))),"",
@@ -8531,12 +9948,12 @@
 IF(E14&lt;3.5,"B",
 IF(E14&lt;5,"A-",
 "A+"))))))</f>
-        <v>Fail</v>
-      </c>
-      <c r="G14" s="72"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="75"/>
+        <v>A+</v>
+      </c>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="59"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="32">
@@ -8547,14 +9964,14 @@
       </c>
       <c r="C15" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 17, FALSE), "Not found")</f>
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D15" s="31">
         <v>100</v>
       </c>
       <c r="E15" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 18, FALSE), "Not found")</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F15" s="34" t="str">
         <f>IF(OR(E15="",NOT(ISNUMBER(E15))),"",
@@ -8564,30 +9981,30 @@
 IF(E15&lt;3.5,"B",
 IF(E15&lt;5,"A-",
 "A+"))))))</f>
-        <v>Fail</v>
-      </c>
-      <c r="G15" s="72"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="75"/>
+        <v>A-</v>
+      </c>
+      <c r="G15" s="56"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="59"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="32">
         <v>150</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 19, FALSE), "Not found")</f>
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D16" s="31">
         <v>100</v>
       </c>
       <c r="E16" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 20, FALSE), "Not found")</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F16" s="34" t="str">
         <f>IF(OR(E16="",NOT(ISNUMBER(E16))),"",
@@ -8597,48 +10014,48 @@
 IF(E16&lt;3.5,"B",
 IF(E16&lt;5,"A-",
 "A+"))))))</f>
-        <v>Fail</v>
-      </c>
-      <c r="G16" s="72"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="75"/>
+        <v>A-</v>
+      </c>
+      <c r="G16" s="56"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="32">
         <v>134</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 21, FALSE), "Not found")</f>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D17" s="31">
         <v>50</v>
       </c>
       <c r="E17" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 22, FALSE), "Not found")</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="34">
+        <v>2</v>
+      </c>
+      <c r="F17" s="34" t="str">
         <f>IF(C17&gt;=40, "A+", IF(C17&gt;=35, "A", IF(O30&gt;=34, 1.75, IF(O30&gt;=30, 1.5, IF(O30&gt;=25, 1, IF(O30&gt;=20, 0.5, 0))))))</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="72"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="75"/>
+        <v>A</v>
+      </c>
+      <c r="G17" s="56"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="74"/>
+      <c r="A18" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="58"/>
       <c r="C18" s="35">
         <f>SUM(C8:C17)</f>
-        <v>164</v>
+        <v>512</v>
       </c>
       <c r="D18" s="37">
         <f>SUM(D8:D17)</f>
@@ -8646,57 +10063,64 @@
       </c>
       <c r="E18" s="36">
         <f>SUM(E8:E17)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="69"/>
+        <v>26.5</v>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
     </row>
     <row r="19" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="8.4" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="63"/>
+      <c r="H21" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B22" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="63"/>
+      <c r="H22" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="H21" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B22" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="79"/>
-      <c r="H22" s="79" t="s">
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B23" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B23" s="79" t="s">
+      <c r="C23" s="63"/>
+      <c r="H23" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="79"/>
-    </row>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+    </row>
+    <row r="24" spans="1:10" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="E25" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="66"/>
-      <c r="I25" s="59"/>
+      <c r="E25" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="50"/>
+      <c r="I25" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="H23:J23"/>
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
@@ -8762,116 +10186,145 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A993F1-4A73-4C39-BA73-DB5BB7FE9B71}">
-  <dimension ref="A1:J16"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.21875" style="4" customWidth="1"/>
     <col min="2" max="2" width="5.77734375" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="4"/>
+    <col min="3" max="7" width="8.88671875" style="4"/>
+    <col min="8" max="8" width="13.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="4" customWidth="1"/>
+    <col min="10" max="16" width="8.88671875" style="4"/>
+    <col min="17" max="17" width="10.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:20" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-    </row>
-    <row r="2" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A2" s="63" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+    </row>
+    <row r="2" spans="1:20" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A2" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-    </row>
-    <row r="3" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A3" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-    </row>
-    <row r="4" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A4" s="63" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+    </row>
+    <row r="3" spans="1:20" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A3" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:20" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A4" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-    </row>
-    <row r="5" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="85" t="str" cm="1">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="R4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="S4" s="4">
+        <f>J6</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="S5" s="66">
+        <f>SUM(J6:J13)-S6</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="76"/>
+      <c r="C6" s="73" t="str" cm="1">
         <f t="array" ref="C6">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47, Datasheet!AA7:AA47=""))</f>
         <v>1, 4, 5, 8, 9, 11, 40</v>
       </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="82">
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="74">
         <f>IF(C6="", 0, LEN(C6) - LEN(SUBSTITUTE(C6, ",", "")) + 1)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="82"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="83" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="84" t="str" cm="1">
+      <c r="R6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="S6" s="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="74"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="76"/>
+      <c r="C8" s="74" t="str" cm="1">
         <f t="array" ref="C8">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47,
   ( (Datasheet!F7:F47=0) +
     (Datasheet!J7:J47=0) +
@@ -8883,35 +10336,35 @@
 ))</f>
         <v>2, 3, 12, 18</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="82">
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74">
         <f>IF(C8="", 0, LEN(C8) - LEN(SUBSTITUTE(C8, ",", "")) + 1)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="83"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="82"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="84" t="str" cm="1">
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="76"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+    </row>
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="76"/>
+      <c r="C10" s="74" t="str" cm="1">
         <f t="array" ref="C10">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47,
   ( (Datasheet!F7:F47=0) +
     (Datasheet!J7:J47=0) +
@@ -8923,35 +10376,59 @@
 ))</f>
         <v>14, 15, 16, 28</v>
       </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="82">
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74">
         <f>IF(C10="", 0, LEN(C10) - LEN(SUBSTITUTE(C10, ",", "")) + 1)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="83"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="82"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81" t="str" cm="1">
+      <c r="Q10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="76"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="Q11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="R11" s="4">
+        <f>SUM($J$6:$J$13)-S11</f>
+        <v>23</v>
+      </c>
+      <c r="S11" s="64">
+        <f>COUNTIF(Datasheet!$F$6:'Datasheet'!$F$47,0)-4</f>
+        <v>18</v>
+      </c>
+      <c r="T11" s="65">
+        <f>S11+R11</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="77"/>
+      <c r="C12" s="75" t="str" cm="1">
         <f t="array" ref="C12">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47,
   ( (Datasheet!F7:F47=0) +
     (Datasheet!J7:J47=0) +
@@ -8963,67 +10440,425 @@
 ))</f>
         <v>6, 7, 10, 13, 17, 19, 20, 21, 22, 23, 24, 25, 26, 27, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 41</v>
       </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="82">
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="74">
         <f>IF(C12="", 0, LEN(C12) - LEN(SUBSTITUTE(C12, ",", "")) + 1)</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="80"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="58"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="58"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="58"/>
+      <c r="Q12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="R12" s="4">
+        <f>SUM($J$6:$J$13)-S12</f>
+        <v>17</v>
+      </c>
+      <c r="S12" s="64">
+        <f>COUNTIF(Datasheet!$J$6:'Datasheet'!$J$47,0)-4</f>
+        <v>24</v>
+      </c>
+      <c r="T12" s="65">
+        <f>S12+R12</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="74"/>
+      <c r="Q13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R13" s="4">
+        <f>SUM($J$6:$J$13)-S13</f>
+        <v>14</v>
+      </c>
+      <c r="S13" s="64">
+        <f>COUNTIF(Datasheet!$L$6:'Datasheet'!$L$47,0)-4</f>
+        <v>27</v>
+      </c>
+      <c r="T13" s="65">
+        <f>S13+R13</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
+      <c r="P14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="R14" s="4">
+        <f>SUM($J$6:$J$13)-S14</f>
+        <v>22</v>
+      </c>
+      <c r="S14" s="64">
+        <f>COUNTIF(Datasheet!$N$6:'Datasheet'!$N$47,0)-4</f>
+        <v>19</v>
+      </c>
+      <c r="T14" s="65">
+        <f>S14+R14</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="Q15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="R15" s="4">
+        <f>SUM($J$6:$J$13)-S15</f>
+        <v>29</v>
+      </c>
+      <c r="S15" s="64">
+        <f>COUNTIF(Datasheet!$P$6:'Datasheet'!$P$47,0)-4</f>
+        <v>12</v>
+      </c>
+      <c r="T15" s="65">
+        <f>S15+R15</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="42"/>
+      <c r="Q16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R16" s="4">
+        <f>SUM($J$6:$J$13)-S16</f>
+        <v>22</v>
+      </c>
+      <c r="S16" s="64">
+        <f>COUNTIF(Datasheet!$R$6:'Datasheet'!$R$47,0)-4</f>
+        <v>19</v>
+      </c>
+      <c r="T16" s="65">
+        <f>S16+R16</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Q17" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="R17" s="4">
+        <f>SUM($J$6:$J$13)-S17</f>
+        <v>23</v>
+      </c>
+      <c r="S17" s="64">
+        <f>COUNTIF(Datasheet!$T$6:'Datasheet'!$T$47,0)-4</f>
+        <v>18</v>
+      </c>
+      <c r="T17" s="65">
+        <f>S17+R17</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="67" customFormat="1" ht="22.2" x14ac:dyDescent="0.5">
+      <c r="A27" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="67" customFormat="1" ht="22.2" x14ac:dyDescent="0.5">
+      <c r="A28" s="71">
+        <v>1</v>
+      </c>
+      <c r="B28" s="72" t="str">
+        <f>IFERROR(INDEX(Datasheet!$B$7:$B$61, MATCH(1, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>সুমাইয়া খাতুন</v>
+      </c>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="70">
+        <f>IFERROR(INDEX(Datasheet!$Y$7:$Y$61, MATCH(1, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>3.7857142857142856</v>
+      </c>
+      <c r="G28" s="70" t="str">
+        <f>IF(OR(F28="",NOT(ISNUMBER(F28))),"",
+IF(F28&lt;1,"Fail",
+IF(F28&lt;2,"D",
+IF(F28&lt;3,"C",
+IF(F28&lt;3.5,"B",
+IF(F28&lt;4,"A-",
+IF(F28&lt;5,"A","A+")))))))</f>
+        <v>A-</v>
+      </c>
+      <c r="H28" s="70">
+        <f>IFERROR(INDEX(Datasheet!$W$7:$W$61, MATCH(1, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>512</v>
+      </c>
+      <c r="I28" s="70">
+        <f>IFERROR(INDEX(Datasheet!$A$7:$A$61, MATCH(1, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>1</v>
+      </c>
+      <c r="J28" s="70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="67" customFormat="1" ht="22.2" x14ac:dyDescent="0.5">
+      <c r="A29" s="71">
+        <v>2</v>
+      </c>
+      <c r="B29" s="72" t="str">
+        <f>IFERROR(INDEX(Datasheet!$B$7:$B$61, MATCH(2, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>সোহেলী জান্নাত</v>
+      </c>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="70">
+        <f>IFERROR(INDEX(Datasheet!$Y$7:$Y$61, MATCH(2, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>3.7857142857142856</v>
+      </c>
+      <c r="G29" s="70" t="str">
+        <f t="shared" ref="G29:G34" si="0">IF(OR(F29="",NOT(ISNUMBER(F29))),"",
+IF(F29&lt;1,"Fail",
+IF(F29&lt;2,"D",
+IF(F29&lt;3,"C",
+IF(F29&lt;3.5,"B",
+IF(F29&lt;4,"A-",
+IF(F29&lt;5,"A","A+")))))))</f>
+        <v>A-</v>
+      </c>
+      <c r="H29" s="70">
+        <f>IFERROR(INDEX(Datasheet!$W$7:$W$61, MATCH(2, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>509</v>
+      </c>
+      <c r="I29" s="70">
+        <f>IFERROR(INDEX(Datasheet!$A$7:$A$61, MATCH(2, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>40</v>
+      </c>
+      <c r="J29" s="70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="67" customFormat="1" ht="22.2" x14ac:dyDescent="0.5">
+      <c r="A30" s="71">
+        <v>3</v>
+      </c>
+      <c r="B30" s="72" t="str">
+        <f>IFERROR(INDEX(Datasheet!$B$7:$B$61, MATCH(4, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>হাবিবা রহমান</v>
+      </c>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="70">
+        <f>IFERROR(INDEX(Datasheet!$Y$7:$Y$61, MATCH(3, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>3.1428571428571428</v>
+      </c>
+      <c r="G30" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="H30" s="70">
+        <f>IFERROR(INDEX(Datasheet!$W$7:$W$61, MATCH(3, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>446</v>
+      </c>
+      <c r="I30" s="70">
+        <f>IFERROR(INDEX(Datasheet!$A$7:$A$61, MATCH(3, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>4</v>
+      </c>
+      <c r="J30" s="70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="67" customFormat="1" ht="22.2" x14ac:dyDescent="0.5">
+      <c r="A31" s="71">
+        <v>4</v>
+      </c>
+      <c r="B31" s="72" t="str">
+        <f>IFERROR(INDEX(Datasheet!$B$7:$B$61, MATCH(4, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>হাবিবা রহমান</v>
+      </c>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="70">
+        <f>IFERROR(INDEX(Datasheet!$Y$7:$Y$61, MATCH(4, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>3</v>
+      </c>
+      <c r="G31" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="H31" s="70">
+        <f>IFERROR(INDEX(Datasheet!$W$7:$W$61, MATCH(4, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>432</v>
+      </c>
+      <c r="I31" s="70">
+        <f>IFERROR(INDEX(Datasheet!$A$7:$A$61, MATCH(4, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>8</v>
+      </c>
+      <c r="J31" s="70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="67" customFormat="1" ht="22.2" x14ac:dyDescent="0.5">
+      <c r="A32" s="71">
+        <v>5</v>
+      </c>
+      <c r="B32" s="72" t="str">
+        <f>IFERROR(INDEX(Datasheet!$B$7:$B$61, MATCH(5, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>তিশান তাসমিন</v>
+      </c>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="70">
+        <f>IFERROR(INDEX(Datasheet!$Y$7:$Y$61, MATCH(5, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="G32" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="H32" s="70">
+        <f>IFERROR(INDEX(Datasheet!$W$7:$W$61, MATCH(5, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>402</v>
+      </c>
+      <c r="I32" s="70">
+        <f>IFERROR(INDEX(Datasheet!$A$7:$A$61, MATCH(5, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>5</v>
+      </c>
+      <c r="J32" s="70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="67" customFormat="1" ht="22.2" x14ac:dyDescent="0.5">
+      <c r="A33" s="71">
+        <v>6</v>
+      </c>
+      <c r="B33" s="72" t="str">
+        <f>IFERROR(INDEX(Datasheet!$B$7:$B$61, MATCH(6, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>ফারজানা ইসলাম</v>
+      </c>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="70">
+        <f>IFERROR(INDEX(Datasheet!$Y$7:$Y$61, MATCH(6, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>2.7857142857142856</v>
+      </c>
+      <c r="G33" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="H33" s="70">
+        <f>IFERROR(INDEX(Datasheet!$W$7:$W$61, MATCH(6, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>393</v>
+      </c>
+      <c r="I33" s="70">
+        <f>IFERROR(INDEX(Datasheet!$A$7:$A$61, MATCH(6, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>9</v>
+      </c>
+      <c r="J33" s="70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="67" customFormat="1" ht="22.2" x14ac:dyDescent="0.5">
+      <c r="A34" s="71">
+        <v>7</v>
+      </c>
+      <c r="B34" s="72" t="str">
+        <f>IFERROR(INDEX(Datasheet!$B$7:$B$61, MATCH(7, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>মোহনা জামান তিথী</v>
+      </c>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="70">
+        <f>IFERROR(INDEX(Datasheet!$Y$7:$Y$61, MATCH(7, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>2.6428571428571428</v>
+      </c>
+      <c r="G34" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="H34" s="70">
+        <f>IFERROR(INDEX(Datasheet!$W$7:$W$61, MATCH(7, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>375</v>
+      </c>
+      <c r="I34" s="70">
+        <f>IFERROR(INDEX(Datasheet!$A$7:$A$61, MATCH(7, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>11</v>
+      </c>
+      <c r="J34" s="70" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="24">
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
@@ -9042,6 +10877,7 @@
     <mergeCell ref="J10:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/result calculation sheet.xlsx
+++ b/result calculation sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdous\Documents\GitHub\result_calculation_excel_sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4686A8-2B5B-4F67-8E99-A4D03FDB50D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9D4D8E-98BE-4C20-AF0D-12EA1879B066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{86089DA0-2BA1-4133-B16D-0F30CFEF8E2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{86089DA0-2BA1-4133-B16D-0F30CFEF8E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasheet" sheetId="1" r:id="rId1"/>
@@ -759,6 +759,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -775,6 +788,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -816,42 +832,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1225,28 +1225,28 @@
             <c:numRef>
               <c:f>Top_sheet!$R$11:$R$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1459,6 +1459,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="803631599"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1471,7 +1472,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1509,6 +1510,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="803629199"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -1654,6 +1656,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B4E2-4D6C-8E9F-2B1FC1ECA4E9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1690,6 +1697,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B4E2-4D6C-8E9F-2B1FC1ECA4E9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1726,6 +1738,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-B4E2-4D6C-8E9F-2B1FC1ECA4E9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1736,7 +1753,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1752,10 +1771,9 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
-            <c:showCatName val="1"/>
+            <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
@@ -1819,10 +1837,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
@@ -1839,7 +1856,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3484,7 +3501,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:AA1"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.21875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -3510,47 +3527,48 @@
     <col min="20" max="20" width="4.77734375" style="26" customWidth="1"/>
     <col min="21" max="21" width="4.77734375" style="8" customWidth="1"/>
     <col min="22" max="22" width="4.77734375" style="26" customWidth="1"/>
-    <col min="23" max="24" width="4.77734375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="4.77734375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="5.44140625" style="26" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.77734375" style="26" customWidth="1"/>
     <col min="26" max="26" width="4.77734375" style="2" customWidth="1"/>
     <col min="27" max="27" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13.33203125" style="4" customWidth="1"/>
     <col min="29" max="29" width="13.33203125" style="22" customWidth="1"/>
     <col min="30" max="35" width="13.33203125" style="21" customWidth="1"/>
-    <col min="36" max="42" width="21.21875" style="44"/>
+    <col min="36" max="42" width="21.21875" style="51"/>
     <col min="43" max="16384" width="21.21875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="23.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
       <c r="AB1" s="17"/>
       <c r="AD1" s="17"/>
       <c r="AE1" s="17"/>
@@ -3560,35 +3578,35 @@
       <c r="AI1" s="17"/>
     </row>
     <row r="2" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
       <c r="AB2" s="16"/>
       <c r="AD2" s="16"/>
       <c r="AE2" s="16"/>
@@ -3598,35 +3616,35 @@
       <c r="AI2" s="16"/>
     </row>
     <row r="3" spans="1:42" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
       <c r="AB3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="16"/>
@@ -3636,35 +3654,35 @@
       <c r="AI3" s="16"/>
     </row>
     <row r="4" spans="1:42" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
       <c r="AB4" s="16"/>
       <c r="AD4" s="16"/>
       <c r="AE4" s="16"/>
@@ -3743,7 +3761,7 @@
       <c r="W5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="X5" s="25" t="s">
         <v>62</v>
       </c>
       <c r="Y5" s="25" t="s">
@@ -3763,19 +3781,19 @@
       <c r="AG5" s="20"/>
       <c r="AH5" s="20"/>
       <c r="AI5" s="20"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="44"/>
-      <c r="AL5" s="44"/>
-      <c r="AM5" s="44"/>
-      <c r="AN5" s="44"/>
-      <c r="AO5" s="44"/>
-      <c r="AP5" s="44"/>
+      <c r="AJ5" s="51"/>
+      <c r="AK5" s="51"/>
+      <c r="AL5" s="51"/>
+      <c r="AM5" s="51"/>
+      <c r="AN5" s="51"/>
+      <c r="AO5" s="51"/>
+      <c r="AP5" s="51"/>
     </row>
     <row r="6" spans="1:42" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="13">
         <v>100</v>
       </c>
@@ -3862,7 +3880,7 @@
         <f>SUM(E6,I6,K6,M6,O6,Q6,S6,U6)</f>
         <v>800</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="24">
         <f>SUM(F6,J6,L6,N6,P6,R6,T6,V6)</f>
         <v>38</v>
       </c>
@@ -3877,13 +3895,13 @@
         <f>IF(MIN(F6,J6,L6,N6,P6,R6,T6)&lt;1, 0, MAX(0, X6/7))</f>
         <v>5.4285714285714288</v>
       </c>
-      <c r="AJ6" s="44"/>
-      <c r="AK6" s="44"/>
-      <c r="AL6" s="44"/>
-      <c r="AM6" s="44"/>
-      <c r="AN6" s="44"/>
-      <c r="AO6" s="44"/>
-      <c r="AP6" s="44"/>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="51"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="51"/>
+      <c r="AP6" s="51"/>
     </row>
     <row r="7" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
@@ -3979,7 +3997,7 @@
         <f t="shared" ref="W7:W61" si="10">SUM(E7,I7,K7,M7,O7,Q7,S7,U7)</f>
         <v>512</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X7" s="24">
         <f t="shared" ref="X7:X61" si="11">SUM(F7,J7,L7,N7,P7,R7,T7,V7)</f>
         <v>26.5</v>
       </c>
@@ -4089,7 +4107,7 @@
         <f t="shared" si="10"/>
         <v>402</v>
       </c>
-      <c r="X8" s="6">
+      <c r="X8" s="24">
         <f t="shared" si="11"/>
         <v>18.5</v>
       </c>
@@ -4098,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="6" t="str">
-        <f t="shared" ref="Z7:Z61" si="15">IF(AA8&lt;&gt;"", "", RANK(AC8, $AC$7:$AC$61, 0))</f>
+        <f t="shared" ref="Z8:Z61" si="15">IF(AA8&lt;&gt;"", "", RANK(AC8, $AC$7:$AC$61, 0))</f>
         <v/>
       </c>
       <c r="AA8" s="6" t="str">
@@ -4199,7 +4217,7 @@
         <f t="shared" si="10"/>
         <v>367</v>
       </c>
-      <c r="X9" s="6">
+      <c r="X9" s="24">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
@@ -4309,7 +4327,7 @@
         <f t="shared" si="10"/>
         <v>446</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="24">
         <f t="shared" si="11"/>
         <v>22</v>
       </c>
@@ -4419,7 +4437,7 @@
         <f t="shared" si="10"/>
         <v>402</v>
       </c>
-      <c r="X11" s="6">
+      <c r="X11" s="24">
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
@@ -4529,7 +4547,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X12" s="6">
+      <c r="X12" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4639,7 +4657,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X13" s="6">
+      <c r="X13" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4749,7 +4767,7 @@
         <f t="shared" si="10"/>
         <v>432</v>
       </c>
-      <c r="X14" s="6">
+      <c r="X14" s="24">
         <f t="shared" si="11"/>
         <v>21</v>
       </c>
@@ -4859,7 +4877,7 @@
         <f t="shared" si="10"/>
         <v>393</v>
       </c>
-      <c r="X15" s="6">
+      <c r="X15" s="24">
         <f t="shared" si="11"/>
         <v>19.5</v>
       </c>
@@ -4969,7 +4987,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X16" s="6">
+      <c r="X16" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5079,7 +5097,7 @@
         <f t="shared" si="10"/>
         <v>375</v>
       </c>
-      <c r="X17" s="6">
+      <c r="X17" s="24">
         <f t="shared" si="11"/>
         <v>18.5</v>
       </c>
@@ -5189,7 +5207,7 @@
         <f t="shared" si="10"/>
         <v>307</v>
       </c>
-      <c r="X18" s="6">
+      <c r="X18" s="24">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
@@ -5299,7 +5317,7 @@
         <f t="shared" si="10"/>
         <v>289</v>
       </c>
-      <c r="X19" s="6">
+      <c r="X19" s="24">
         <f t="shared" si="11"/>
         <v>8.5</v>
       </c>
@@ -5409,7 +5427,7 @@
         <f t="shared" si="10"/>
         <v>340</v>
       </c>
-      <c r="X20" s="6">
+      <c r="X20" s="24">
         <f t="shared" si="11"/>
         <v>13.5</v>
       </c>
@@ -5519,7 +5537,7 @@
         <f t="shared" si="10"/>
         <v>288</v>
       </c>
-      <c r="X21" s="6">
+      <c r="X21" s="24">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
@@ -5629,7 +5647,7 @@
         <f t="shared" si="10"/>
         <v>322</v>
       </c>
-      <c r="X22" s="6">
+      <c r="X22" s="24">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
@@ -5739,7 +5757,7 @@
         <f t="shared" si="10"/>
         <v>170</v>
       </c>
-      <c r="X23" s="6">
+      <c r="X23" s="24">
         <f t="shared" si="11"/>
         <v>3.5</v>
       </c>
@@ -5849,7 +5867,7 @@
         <f t="shared" si="10"/>
         <v>330</v>
       </c>
-      <c r="X24" s="6">
+      <c r="X24" s="24">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
@@ -5959,7 +5977,7 @@
         <f t="shared" si="10"/>
         <v>195</v>
       </c>
-      <c r="X25" s="6">
+      <c r="X25" s="24">
         <f t="shared" si="11"/>
         <v>3.5</v>
       </c>
@@ -6069,7 +6087,7 @@
         <f t="shared" si="10"/>
         <v>235</v>
       </c>
-      <c r="X26" s="6">
+      <c r="X26" s="24">
         <f t="shared" si="11"/>
         <v>5.5</v>
       </c>
@@ -6179,7 +6197,7 @@
         <f t="shared" si="10"/>
         <v>193</v>
       </c>
-      <c r="X27" s="6">
+      <c r="X27" s="24">
         <f t="shared" si="11"/>
         <v>5.5</v>
       </c>
@@ -6289,7 +6307,7 @@
         <f t="shared" si="10"/>
         <v>171</v>
       </c>
-      <c r="X28" s="6">
+      <c r="X28" s="24">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
@@ -6399,7 +6417,7 @@
         <f t="shared" si="10"/>
         <v>180</v>
       </c>
-      <c r="X29" s="6">
+      <c r="X29" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -6509,7 +6527,7 @@
         <f t="shared" si="10"/>
         <v>271</v>
       </c>
-      <c r="X30" s="6">
+      <c r="X30" s="24">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
@@ -6619,7 +6637,7 @@
         <f t="shared" si="10"/>
         <v>135</v>
       </c>
-      <c r="X31" s="6">
+      <c r="X31" s="24">
         <f t="shared" si="11"/>
         <v>3.5</v>
       </c>
@@ -6729,7 +6747,7 @@
         <f t="shared" si="10"/>
         <v>122</v>
       </c>
-      <c r="X32" s="6">
+      <c r="X32" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -6839,7 +6857,7 @@
         <f t="shared" si="10"/>
         <v>124</v>
       </c>
-      <c r="X33" s="6">
+      <c r="X33" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -6949,7 +6967,7 @@
         <f t="shared" si="10"/>
         <v>273</v>
       </c>
-      <c r="X34" s="6">
+      <c r="X34" s="24">
         <f t="shared" si="11"/>
         <v>8.5</v>
       </c>
@@ -7059,7 +7077,7 @@
         <f t="shared" si="10"/>
         <v>244</v>
       </c>
-      <c r="X35" s="6">
+      <c r="X35" s="24">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
@@ -7169,7 +7187,7 @@
         <f t="shared" si="10"/>
         <v>259</v>
       </c>
-      <c r="X36" s="6">
+      <c r="X36" s="24">
         <f t="shared" si="11"/>
         <v>8.5</v>
       </c>
@@ -7279,7 +7297,7 @@
         <f t="shared" si="10"/>
         <v>124</v>
       </c>
-      <c r="X37" s="6">
+      <c r="X37" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -7389,7 +7407,7 @@
         <f t="shared" si="10"/>
         <v>170</v>
       </c>
-      <c r="X38" s="6">
+      <c r="X38" s="24">
         <f t="shared" si="11"/>
         <v>3.5</v>
       </c>
@@ -7499,7 +7517,7 @@
         <f t="shared" si="10"/>
         <v>83</v>
       </c>
-      <c r="X39" s="6">
+      <c r="X39" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -7609,7 +7627,7 @@
         <f t="shared" si="10"/>
         <v>117</v>
       </c>
-      <c r="X40" s="6">
+      <c r="X40" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -7719,7 +7737,7 @@
         <f t="shared" si="10"/>
         <v>125</v>
       </c>
-      <c r="X41" s="6">
+      <c r="X41" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -7829,7 +7847,7 @@
         <f t="shared" si="10"/>
         <v>125</v>
       </c>
-      <c r="X42" s="6">
+      <c r="X42" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -7939,7 +7957,7 @@
         <f t="shared" si="10"/>
         <v>123</v>
       </c>
-      <c r="X43" s="6">
+      <c r="X43" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -8047,7 +8065,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X44" s="6">
+      <c r="X44" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -8157,7 +8175,7 @@
         <f t="shared" si="10"/>
         <v>222</v>
       </c>
-      <c r="X45" s="6">
+      <c r="X45" s="24">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
@@ -8267,7 +8285,7 @@
         <f t="shared" si="10"/>
         <v>509</v>
       </c>
-      <c r="X46" s="6">
+      <c r="X46" s="24">
         <f t="shared" si="11"/>
         <v>26.5</v>
       </c>
@@ -8376,7 +8394,7 @@
         <f t="shared" si="10"/>
         <v>164</v>
       </c>
-      <c r="X47" s="6">
+      <c r="X47" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -8453,7 +8471,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X48" s="6">
+      <c r="X48" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -8530,7 +8548,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X49" s="6">
+      <c r="X49" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -8607,7 +8625,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X50" s="6">
+      <c r="X50" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -8684,7 +8702,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X51" s="6">
+      <c r="X51" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -8761,7 +8779,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X52" s="6">
+      <c r="X52" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -8838,7 +8856,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X53" s="6">
+      <c r="X53" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -8915,7 +8933,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X54" s="6">
+      <c r="X54" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -8992,7 +9010,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X55" s="6">
+      <c r="X55" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -9069,7 +9087,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X56" s="6">
+      <c r="X56" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -9146,7 +9164,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X57" s="6">
+      <c r="X57" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -9223,7 +9241,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X58" s="6">
+      <c r="X58" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -9300,7 +9318,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X59" s="6">
+      <c r="X59" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -9377,7 +9395,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X60" s="6">
+      <c r="X60" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -9454,7 +9472,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X61" s="6">
+      <c r="X61" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -9593,7 +9611,7 @@
   </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -9609,85 +9627,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
       <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
       <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
       <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
       <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="54">
-        <v>1</v>
-      </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
+      <c r="B5" s="62">
+        <v>41</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="55" t="str">
+      <c r="G5" s="63" t="str">
         <f>IFERROR(VLOOKUP(B5, Datasheet!A7:AA61, 2, FALSE), "Not found")</f>
-        <v>সুমাইয়া খাতুন</v>
-      </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
+        <v>আয়শা আক্তার লতা</v>
+      </c>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" s="29"/>
@@ -9739,16 +9757,16 @@
       </c>
       <c r="C8" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 3, FALSE), "Not found")</f>
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D8" s="31">
         <v>100</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="68">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 6, FALSE), "Not found")</f>
-        <v>4</v>
-      </c>
-      <c r="F8" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="F8" s="68" t="str">
         <f>IF(OR(E8="",NOT(ISNUMBER(E8))),"",
 IF(E8&lt;1,"Fail",
 IF(E8&lt;2,"D",
@@ -9756,13 +9774,13 @@
 IF(E8&lt;3.5,"B",
 IF(E8&lt;5,"A-",
 "A+"))))))</f>
-        <v>A-</v>
-      </c>
-      <c r="G8" s="56">
+        <v>Fail</v>
+      </c>
+      <c r="G8" s="64">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 25, FALSE), "Not found")</f>
-        <v>3.7857142857142856</v>
-      </c>
-      <c r="H8" s="57" t="str">
+        <v>0</v>
+      </c>
+      <c r="H8" s="65" t="str">
         <f>IF(OR(G8="",NOT(ISNUMBER(G8))),"",
 IF(G8&lt;1,"Fail",
 IF(G8&lt;2,"D",
@@ -9770,15 +9788,15 @@
 IF(G8&lt;3.5,"B",
 IF(G8&lt;4,"A-",
 IF(G8&lt;5,"A","A+")))))))</f>
-        <v>A-</v>
-      </c>
-      <c r="I8" s="60">
+        <v>Fail</v>
+      </c>
+      <c r="I8" s="68" t="str">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 26, FALSE), "Not found")</f>
-        <v>1</v>
-      </c>
-      <c r="J8" s="59" t="str">
+        <v/>
+      </c>
+      <c r="J8" s="67" t="str">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 27, FALSE), "Not found")</f>
-        <v/>
+        <v>অকৃতকার্য বিষয়: 7</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
@@ -9790,17 +9808,17 @@
       </c>
       <c r="C9" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 4, FALSE), "Not found")</f>
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D9" s="31">
         <v>50</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="59"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="67"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="31">
@@ -9811,16 +9829,16 @@
       </c>
       <c r="C10" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 7, FALSE), "Not found")</f>
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D10" s="31">
         <v>100</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="68">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 10, FALSE), "Not found")</f>
-        <v>2</v>
-      </c>
-      <c r="F10" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="F10" s="68" t="str">
         <f>IF(OR(E10="",NOT(ISNUMBER(E10))),"",
 IF(E10&lt;1,"Fail",
 IF(E10&lt;2,"D",
@@ -9828,12 +9846,12 @@
 IF(E10&lt;3.5,"B",
 IF(E10&lt;5,"A-",
 "A+"))))))</f>
-        <v>C</v>
-      </c>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="59"/>
+        <v>Fail</v>
+      </c>
+      <c r="G10" s="64"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="67"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="31">
@@ -9844,17 +9862,17 @@
       </c>
       <c r="C11" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 8, FALSE), "Not found")</f>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D11" s="31">
         <v>50</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="59"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="67"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="32">
@@ -9865,14 +9883,14 @@
       </c>
       <c r="C12" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 11, FALSE), "Not found")</f>
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D12" s="31">
         <v>100</v>
       </c>
       <c r="E12" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 12, FALSE), "Not found")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12" s="34" t="str">
         <f>IF(OR(E12="",NOT(ISNUMBER(E12))),"",
@@ -9882,12 +9900,12 @@
 IF(E12&lt;3.5,"B",
 IF(E12&lt;5,"A-",
 "A+"))))))</f>
-        <v>B</v>
-      </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="59"/>
+        <v>Fail</v>
+      </c>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="67"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="32">
@@ -9898,14 +9916,14 @@
       </c>
       <c r="C13" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 13, FALSE), "Not found")</f>
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D13" s="31">
         <v>100</v>
       </c>
       <c r="E13" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 14, FALSE), "Not found")</f>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F13" s="34" t="str">
         <f>IF(OR(E13="",NOT(ISNUMBER(E13))),"",
@@ -9915,12 +9933,12 @@
 IF(E13&lt;3.5,"B",
 IF(E13&lt;5,"A-",
 "A+"))))))</f>
-        <v>A-</v>
-      </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="59"/>
+        <v>Fail</v>
+      </c>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="32">
@@ -9931,14 +9949,14 @@
       </c>
       <c r="C14" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 15, FALSE), "Not found")</f>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D14" s="31">
         <v>50</v>
       </c>
       <c r="E14" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 16, FALSE), "Not found")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F14" s="34" t="str">
         <f>IF(OR(E14="",NOT(ISNUMBER(E14))),"",
@@ -9948,12 +9966,12 @@
 IF(E14&lt;3.5,"B",
 IF(E14&lt;5,"A-",
 "A+"))))))</f>
-        <v>A+</v>
-      </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="59"/>
+        <v>Fail</v>
+      </c>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="67"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="32">
@@ -9964,14 +9982,14 @@
       </c>
       <c r="C15" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 17, FALSE), "Not found")</f>
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="D15" s="31">
         <v>100</v>
       </c>
       <c r="E15" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 18, FALSE), "Not found")</f>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F15" s="34" t="str">
         <f>IF(OR(E15="",NOT(ISNUMBER(E15))),"",
@@ -9981,12 +9999,12 @@
 IF(E15&lt;3.5,"B",
 IF(E15&lt;5,"A-",
 "A+"))))))</f>
-        <v>A-</v>
-      </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="59"/>
+        <v>Fail</v>
+      </c>
+      <c r="G15" s="64"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="32">
@@ -9997,14 +10015,14 @@
       </c>
       <c r="C16" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 19, FALSE), "Not found")</f>
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="D16" s="31">
         <v>100</v>
       </c>
       <c r="E16" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 20, FALSE), "Not found")</f>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F16" s="34" t="str">
         <f>IF(OR(E16="",NOT(ISNUMBER(E16))),"",
@@ -10014,12 +10032,12 @@
 IF(E16&lt;3.5,"B",
 IF(E16&lt;5,"A-",
 "A+"))))))</f>
-        <v>A-</v>
-      </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="59"/>
+        <v>Fail</v>
+      </c>
+      <c r="G16" s="64"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="67"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="32">
@@ -10030,32 +10048,32 @@
       </c>
       <c r="C17" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 21, FALSE), "Not found")</f>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D17" s="31">
         <v>50</v>
       </c>
       <c r="E17" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 22, FALSE), "Not found")</f>
-        <v>2</v>
-      </c>
-      <c r="F17" s="34" t="str">
+        <v>0</v>
+      </c>
+      <c r="F17" s="34">
         <f>IF(C17&gt;=40, "A+", IF(C17&gt;=35, "A", IF(O30&gt;=34, 1.75, IF(O30&gt;=30, 1.5, IF(O30&gt;=25, 1, IF(O30&gt;=20, 0.5, 0))))))</f>
-        <v>A</v>
-      </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="59"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="64"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="67"/>
     </row>
     <row r="18" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="58"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="35">
         <f>SUM(C8:C17)</f>
-        <v>512</v>
+        <v>164</v>
       </c>
       <c r="D18" s="37">
         <f>SUM(D8:D17)</f>
@@ -10063,13 +10081,13 @@
       </c>
       <c r="E18" s="36">
         <f>SUM(E8:E17)</f>
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="F18" s="40"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="53"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="28" t="s">
@@ -10078,53 +10096,56 @@
     </row>
     <row r="20" spans="1:10" ht="8.4" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="63"/>
-      <c r="H21" s="63" t="s">
+      <c r="C21" s="57"/>
+      <c r="H21" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="H22" s="63" t="s">
+      <c r="C22" s="57"/>
+      <c r="H22" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="H23" s="63" t="s">
+      <c r="C23" s="57"/>
+      <c r="H23" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
     </row>
     <row r="24" spans="1:10" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="50"/>
+      <c r="F25" s="58"/>
       <c r="I25" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="H23:J23"/>
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="E25:F25"/>
@@ -10140,9 +10161,6 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="J8:J17"/>
     <mergeCell ref="I8:I17"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <conditionalFormatting sqref="E8:E16">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
@@ -10193,8 +10211,8 @@
   </sheetPr>
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -10210,60 +10228,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
     </row>
     <row r="2" spans="1:20" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:20" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:20" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
       <c r="R4" s="4" t="s">
         <v>117</v>
       </c>
@@ -10276,55 +10294,55 @@
       <c r="R5" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="S5" s="66">
+      <c r="S5" s="46">
         <f>SUM(J6:J13)-S6</f>
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="73" t="str" cm="1">
+      <c r="B6" s="74"/>
+      <c r="C6" s="75" t="str" cm="1">
         <f t="array" ref="C6">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47, Datasheet!AA7:AA47=""))</f>
         <v>1, 4, 5, 8, 9, 11, 40</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="74">
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="73">
         <f>IF(C6="", 0, LEN(C6) - LEN(SUBSTITUTE(C6, ",", "")) + 1)</f>
         <v>7</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="S6" s="66">
+      <c r="S6" s="46">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="76"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="74"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="74" t="str" cm="1">
+      <c r="B8" s="74"/>
+      <c r="C8" s="73" t="str" cm="1">
         <f t="array" ref="C8">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47,
   ( (Datasheet!F7:F47=0) +
     (Datasheet!J7:J47=0) +
@@ -10336,35 +10354,35 @@
 ))</f>
         <v>2, 3, 12, 18</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74">
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73">
         <f>IF(C8="", 0, LEN(C8) - LEN(SUBSTITUTE(C8, ",", "")) + 1)</f>
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="76"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="74" t="str" cm="1">
+      <c r="B10" s="74"/>
+      <c r="C10" s="73" t="str" cm="1">
         <f t="array" ref="C10">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47,
   ( (Datasheet!F7:F47=0) +
     (Datasheet!J7:J47=0) +
@@ -10376,13 +10394,13 @@
 ))</f>
         <v>14, 15, 16, 28</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74">
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73">
         <f>IF(C10="", 0, LEN(C10) - LEN(SUBSTITUTE(C10, ",", "")) + 1)</f>
         <v>4</v>
       </c>
@@ -10397,38 +10415,38 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="76"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
       <c r="Q11" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="R11" s="4">
-        <f>SUM($J$6:$J$13)-S11</f>
-        <v>23</v>
-      </c>
-      <c r="S11" s="64">
+      <c r="R11" s="45">
+        <f t="shared" ref="R11:R17" si="0">SUM($J$6:$J$13)-S11-4</f>
+        <v>19</v>
+      </c>
+      <c r="S11" s="44">
         <f>COUNTIF(Datasheet!$F$6:'Datasheet'!$F$47,0)-4</f>
         <v>18</v>
       </c>
-      <c r="T11" s="65">
-        <f>S11+R11</f>
-        <v>41</v>
+      <c r="T11" s="45">
+        <f t="shared" ref="T11:T17" si="1">S11+R11</f>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="75" t="str" cm="1">
+      <c r="B12" s="71"/>
+      <c r="C12" s="72" t="str" cm="1">
         <f t="array" ref="C12">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47,
   ( (Datasheet!F7:F47=0) +
     (Datasheet!J7:J47=0) +
@@ -10440,57 +10458,57 @@
 ))</f>
         <v>6, 7, 10, 13, 17, 19, 20, 21, 22, 23, 24, 25, 26, 27, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 41</v>
       </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="74">
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="73">
         <f>IF(C12="", 0, LEN(C12) - LEN(SUBSTITUTE(C12, ",", "")) + 1)</f>
         <v>26</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="R12" s="4">
-        <f>SUM($J$6:$J$13)-S12</f>
-        <v>17</v>
-      </c>
-      <c r="S12" s="64">
+      <c r="R12" s="45">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="S12" s="44">
         <f>COUNTIF(Datasheet!$J$6:'Datasheet'!$J$47,0)-4</f>
         <v>24</v>
       </c>
-      <c r="T12" s="65">
-        <f>S12+R12</f>
-        <v>41</v>
+      <c r="T12" s="45">
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="74"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="73"/>
       <c r="Q13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="R13" s="4">
-        <f>SUM($J$6:$J$13)-S13</f>
-        <v>14</v>
-      </c>
-      <c r="S13" s="64">
+      <c r="R13" s="45">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="S13" s="44">
         <f>COUNTIF(Datasheet!$L$6:'Datasheet'!$L$47,0)-4</f>
         <v>27</v>
       </c>
-      <c r="T13" s="65">
-        <f>S13+R13</f>
-        <v>41</v>
+      <c r="T13" s="45">
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10510,17 +10528,17 @@
       <c r="Q14" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="R14" s="4">
-        <f>SUM($J$6:$J$13)-S14</f>
-        <v>22</v>
-      </c>
-      <c r="S14" s="64">
+      <c r="R14" s="45">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="S14" s="44">
         <f>COUNTIF(Datasheet!$N$6:'Datasheet'!$N$47,0)-4</f>
         <v>19</v>
       </c>
-      <c r="T14" s="65">
-        <f>S14+R14</f>
-        <v>41</v>
+      <c r="T14" s="45">
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10537,17 +10555,17 @@
       <c r="Q15" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="R15" s="4">
-        <f>SUM($J$6:$J$13)-S15</f>
-        <v>29</v>
-      </c>
-      <c r="S15" s="64">
+      <c r="R15" s="45">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="S15" s="44">
         <f>COUNTIF(Datasheet!$P$6:'Datasheet'!$P$47,0)-4</f>
         <v>12</v>
       </c>
-      <c r="T15" s="65">
-        <f>S15+R15</f>
-        <v>41</v>
+      <c r="T15" s="45">
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10564,78 +10582,78 @@
       <c r="Q16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R16" s="4">
-        <f>SUM($J$6:$J$13)-S16</f>
-        <v>22</v>
-      </c>
-      <c r="S16" s="64">
+      <c r="R16" s="45">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="S16" s="44">
         <f>COUNTIF(Datasheet!$R$6:'Datasheet'!$R$47,0)-4</f>
         <v>19</v>
       </c>
-      <c r="T16" s="65">
-        <f>S16+R16</f>
-        <v>41</v>
+      <c r="T16" s="45">
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="Q17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="R17" s="4">
-        <f>SUM($J$6:$J$13)-S17</f>
-        <v>23</v>
-      </c>
-      <c r="S17" s="64">
+      <c r="R17" s="45">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="S17" s="44">
         <f>COUNTIF(Datasheet!$T$6:'Datasheet'!$T$47,0)-4</f>
         <v>18</v>
       </c>
-      <c r="T17" s="65">
-        <f>S17+R17</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" s="67" customFormat="1" ht="22.2" x14ac:dyDescent="0.5">
-      <c r="A27" s="68" t="s">
+      <c r="T17" s="45">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="47" customFormat="1" ht="22.2" x14ac:dyDescent="0.5">
+      <c r="A27" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="70" t="s">
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="G27" s="70" t="s">
+      <c r="G27" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="H27" s="70" t="s">
+      <c r="H27" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="I27" s="70" t="s">
+      <c r="I27" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="J27" s="70" t="s">
+      <c r="J27" s="49" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="67" customFormat="1" ht="22.2" x14ac:dyDescent="0.5">
-      <c r="A28" s="71">
+    <row r="28" spans="1:20" s="47" customFormat="1" ht="22.2" x14ac:dyDescent="0.5">
+      <c r="A28" s="50">
         <v>1</v>
       </c>
-      <c r="B28" s="72" t="str">
+      <c r="B28" s="76" t="str">
         <f>IFERROR(INDEX(Datasheet!$B$7:$B$61, MATCH(1, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>সুমাইয়া খাতুন</v>
       </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="70">
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="49">
         <f>IFERROR(INDEX(Datasheet!$Y$7:$Y$61, MATCH(1, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>3.7857142857142856</v>
       </c>
-      <c r="G28" s="70" t="str">
+      <c r="G28" s="49" t="str">
         <f>IF(OR(F28="",NOT(ISNUMBER(F28))),"",
 IF(F28&lt;1,"Fail",
 IF(F28&lt;2,"D",
@@ -10645,35 +10663,35 @@
 IF(F28&lt;5,"A","A+")))))))</f>
         <v>A-</v>
       </c>
-      <c r="H28" s="70">
+      <c r="H28" s="49">
         <f>IFERROR(INDEX(Datasheet!$W$7:$W$61, MATCH(1, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>512</v>
       </c>
-      <c r="I28" s="70">
+      <c r="I28" s="49">
         <f>IFERROR(INDEX(Datasheet!$A$7:$A$61, MATCH(1, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>1</v>
       </c>
-      <c r="J28" s="70" t="s">
+      <c r="J28" s="49" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="67" customFormat="1" ht="22.2" x14ac:dyDescent="0.5">
-      <c r="A29" s="71">
+    <row r="29" spans="1:20" s="47" customFormat="1" ht="22.2" x14ac:dyDescent="0.5">
+      <c r="A29" s="50">
         <v>2</v>
       </c>
-      <c r="B29" s="72" t="str">
+      <c r="B29" s="76" t="str">
         <f>IFERROR(INDEX(Datasheet!$B$7:$B$61, MATCH(2, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>সোহেলী জান্নাত</v>
       </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="70">
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="49">
         <f>IFERROR(INDEX(Datasheet!$Y$7:$Y$61, MATCH(2, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>3.7857142857142856</v>
       </c>
-      <c r="G29" s="70" t="str">
-        <f t="shared" ref="G29:G34" si="0">IF(OR(F29="",NOT(ISNUMBER(F29))),"",
+      <c r="G29" s="49" t="str">
+        <f t="shared" ref="G29:G34" si="2">IF(OR(F29="",NOT(ISNUMBER(F29))),"",
 IF(F29&lt;1,"Fail",
 IF(F29&lt;2,"D",
 IF(F29&lt;3,"C",
@@ -10682,170 +10700,170 @@
 IF(F29&lt;5,"A","A+")))))))</f>
         <v>A-</v>
       </c>
-      <c r="H29" s="70">
+      <c r="H29" s="49">
         <f>IFERROR(INDEX(Datasheet!$W$7:$W$61, MATCH(2, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>509</v>
       </c>
-      <c r="I29" s="70">
+      <c r="I29" s="49">
         <f>IFERROR(INDEX(Datasheet!$A$7:$A$61, MATCH(2, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>40</v>
       </c>
-      <c r="J29" s="70" t="s">
+      <c r="J29" s="49" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="67" customFormat="1" ht="22.2" x14ac:dyDescent="0.5">
-      <c r="A30" s="71">
+    <row r="30" spans="1:20" s="47" customFormat="1" ht="22.2" x14ac:dyDescent="0.5">
+      <c r="A30" s="50">
         <v>3</v>
       </c>
-      <c r="B30" s="72" t="str">
+      <c r="B30" s="76" t="str">
+        <f>IFERROR(INDEX(Datasheet!$B$7:$B$61, MATCH(3, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>জান্নাতুল ইসলাম নাবিলা</v>
+      </c>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="49">
+        <f>IFERROR(INDEX(Datasheet!$Y$7:$Y$61, MATCH(3, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>3.1428571428571428</v>
+      </c>
+      <c r="G30" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="H30" s="49">
+        <f>IFERROR(INDEX(Datasheet!$W$7:$W$61, MATCH(3, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>446</v>
+      </c>
+      <c r="I30" s="49">
+        <f>IFERROR(INDEX(Datasheet!$A$7:$A$61, MATCH(3, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
+        <v>4</v>
+      </c>
+      <c r="J30" s="49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="47" customFormat="1" ht="22.2" x14ac:dyDescent="0.5">
+      <c r="A31" s="50">
+        <v>4</v>
+      </c>
+      <c r="B31" s="76" t="str">
         <f>IFERROR(INDEX(Datasheet!$B$7:$B$61, MATCH(4, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>হাবিবা রহমান</v>
       </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="70">
-        <f>IFERROR(INDEX(Datasheet!$Y$7:$Y$61, MATCH(3, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
-        <v>3.1428571428571428</v>
-      </c>
-      <c r="G30" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>B</v>
-      </c>
-      <c r="H30" s="70">
-        <f>IFERROR(INDEX(Datasheet!$W$7:$W$61, MATCH(3, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
-        <v>446</v>
-      </c>
-      <c r="I30" s="70">
-        <f>IFERROR(INDEX(Datasheet!$A$7:$A$61, MATCH(3, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
-        <v>4</v>
-      </c>
-      <c r="J30" s="70" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" s="67" customFormat="1" ht="22.2" x14ac:dyDescent="0.5">
-      <c r="A31" s="71">
-        <v>4</v>
-      </c>
-      <c r="B31" s="72" t="str">
-        <f>IFERROR(INDEX(Datasheet!$B$7:$B$61, MATCH(4, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
-        <v>হাবিবা রহমান</v>
-      </c>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="70">
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="49">
         <f>IFERROR(INDEX(Datasheet!$Y$7:$Y$61, MATCH(4, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>3</v>
       </c>
-      <c r="G31" s="70" t="str">
-        <f t="shared" si="0"/>
+      <c r="G31" s="49" t="str">
+        <f t="shared" si="2"/>
         <v>B</v>
       </c>
-      <c r="H31" s="70">
+      <c r="H31" s="49">
         <f>IFERROR(INDEX(Datasheet!$W$7:$W$61, MATCH(4, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>432</v>
       </c>
-      <c r="I31" s="70">
+      <c r="I31" s="49">
         <f>IFERROR(INDEX(Datasheet!$A$7:$A$61, MATCH(4, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>8</v>
       </c>
-      <c r="J31" s="70" t="s">
+      <c r="J31" s="49" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="67" customFormat="1" ht="22.2" x14ac:dyDescent="0.5">
-      <c r="A32" s="71">
+    <row r="32" spans="1:20" s="47" customFormat="1" ht="22.2" x14ac:dyDescent="0.5">
+      <c r="A32" s="50">
         <v>5</v>
       </c>
-      <c r="B32" s="72" t="str">
+      <c r="B32" s="76" t="str">
         <f>IFERROR(INDEX(Datasheet!$B$7:$B$61, MATCH(5, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>তিশান তাসমিন</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="70">
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="49">
         <f>IFERROR(INDEX(Datasheet!$Y$7:$Y$61, MATCH(5, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>2.8571428571428572</v>
       </c>
-      <c r="G32" s="70" t="str">
-        <f t="shared" si="0"/>
+      <c r="G32" s="49" t="str">
+        <f t="shared" si="2"/>
         <v>C</v>
       </c>
-      <c r="H32" s="70">
+      <c r="H32" s="49">
         <f>IFERROR(INDEX(Datasheet!$W$7:$W$61, MATCH(5, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>402</v>
       </c>
-      <c r="I32" s="70">
+      <c r="I32" s="49">
         <f>IFERROR(INDEX(Datasheet!$A$7:$A$61, MATCH(5, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>5</v>
       </c>
-      <c r="J32" s="70" t="s">
+      <c r="J32" s="49" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="67" customFormat="1" ht="22.2" x14ac:dyDescent="0.5">
-      <c r="A33" s="71">
+    <row r="33" spans="1:10" s="47" customFormat="1" ht="22.2" x14ac:dyDescent="0.5">
+      <c r="A33" s="50">
         <v>6</v>
       </c>
-      <c r="B33" s="72" t="str">
+      <c r="B33" s="76" t="str">
         <f>IFERROR(INDEX(Datasheet!$B$7:$B$61, MATCH(6, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>ফারজানা ইসলাম</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="70">
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="49">
         <f>IFERROR(INDEX(Datasheet!$Y$7:$Y$61, MATCH(6, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>2.7857142857142856</v>
       </c>
-      <c r="G33" s="70" t="str">
-        <f t="shared" si="0"/>
+      <c r="G33" s="49" t="str">
+        <f t="shared" si="2"/>
         <v>C</v>
       </c>
-      <c r="H33" s="70">
+      <c r="H33" s="49">
         <f>IFERROR(INDEX(Datasheet!$W$7:$W$61, MATCH(6, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>393</v>
       </c>
-      <c r="I33" s="70">
+      <c r="I33" s="49">
         <f>IFERROR(INDEX(Datasheet!$A$7:$A$61, MATCH(6, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>9</v>
       </c>
-      <c r="J33" s="70" t="s">
+      <c r="J33" s="49" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="67" customFormat="1" ht="22.2" x14ac:dyDescent="0.5">
-      <c r="A34" s="71">
+    <row r="34" spans="1:10" s="47" customFormat="1" ht="22.2" x14ac:dyDescent="0.5">
+      <c r="A34" s="50">
         <v>7</v>
       </c>
-      <c r="B34" s="72" t="str">
+      <c r="B34" s="76" t="str">
         <f>IFERROR(INDEX(Datasheet!$B$7:$B$61, MATCH(7, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>মোহনা জামান তিথী</v>
       </c>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="70">
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="49">
         <f>IFERROR(INDEX(Datasheet!$Y$7:$Y$61, MATCH(7, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>2.6428571428571428</v>
       </c>
-      <c r="G34" s="70" t="str">
-        <f t="shared" si="0"/>
+      <c r="G34" s="49" t="str">
+        <f t="shared" si="2"/>
         <v>C</v>
       </c>
-      <c r="H34" s="70">
+      <c r="H34" s="49">
         <f>IFERROR(INDEX(Datasheet!$W$7:$W$61, MATCH(7, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>375</v>
       </c>
-      <c r="I34" s="70">
+      <c r="I34" s="49">
         <f>IFERROR(INDEX(Datasheet!$A$7:$A$61, MATCH(7, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>11</v>
       </c>
-      <c r="J34" s="70" t="s">
+      <c r="J34" s="49" t="s">
         <v>107</v>
       </c>
     </row>

--- a/result calculation sheet.xlsx
+++ b/result calculation sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdous\Documents\GitHub\result_calculation_excel_sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdous\Documents\GitHub\result_calculation_excel_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9D4D8E-98BE-4C20-AF0D-12EA1879B066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032C8EB4-6F3C-4D49-B26B-74F76D5B708B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{86089DA0-2BA1-4133-B16D-0F30CFEF8E2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{86089DA0-2BA1-4133-B16D-0F30CFEF8E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasheet" sheetId="1" r:id="rId1"/>
@@ -790,6 +790,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -823,19 +829,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -844,14 +847,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3499,9 +3499,9 @@
   </sheetPr>
   <dimension ref="A1:AP63"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomLeft" activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.21875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -4006,7 +4006,7 @@
         <v>3.7857142857142856</v>
       </c>
       <c r="Z7" s="6">
-        <f>IF(AA7&lt;&gt;"", "", RANK(AC7, $AC$7:$AC$61, 0))</f>
+        <f t="shared" ref="Z7:Z61" si="13">IF(AA7&lt;&gt;"", "", RANK(AC7, $AC$7:$AC$61, 0))</f>
         <v>1</v>
       </c>
       <c r="AA7" s="6" t="str">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="AB7" s="22"/>
       <c r="AC7" s="22">
-        <f t="shared" ref="AC7:AC61" si="13">IF(MIN(F7,J7,L7,N7,P7,R7,T7)&lt;1, 0, MAX(0, X7/7))</f>
+        <f t="shared" ref="AC7:AC61" si="14">IF(MIN(F7,J7,L7,N7,P7,R7,T7)&lt;1, 0, MAX(0, X7/7))</f>
         <v>3.7857142857142856</v>
       </c>
       <c r="AD7" s="7"/>
@@ -4027,7 +4027,7 @@
     </row>
     <row r="8" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
-        <f t="shared" ref="A8:A61" si="14">ROW()-6</f>
+        <f t="shared" ref="A8:A61" si="15">ROW()-6</f>
         <v>2</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="6" t="str">
-        <f t="shared" ref="Z8:Z61" si="15">IF(AA8&lt;&gt;"", "", RANK(AC8, $AC$7:$AC$61, 0))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA8" s="6" t="str">
@@ -4125,7 +4125,7 @@
       </c>
       <c r="AB8" s="22"/>
       <c r="AC8" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD8" s="7"/>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="9" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA9" s="6" t="str">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="AB9" s="22"/>
       <c r="AC9" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD9" s="7"/>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="10" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -4336,7 +4336,7 @@
         <v>3.1428571428571428</v>
       </c>
       <c r="Z10" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AA10" s="6" t="str">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="AB10" s="22"/>
       <c r="AC10" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.1428571428571428</v>
       </c>
       <c r="AD10" s="7"/>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="11" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -4446,7 +4446,7 @@
         <v>2.8571428571428572</v>
       </c>
       <c r="Z11" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="AA11" s="6" t="str">
@@ -4455,7 +4455,7 @@
       </c>
       <c r="AB11" s="22"/>
       <c r="AC11" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="AD11" s="7"/>
@@ -4467,7 +4467,7 @@
     </row>
     <row r="12" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA12" s="6" t="str">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="AB12" s="22"/>
       <c r="AC12" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD12" s="7"/>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="13" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA13" s="6" t="str">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="AB13" s="22"/>
       <c r="AC13" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD13" s="7"/>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="14" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -4776,7 +4776,7 @@
         <v>3</v>
       </c>
       <c r="Z14" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="AA14" s="6" t="str">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="AB14" s="22"/>
       <c r="AC14" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="AD14" s="7"/>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="15" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -4886,7 +4886,7 @@
         <v>2.7857142857142856</v>
       </c>
       <c r="Z15" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="AA15" s="6" t="str">
@@ -4895,7 +4895,7 @@
       </c>
       <c r="AB15" s="22"/>
       <c r="AC15" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.7857142857142856</v>
       </c>
       <c r="AD15" s="7"/>
@@ -4907,7 +4907,7 @@
     </row>
     <row r="16" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA16" s="6" t="str">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="AB16" s="22"/>
       <c r="AC16" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD16" s="7"/>
@@ -5017,7 +5017,7 @@
     </row>
     <row r="17" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="B17" s="14" t="s">
@@ -5106,7 +5106,7 @@
         <v>2.6428571428571428</v>
       </c>
       <c r="Z17" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="AA17" s="6" t="str">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="AB17" s="22"/>
       <c r="AC17" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.6428571428571428</v>
       </c>
       <c r="AD17" s="7"/>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="18" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="Z18" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA18" s="6" t="str">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="AB18" s="22"/>
       <c r="AC18" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD18" s="7"/>
@@ -5237,7 +5237,7 @@
     </row>
     <row r="19" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="B19" s="14" t="s">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="Z19" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA19" s="6" t="str">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="AB19" s="22"/>
       <c r="AC19" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD19" s="7"/>
@@ -5347,7 +5347,7 @@
     </row>
     <row r="20" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -5436,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="Z20" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA20" s="6" t="str">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="AB20" s="22"/>
       <c r="AC20" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD20" s="7"/>
@@ -5457,7 +5457,7 @@
     </row>
     <row r="21" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="Z21" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA21" s="6" t="str">
@@ -5555,7 +5555,7 @@
       </c>
       <c r="AB21" s="22"/>
       <c r="AC21" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD21" s="7"/>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="22" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -5656,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="Z22" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA22" s="6" t="str">
@@ -5665,7 +5665,7 @@
       </c>
       <c r="AB22" s="22"/>
       <c r="AC22" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD22" s="7"/>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="23" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="Z23" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA23" s="6" t="str">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="AB23" s="22"/>
       <c r="AC23" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD23" s="7"/>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="24" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA24" s="6" t="str">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="AB24" s="22"/>
       <c r="AC24" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD24" s="7"/>
@@ -5897,7 +5897,7 @@
     </row>
     <row r="25" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="Z25" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA25" s="6" t="str">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="AB25" s="22"/>
       <c r="AC25" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD25" s="7"/>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="26" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="Z26" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA26" s="6" t="str">
@@ -6105,7 +6105,7 @@
       </c>
       <c r="AB26" s="22"/>
       <c r="AC26" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD26" s="7"/>
@@ -6117,7 +6117,7 @@
     </row>
     <row r="27" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
       <c r="B27" s="14" t="s">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="Z27" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA27" s="6" t="str">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="AB27" s="22"/>
       <c r="AC27" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD27" s="7"/>
@@ -6227,7 +6227,7 @@
     </row>
     <row r="28" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -6316,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA28" s="6" t="str">
@@ -6325,7 +6325,7 @@
       </c>
       <c r="AB28" s="22"/>
       <c r="AC28" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD28" s="7"/>
@@ -6337,7 +6337,7 @@
     </row>
     <row r="29" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="B29" s="14" t="s">
@@ -6426,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="Z29" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA29" s="6" t="str">
@@ -6435,7 +6435,7 @@
       </c>
       <c r="AB29" s="22"/>
       <c r="AC29" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD29" s="7"/>
@@ -6447,7 +6447,7 @@
     </row>
     <row r="30" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="B30" s="14" t="s">
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="Z30" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA30" s="6" t="str">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="AB30" s="22"/>
       <c r="AC30" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD30" s="7"/>
@@ -6557,7 +6557,7 @@
     </row>
     <row r="31" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="B31" s="14" t="s">
@@ -6646,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="Z31" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA31" s="6" t="str">
@@ -6655,7 +6655,7 @@
       </c>
       <c r="AB31" s="22"/>
       <c r="AC31" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD31" s="7"/>
@@ -6667,7 +6667,7 @@
     </row>
     <row r="32" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
       <c r="B32" s="14" t="s">
@@ -6756,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="Z32" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA32" s="6" t="str">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="AB32" s="22"/>
       <c r="AC32" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD32" s="7"/>
@@ -6777,7 +6777,7 @@
     </row>
     <row r="33" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
       <c r="B33" s="14" t="s">
@@ -6866,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="Z33" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA33" s="6" t="str">
@@ -6875,7 +6875,7 @@
       </c>
       <c r="AB33" s="22"/>
       <c r="AC33" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD33" s="7"/>
@@ -6887,7 +6887,7 @@
     </row>
     <row r="34" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
       <c r="B34" s="14" t="s">
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="Z34" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA34" s="6" t="str">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="AB34" s="22"/>
       <c r="AC34" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD34" s="7"/>
@@ -6997,7 +6997,7 @@
     </row>
     <row r="35" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29</v>
       </c>
       <c r="B35" s="14" t="s">
@@ -7086,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="Z35" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA35" s="6" t="str">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="AB35" s="22"/>
       <c r="AC35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD35" s="7"/>
@@ -7107,7 +7107,7 @@
     </row>
     <row r="36" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="B36" s="14" t="s">
@@ -7196,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="Z36" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA36" s="6" t="str">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="AB36" s="22"/>
       <c r="AC36" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD36" s="7"/>
@@ -7217,7 +7217,7 @@
     </row>
     <row r="37" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="B37" s="14" t="s">
@@ -7306,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="Z37" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA37" s="6" t="str">
@@ -7315,7 +7315,7 @@
       </c>
       <c r="AB37" s="22"/>
       <c r="AC37" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD37" s="7"/>
@@ -7327,7 +7327,7 @@
     </row>
     <row r="38" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="B38" s="14" t="s">
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="Z38" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA38" s="6" t="str">
@@ -7425,7 +7425,7 @@
       </c>
       <c r="AB38" s="22"/>
       <c r="AC38" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD38" s="7"/>
@@ -7437,7 +7437,7 @@
     </row>
     <row r="39" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>33</v>
       </c>
       <c r="B39" s="14" t="s">
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="Z39" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA39" s="6" t="str">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="AB39" s="22"/>
       <c r="AC39" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD39" s="7"/>
@@ -7547,7 +7547,7 @@
     </row>
     <row r="40" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>34</v>
       </c>
       <c r="B40" s="14" t="s">
@@ -7636,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="Z40" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA40" s="6" t="str">
@@ -7645,7 +7645,7 @@
       </c>
       <c r="AB40" s="22"/>
       <c r="AC40" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD40" s="7"/>
@@ -7657,7 +7657,7 @@
     </row>
     <row r="41" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -7746,7 +7746,7 @@
         <v>0</v>
       </c>
       <c r="Z41" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA41" s="6" t="str">
@@ -7755,7 +7755,7 @@
       </c>
       <c r="AB41" s="22"/>
       <c r="AC41" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD41" s="7"/>
@@ -7767,7 +7767,7 @@
     </row>
     <row r="42" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36</v>
       </c>
       <c r="B42" s="14" t="s">
@@ -7856,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="Z42" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA42" s="6" t="str">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="AB42" s="22"/>
       <c r="AC42" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD42" s="7"/>
@@ -7877,7 +7877,7 @@
     </row>
     <row r="43" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37</v>
       </c>
       <c r="B43" s="14" t="s">
@@ -7966,7 +7966,7 @@
         <v>0</v>
       </c>
       <c r="Z43" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA43" s="6" t="str">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="AB43" s="22"/>
       <c r="AC43" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD43" s="7"/>
@@ -7987,7 +7987,7 @@
     </row>
     <row r="44" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
       <c r="B44" s="14"/>
@@ -8074,7 +8074,7 @@
         <v>0</v>
       </c>
       <c r="Z44" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA44" s="6" t="str">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="AB44" s="22"/>
       <c r="AC44" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD44" s="7"/>
@@ -8095,7 +8095,7 @@
     </row>
     <row r="45" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>39</v>
       </c>
       <c r="B45" s="14" t="s">
@@ -8184,7 +8184,7 @@
         <v>0</v>
       </c>
       <c r="Z45" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA45" s="6" t="str">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="AB45" s="22"/>
       <c r="AC45" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD45" s="7"/>
@@ -8205,7 +8205,7 @@
     </row>
     <row r="46" spans="1:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
       <c r="B46" s="14" t="s">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="AB46" s="22"/>
       <c r="AC46" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.7857142857142856</v>
       </c>
       <c r="AD46" s="7"/>
@@ -8314,7 +8314,7 @@
     </row>
     <row r="47" spans="1:35" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A47" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="B47" s="15" t="s">
@@ -8403,7 +8403,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA47" s="6" t="str">
@@ -8412,7 +8412,7 @@
       </c>
       <c r="AB47" s="22"/>
       <c r="AC47" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD47" s="7"/>
@@ -8424,7 +8424,7 @@
     </row>
     <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>42</v>
       </c>
       <c r="E48" s="6">
@@ -8480,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="Z48" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA48" s="6" t="str">
@@ -8489,7 +8489,7 @@
       </c>
       <c r="AB48" s="22"/>
       <c r="AC48" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD48" s="7"/>
@@ -8501,7 +8501,7 @@
     </row>
     <row r="49" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43</v>
       </c>
       <c r="E49" s="6">
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="Z49" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA49" s="6" t="str">
@@ -8566,7 +8566,7 @@
       </c>
       <c r="AB49" s="22"/>
       <c r="AC49" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD49" s="7"/>
@@ -8578,7 +8578,7 @@
     </row>
     <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>44</v>
       </c>
       <c r="E50" s="6">
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="Z50" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA50" s="6" t="str">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="AB50" s="22"/>
       <c r="AC50" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD50" s="7"/>
@@ -8655,7 +8655,7 @@
     </row>
     <row r="51" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
       <c r="E51" s="6">
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="Z51" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA51" s="6" t="str">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="AB51" s="22"/>
       <c r="AC51" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD51" s="7"/>
@@ -8732,7 +8732,7 @@
     </row>
     <row r="52" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46</v>
       </c>
       <c r="E52" s="6">
@@ -8788,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="Z52" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA52" s="6" t="str">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="AB52" s="22"/>
       <c r="AC52" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD52" s="7"/>
@@ -8809,7 +8809,7 @@
     </row>
     <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>47</v>
       </c>
       <c r="E53" s="6">
@@ -8865,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="Z53" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA53" s="6" t="str">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="AB53" s="22"/>
       <c r="AC53" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD53" s="7"/>
@@ -8886,7 +8886,7 @@
     </row>
     <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>48</v>
       </c>
       <c r="E54" s="6">
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="Z54" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA54" s="6" t="str">
@@ -8951,7 +8951,7 @@
       </c>
       <c r="AB54" s="22"/>
       <c r="AC54" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD54" s="7"/>
@@ -8963,7 +8963,7 @@
     </row>
     <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>49</v>
       </c>
       <c r="E55" s="6">
@@ -9019,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="Z55" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA55" s="6" t="str">
@@ -9028,7 +9028,7 @@
       </c>
       <c r="AB55" s="22"/>
       <c r="AC55" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD55" s="7"/>
@@ -9040,7 +9040,7 @@
     </row>
     <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="E56" s="6">
@@ -9096,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="Z56" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA56" s="6" t="str">
@@ -9105,7 +9105,7 @@
       </c>
       <c r="AB56" s="22"/>
       <c r="AC56" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD56" s="7"/>
@@ -9117,7 +9117,7 @@
     </row>
     <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>51</v>
       </c>
       <c r="E57" s="6">
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="Z57" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA57" s="6" t="str">
@@ -9182,7 +9182,7 @@
       </c>
       <c r="AB57" s="22"/>
       <c r="AC57" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD57" s="7"/>
@@ -9194,7 +9194,7 @@
     </row>
     <row r="58" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>52</v>
       </c>
       <c r="E58" s="6">
@@ -9250,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="Z58" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA58" s="6" t="str">
@@ -9259,7 +9259,7 @@
       </c>
       <c r="AB58" s="22"/>
       <c r="AC58" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD58" s="7"/>
@@ -9271,7 +9271,7 @@
     </row>
     <row r="59" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>53</v>
       </c>
       <c r="E59" s="6">
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="Z59" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA59" s="6" t="str">
@@ -9336,7 +9336,7 @@
       </c>
       <c r="AB59" s="22"/>
       <c r="AC59" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD59" s="7"/>
@@ -9348,7 +9348,7 @@
     </row>
     <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>54</v>
       </c>
       <c r="E60" s="6">
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="Z60" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA60" s="6" t="str">
@@ -9413,7 +9413,7 @@
       </c>
       <c r="AB60" s="22"/>
       <c r="AC60" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD60" s="7"/>
@@ -9425,7 +9425,7 @@
     </row>
     <row r="61" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>55</v>
       </c>
       <c r="E61" s="6">
@@ -9481,7 +9481,7 @@
         <v>0</v>
       </c>
       <c r="Z61" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA61" s="6" t="str">
@@ -9490,7 +9490,7 @@
       </c>
       <c r="AB61" s="22"/>
       <c r="AC61" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD61" s="7"/>
@@ -9611,8 +9611,8 @@
   </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -9690,22 +9690,22 @@
       <c r="A5" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="62">
-        <v>41</v>
-      </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
+      <c r="B5" s="64">
+        <v>40</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
       <c r="F5" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="63" t="str">
+      <c r="G5" s="65" t="str">
         <f>IFERROR(VLOOKUP(B5, Datasheet!A7:AA61, 2, FALSE), "Not found")</f>
-        <v>আয়শা আক্তার লতা</v>
-      </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
+        <v>সোহেলী জান্নাত</v>
+      </c>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" s="29"/>
@@ -9757,16 +9757,16 @@
       </c>
       <c r="C8" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 3, FALSE), "Not found")</f>
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D8" s="31">
         <v>100</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="57">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 6, FALSE), "Not found")</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="68" t="str">
+        <v>4</v>
+      </c>
+      <c r="F8" s="57" t="str">
         <f>IF(OR(E8="",NOT(ISNUMBER(E8))),"",
 IF(E8&lt;1,"Fail",
 IF(E8&lt;2,"D",
@@ -9774,13 +9774,13 @@
 IF(E8&lt;3.5,"B",
 IF(E8&lt;5,"A-",
 "A+"))))))</f>
-        <v>Fail</v>
-      </c>
-      <c r="G8" s="64">
+        <v>A-</v>
+      </c>
+      <c r="G8" s="66">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 25, FALSE), "Not found")</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="65" t="str">
+        <v>3.7857142857142856</v>
+      </c>
+      <c r="H8" s="67" t="str">
         <f>IF(OR(G8="",NOT(ISNUMBER(G8))),"",
 IF(G8&lt;1,"Fail",
 IF(G8&lt;2,"D",
@@ -9788,15 +9788,15 @@
 IF(G8&lt;3.5,"B",
 IF(G8&lt;4,"A-",
 IF(G8&lt;5,"A","A+")))))))</f>
-        <v>Fail</v>
-      </c>
-      <c r="I8" s="68" t="str">
+        <v>A-</v>
+      </c>
+      <c r="I8" s="57">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 26, FALSE), "Not found")</f>
+        <v>2</v>
+      </c>
+      <c r="J8" s="69" t="str">
+        <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 27, FALSE), "Not found")</f>
         <v/>
-      </c>
-      <c r="J8" s="67" t="str">
-        <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 27, FALSE), "Not found")</f>
-        <v>অকৃতকার্য বিষয়: 7</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
@@ -9808,17 +9808,17 @@
       </c>
       <c r="C9" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 4, FALSE), "Not found")</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D9" s="31">
         <v>50</v>
       </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="67"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="69"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="31">
@@ -9829,16 +9829,16 @@
       </c>
       <c r="C10" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 7, FALSE), "Not found")</f>
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D10" s="31">
         <v>100</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="57">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 10, FALSE), "Not found")</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="68" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="F10" s="57" t="str">
         <f>IF(OR(E10="",NOT(ISNUMBER(E10))),"",
 IF(E10&lt;1,"Fail",
 IF(E10&lt;2,"D",
@@ -9846,12 +9846,12 @@
 IF(E10&lt;3.5,"B",
 IF(E10&lt;5,"A-",
 "A+"))))))</f>
-        <v>Fail</v>
-      </c>
-      <c r="G10" s="64"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="67"/>
+        <v>A-</v>
+      </c>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="31">
@@ -9862,17 +9862,17 @@
       </c>
       <c r="C11" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 8, FALSE), "Not found")</f>
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D11" s="31">
         <v>50</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="67"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="69"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="32">
@@ -9883,14 +9883,14 @@
       </c>
       <c r="C12" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 11, FALSE), "Not found")</f>
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D12" s="31">
         <v>100</v>
       </c>
       <c r="E12" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 12, FALSE), "Not found")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="34" t="str">
         <f>IF(OR(E12="",NOT(ISNUMBER(E12))),"",
@@ -9900,12 +9900,12 @@
 IF(E12&lt;3.5,"B",
 IF(E12&lt;5,"A-",
 "A+"))))))</f>
-        <v>Fail</v>
-      </c>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="67"/>
+        <v>D</v>
+      </c>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="69"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="32">
@@ -9916,14 +9916,14 @@
       </c>
       <c r="C13" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 13, FALSE), "Not found")</f>
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="D13" s="31">
         <v>100</v>
       </c>
       <c r="E13" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 14, FALSE), "Not found")</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F13" s="34" t="str">
         <f>IF(OR(E13="",NOT(ISNUMBER(E13))),"",
@@ -9933,12 +9933,12 @@
 IF(E13&lt;3.5,"B",
 IF(E13&lt;5,"A-",
 "A+"))))))</f>
-        <v>Fail</v>
-      </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="67"/>
+        <v>A-</v>
+      </c>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="32">
@@ -9949,14 +9949,14 @@
       </c>
       <c r="C14" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 15, FALSE), "Not found")</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D14" s="31">
         <v>50</v>
       </c>
       <c r="E14" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 16, FALSE), "Not found")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14" s="34" t="str">
         <f>IF(OR(E14="",NOT(ISNUMBER(E14))),"",
@@ -9966,12 +9966,12 @@
 IF(E14&lt;3.5,"B",
 IF(E14&lt;5,"A-",
 "A+"))))))</f>
-        <v>Fail</v>
-      </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="67"/>
+        <v>A+</v>
+      </c>
+      <c r="G14" s="66"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="69"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="32">
@@ -9982,14 +9982,14 @@
       </c>
       <c r="C15" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 17, FALSE), "Not found")</f>
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D15" s="31">
         <v>100</v>
       </c>
       <c r="E15" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 18, FALSE), "Not found")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" s="34" t="str">
         <f>IF(OR(E15="",NOT(ISNUMBER(E15))),"",
@@ -9999,12 +9999,12 @@
 IF(E15&lt;3.5,"B",
 IF(E15&lt;5,"A-",
 "A+"))))))</f>
-        <v>Fail</v>
-      </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="67"/>
+        <v>B</v>
+      </c>
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="69"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="32">
@@ -10015,14 +10015,14 @@
       </c>
       <c r="C16" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 19, FALSE), "Not found")</f>
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D16" s="31">
         <v>100</v>
       </c>
       <c r="E16" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 20, FALSE), "Not found")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F16" s="34" t="str">
         <f>IF(OR(E16="",NOT(ISNUMBER(E16))),"",
@@ -10032,12 +10032,12 @@
 IF(E16&lt;3.5,"B",
 IF(E16&lt;5,"A-",
 "A+"))))))</f>
-        <v>Fail</v>
-      </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="67"/>
+        <v>A+</v>
+      </c>
+      <c r="G16" s="66"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="32">
@@ -10048,32 +10048,38 @@
       </c>
       <c r="C17" s="34">
         <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 21, FALSE), "Not found")</f>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D17" s="31">
         <v>50</v>
       </c>
       <c r="E17" s="34">
-        <f>IFERROR(VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 22, FALSE), "Not found")</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="34">
-        <f>IF(C17&gt;=40, "A+", IF(C17&gt;=35, "A", IF(O30&gt;=34, 1.75, IF(O30&gt;=30, 1.5, IF(O30&gt;=25, 1, IF(O30&gt;=20, 0.5, 0))))))</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="67"/>
+        <f>IFERROR((VLOOKUP($B$5, Datasheet!$A$7:$AA$61, 22, FALSE))+2, "Not found")</f>
+        <v>3.5</v>
+      </c>
+      <c r="F17" s="34" t="str">
+        <f>IF(OR(E17="",NOT(ISNUMBER(E17))),"",
+IF(E17&lt;1,"Fail",
+IF(E17&lt;2,"D",
+IF(E17&lt;3,"C",
+IF(E17&lt;3.5,"B",
+IF(E17&lt;5,"A-",
+"A+"))))))</f>
+        <v>A-</v>
+      </c>
+      <c r="G17" s="66"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="69"/>
     </row>
     <row r="18" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="66"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="35">
         <f>SUM(C8:C17)</f>
-        <v>164</v>
+        <v>509</v>
       </c>
       <c r="D18" s="37">
         <f>SUM(D8:D17)</f>
@@ -10081,13 +10087,13 @@
       </c>
       <c r="E18" s="36">
         <f>SUM(E8:E17)</f>
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="F18" s="40"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="63"/>
     </row>
     <row r="19" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="28" t="s">
@@ -10096,55 +10102,48 @@
     </row>
     <row r="20" spans="1:10" ht="8.4" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="H21" s="57" t="s">
+      <c r="C21" s="59"/>
+      <c r="H21" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="H22" s="57" t="s">
+      <c r="C22" s="59"/>
+      <c r="H22" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="H23" s="57" t="s">
+      <c r="C23" s="59"/>
+      <c r="H23" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
     </row>
     <row r="24" spans="1:10" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="58"/>
+      <c r="F25" s="60"/>
       <c r="I25" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H21:J21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
@@ -10161,6 +10160,13 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="J8:J17"/>
     <mergeCell ref="I8:I17"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H21:J21"/>
   </mergeCells>
   <conditionalFormatting sqref="E8:E16">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
@@ -10300,21 +10306,21 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75" t="str" cm="1">
+      <c r="B6" s="75"/>
+      <c r="C6" s="73" t="str" cm="1">
         <f t="array" ref="C6">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47, Datasheet!AA7:AA47=""))</f>
         <v>1, 4, 5, 8, 9, 11, 40</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="73">
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="74">
         <f>IF(C6="", 0, LEN(C6) - LEN(SUBSTITUTE(C6, ",", "")) + 1)</f>
         <v>7</v>
       </c>
@@ -10326,23 +10332,23 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="73"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="74"/>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="73" t="str" cm="1">
+      <c r="B8" s="75"/>
+      <c r="C8" s="74" t="str" cm="1">
         <f t="array" ref="C8">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47,
   ( (Datasheet!F7:F47=0) +
     (Datasheet!J7:J47=0) +
@@ -10354,35 +10360,35 @@
 ))</f>
         <v>2, 3, 12, 18</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73">
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74">
         <f>IF(C8="", 0, LEN(C8) - LEN(SUBSTITUTE(C8, ",", "")) + 1)</f>
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="73" t="str" cm="1">
+      <c r="B10" s="75"/>
+      <c r="C10" s="74" t="str" cm="1">
         <f t="array" ref="C10">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47,
   ( (Datasheet!F7:F47=0) +
     (Datasheet!J7:J47=0) +
@@ -10394,13 +10400,13 @@
 ))</f>
         <v>14, 15, 16, 28</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73">
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74">
         <f>IF(C10="", 0, LEN(C10) - LEN(SUBSTITUTE(C10, ",", "")) + 1)</f>
         <v>4</v>
       </c>
@@ -10415,16 +10421,16 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
       <c r="Q11" s="4" t="s">
         <v>111</v>
       </c>
@@ -10442,11 +10448,11 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="72" t="str" cm="1">
+      <c r="B12" s="76"/>
+      <c r="C12" s="77" t="str" cm="1">
         <f t="array" ref="C12">_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(Datasheet!A7:A47,
   ( (Datasheet!F7:F47=0) +
     (Datasheet!J7:J47=0) +
@@ -10458,13 +10464,13 @@
 ))</f>
         <v>6, 7, 10, 13, 17, 19, 20, 21, 22, 23, 24, 25, 26, 27, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 41</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="73">
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="74">
         <f>IF(C12="", 0, LEN(C12) - LEN(SUBSTITUTE(C12, ",", "")) + 1)</f>
         <v>26</v>
       </c>
@@ -10485,16 +10491,16 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="73"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="74"/>
       <c r="Q13" s="4" t="s">
         <v>47</v>
       </c>
@@ -10616,12 +10622,12 @@
       <c r="A27" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="49" t="s">
         <v>110</v>
       </c>
@@ -10642,13 +10648,13 @@
       <c r="A28" s="50">
         <v>1</v>
       </c>
-      <c r="B28" s="76" t="str">
+      <c r="B28" s="71" t="str">
         <f>IFERROR(INDEX(Datasheet!$B$7:$B$61, MATCH(1, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>সুমাইয়া খাতুন</v>
       </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
       <c r="F28" s="49">
         <f>IFERROR(INDEX(Datasheet!$Y$7:$Y$61, MATCH(1, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>3.7857142857142856</v>
@@ -10679,13 +10685,13 @@
       <c r="A29" s="50">
         <v>2</v>
       </c>
-      <c r="B29" s="76" t="str">
+      <c r="B29" s="71" t="str">
         <f>IFERROR(INDEX(Datasheet!$B$7:$B$61, MATCH(2, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>সোহেলী জান্নাত</v>
       </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
       <c r="F29" s="49">
         <f>IFERROR(INDEX(Datasheet!$Y$7:$Y$61, MATCH(2, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>3.7857142857142856</v>
@@ -10716,13 +10722,13 @@
       <c r="A30" s="50">
         <v>3</v>
       </c>
-      <c r="B30" s="76" t="str">
+      <c r="B30" s="71" t="str">
         <f>IFERROR(INDEX(Datasheet!$B$7:$B$61, MATCH(3, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>জান্নাতুল ইসলাম নাবিলা</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
       <c r="F30" s="49">
         <f>IFERROR(INDEX(Datasheet!$Y$7:$Y$61, MATCH(3, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>3.1428571428571428</v>
@@ -10747,13 +10753,13 @@
       <c r="A31" s="50">
         <v>4</v>
       </c>
-      <c r="B31" s="76" t="str">
+      <c r="B31" s="71" t="str">
         <f>IFERROR(INDEX(Datasheet!$B$7:$B$61, MATCH(4, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>হাবিবা রহমান</v>
       </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
       <c r="F31" s="49">
         <f>IFERROR(INDEX(Datasheet!$Y$7:$Y$61, MATCH(4, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>3</v>
@@ -10778,13 +10784,13 @@
       <c r="A32" s="50">
         <v>5</v>
       </c>
-      <c r="B32" s="76" t="str">
+      <c r="B32" s="71" t="str">
         <f>IFERROR(INDEX(Datasheet!$B$7:$B$61, MATCH(5, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>তিশান তাসমিন</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
       <c r="F32" s="49">
         <f>IFERROR(INDEX(Datasheet!$Y$7:$Y$61, MATCH(5, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>2.8571428571428572</v>
@@ -10809,13 +10815,13 @@
       <c r="A33" s="50">
         <v>6</v>
       </c>
-      <c r="B33" s="76" t="str">
+      <c r="B33" s="71" t="str">
         <f>IFERROR(INDEX(Datasheet!$B$7:$B$61, MATCH(6, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>ফারজানা ইসলাম</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
       <c r="F33" s="49">
         <f>IFERROR(INDEX(Datasheet!$Y$7:$Y$61, MATCH(6, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>2.7857142857142856</v>
@@ -10840,13 +10846,13 @@
       <c r="A34" s="50">
         <v>7</v>
       </c>
-      <c r="B34" s="76" t="str">
+      <c r="B34" s="71" t="str">
         <f>IFERROR(INDEX(Datasheet!$B$7:$B$61, MATCH(7, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>মোহনা জামান তিথী</v>
       </c>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
       <c r="F34" s="49">
         <f>IFERROR(INDEX(Datasheet!$Y$7:$Y$61, MATCH(7, Datasheet!$Z$7:$Z$61, 0)), "Not found")</f>
         <v>2.6428571428571428</v>
@@ -10869,21 +10875,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A6:B7"/>
     <mergeCell ref="A12:B13"/>
     <mergeCell ref="C12:I13"/>
     <mergeCell ref="J12:J13"/>
@@ -10893,6 +10884,21 @@
     <mergeCell ref="C10:I11"/>
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
